--- a/licitaciones_cerradas_2019.xlsx
+++ b/licitaciones_cerradas_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F735"/>
+  <dimension ref="A1:F736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13117,12 +13117,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>3663-29-LE22</t>
+          <t>2422-297-LE22</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>MAMOGRAFIAS</t>
+          <t>SOL. 936791 IMPRESORAS LASER Y MULTIFUNCIONAL</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>2022-05-27T16:35:00</t>
+          <t>2022-05-27T16:39:00</t>
         </is>
       </c>
       <c r="E456" s="2" t="n">
@@ -13138,19 +13138,19 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3663-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-297-LE22</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>3268-45-L122</t>
+          <t>3663-29-LE22</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t xml:space="preserve">002 001 01-2022 DPTO GUARNICIONAL COLCHONES 1 PLAZA </t>
+          <t>MAMOGRAFIAS</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T16:35:00</t>
         </is>
       </c>
       <c r="E457" s="2" t="n">
@@ -13166,19 +13166,19 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3268-45-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3663-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>855-13-LE22</t>
+          <t>3268-45-L122</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CMEE-ARRIENDO Y MANTENCIÓN DE CAMIONETA JUNJI</t>
+          <t xml:space="preserve">002 001 01-2022 DPTO GUARNICIONAL COLCHONES 1 PLAZA </t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -13194,19 +13194,19 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=855-13-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3268-45-L122</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>4237-20-LE22</t>
+          <t>855-13-LE22</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ADQUISICION DE TIRAS DE FIERROS PARA EJECUCION DE</t>
+          <t>CMEE-ARRIENDO Y MANTENCIÓN DE CAMIONETA JUNJI</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -13222,19 +13222,19 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4237-20-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=855-13-LE22</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>4469-32-L122</t>
+          <t>4237-20-LE22</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>S..C.. N° 30430 Y 30431 (U.F.). IMPLEMENTACIÓN DE LABORATORIO E INSUMOS PARA ANÁLISIS BIODEGRADABILIDAD. CEAM.  UPLA.</t>
+          <t>ADQUISICION DE TIRAS DE FIERROS PARA EJECUCION DE</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -13250,19 +13250,19 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-32-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4237-20-LE22</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>1658-351-L122</t>
+          <t>4469-32-L122</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>S50/2022/SERVICIO MANTENCION DE CALDERA A GAS DE EDIFICIO DIDECO.</t>
+          <t>S..C.. N° 30430 Y 30431 (U.F.). IMPLEMENTACIÓN DE LABORATORIO E INSUMOS PARA ANÁLISIS BIODEGRADABILIDAD. CEAM.  UPLA.</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -13278,19 +13278,19 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-351-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-32-L122</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>1658-352-L122</t>
+          <t>1658-351-L122</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>S82/2022/OPERACIONES/ADQ. MATERIALES DE CONSTRUCCION PARA GALPON DEL DEPTO. REPARACION DE INMUEBLES Y MUEBLES MUNICIPALES DE OPERACIONES, DE ACUERDO A ESPECIFICACIONES TECNICAS ADJUNTAS.</t>
+          <t>S50/2022/SERVICIO MANTENCION DE CALDERA A GAS DE EDIFICIO DIDECO.</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -13306,19 +13306,19 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-352-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-351-L122</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2409-310-L122</t>
+          <t>1658-352-L122</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ADQ. DE INSUMOS INFORMATICOS PARA ESC. D-870</t>
+          <t>S82/2022/OPERACIONES/ADQ. MATERIALES DE CONSTRUCCION PARA GALPON DEL DEPTO. REPARACION DE INMUEBLES Y MUEBLES MUNICIPALES DE OPERACIONES, DE ACUERDO A ESPECIFICACIONES TECNICAS ADJUNTAS.</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -13334,19 +13334,19 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-310-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-352-L122</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>1395-52-LQ22</t>
+          <t>2409-310-L122</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Adquisicion de Licencias Office-H.Ovalle</t>
+          <t>ADQ. DE INSUMOS INFORMATICOS PARA ESC. D-870</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -13362,19 +13362,19 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1395-52-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-310-L122</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>4105-12-LE22</t>
+          <t>1395-52-LQ22</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Servicios Profesionales Auditoría Financiera Conta</t>
+          <t>Adquisicion de Licencias Office-H.Ovalle</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -13390,19 +13390,19 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4105-12-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1395-52-LQ22</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>4282-8-LE22</t>
+          <t>4105-12-LE22</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Capacitación FAEP 2020</t>
+          <t>Servicios Profesionales Auditoría Financiera Conta</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -13418,19 +13418,19 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4282-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4105-12-LE22</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>600644-6-LQ22</t>
+          <t>4282-8-LE22</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SERVICIO DE ASEO COMPLEJO FRONTERIZO COLCHANE </t>
+          <t>Capacitación FAEP 2020</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>2022-05-27T16:29:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E467" s="2" t="n">
@@ -13446,19 +13446,19 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=600644-6-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4282-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>951405-26-LE22</t>
+          <t>600644-6-LQ22</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>SERVICIO MANT-REPARACIÓN ELECTRICA PABELLÓN CMC</t>
+          <t xml:space="preserve"> SERVICIO DE ASEO COMPLEJO FRONTERIZO COLCHANE </t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>2022-05-27T16:02:00</t>
+          <t>2022-05-27T16:29:00</t>
         </is>
       </c>
       <c r="E468" s="2" t="n">
@@ -13474,19 +13474,19 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=600644-6-LQ22</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>3747-17-LE22</t>
+          <t>951405-26-LE22</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>PROTESIS E INSUMOS PROGRAMA GES ODONTOLOGICOS</t>
+          <t>SERVICIO MANT-REPARACIÓN ELECTRICA PABELLÓN CMC</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -13494,7 +13494,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:02:00</t>
         </is>
       </c>
       <c r="E469" s="2" t="n">
@@ -13502,19 +13502,19 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3747-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>951405-29-L122</t>
+          <t>3747-17-LE22</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MATERIALES DE OFICINA PARA EL CMC, TERCER PROCESO</t>
+          <t>PROTESIS E INSUMOS PROGRAMA GES ODONTOLOGICOS</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -13530,19 +13530,19 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-29-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3747-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>1995-7-L122</t>
+          <t>951405-29-L122</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAPACITACIÓN EN MANEJO E INTERVENCIÓN EN CRISIS EN EL ÁMBITO LABORAL </t>
+          <t>ADQUISICION DE MATERIALES DE OFICINA PARA EL CMC, TERCER PROCESO</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -13558,19 +13558,19 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1995-7-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-29-L122</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>1126-6-LE22</t>
+          <t>1995-7-L122</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CONSULTORIA PAE HORTICULTORES DE ARAUCO SPA</t>
+          <t xml:space="preserve">CAPACITACIÓN EN MANEJO E INTERVENCIÓN EN CRISIS EN EL ÁMBITO LABORAL </t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -13586,19 +13586,19 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1126-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1995-7-L122</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>1180825-9-LQ22</t>
+          <t>1126-6-LE22</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Provisión de Ambulancia de Emergencia Básica 4x2</t>
+          <t>CONSULTORIA PAE HORTICULTORES DE ARAUCO SPA</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -13614,19 +13614,19 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1180825-9-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1126-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2565-10-LE22</t>
+          <t>1180825-9-LQ22</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE SERVICIOS PARA PROGRAMA DE IMAGENES DIAGNOSTICAS</t>
+          <t>Provisión de Ambulancia de Emergencia Básica 4x2</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -13642,19 +13642,19 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2565-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1180825-9-LQ22</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>879-4-LE22</t>
+          <t>2565-10-LE22</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>SERV PROF DE SEGURIDAD Y SALUD OCUPACIONAL INJUV</t>
+          <t>ADQUISICIÓN DE SERVICIOS PARA PROGRAMA DE IMAGENES DIAGNOSTICAS</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -13670,19 +13670,19 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=879-4-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2565-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>1028871-23-LE22</t>
+          <t>879-4-LE22</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>SERVICIO SUMINISTRO TELAS MENAJE Y PAQUETERIA SLEP</t>
+          <t>SERV PROF DE SEGURIDAD Y SALUD OCUPACIONAL INJUV</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -13698,19 +13698,19 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028871-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=879-4-LE22</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>621-515-LQ22</t>
+          <t>1028871-23-LE22</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t xml:space="preserve">RANIBIZUMAB 05 MG005 ML SOL FAM  1000017033 </t>
+          <t>SERVICIO SUMINISTRO TELAS MENAJE Y PAQUETERIA SLEP</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -13726,19 +13726,19 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-515-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028871-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>1031849-9-LR22</t>
+          <t>621-515-LQ22</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>SERV. DE VIGILANCIA Y PROTECCION  SSTHNO C LIRQUEN</t>
+          <t xml:space="preserve">RANIBIZUMAB 05 MG005 ML SOL FAM  1000017033 </t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -13754,19 +13754,19 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1031849-9-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-515-LQ22</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>956-44-LR22</t>
+          <t>1031849-9-LR22</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Consultoría para la elaboración de estudios de mercado especificaciones técnicas y propuestas de evaluación de licitaciones de equipos y equipamiento para Proyecto Normalización Hospital Claudio Vicuña</t>
+          <t>SERV. DE VIGILANCIA Y PROTECCION  SSTHNO C LIRQUEN</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -13782,19 +13782,19 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=956-44-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1031849-9-LR22</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>621-489-LR22</t>
+          <t>956-44-LR22</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t xml:space="preserve">HIDROXICARBAMIDA 500 MG  CPCM  1000017015 </t>
+          <t>Consultoría para la elaboración de estudios de mercado especificaciones técnicas y propuestas de evaluación de licitaciones de equipos y equipamiento para Proyecto Normalización Hospital Claudio Vicuña</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -13810,19 +13810,19 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-489-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=956-44-LR22</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>621-490-LR22</t>
+          <t>621-489-LR22</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t xml:space="preserve">PIPERACILINATAZOBACTAM 4000500 MG FAM  1000017016 </t>
+          <t xml:space="preserve">HIDROXICARBAMIDA 500 MG  CPCM  1000017015 </t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -13838,19 +13838,19 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-490-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-489-LR22</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>621-477-LR22</t>
+          <t>621-490-LR22</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>GASA ALG. 4 PL 5X100 CM HILO R.O SO 5 UN 1000016972</t>
+          <t xml:space="preserve">PIPERACILINATAZOBACTAM 4000500 MG FAM  1000017016 </t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -13866,19 +13866,19 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-477-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-490-LR22</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>1057489-198-LR22</t>
+          <t>621-477-LR22</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Convenio de Suministro de reactivos insumos equipamiento completo y sistema informático para análisis automatizado para Laboratorio de Hematología y Citometría de Flujo por 48 meses para el Hospital del Salvador.</t>
+          <t>GASA ALG. 4 PL 5X100 CM HILO R.O SO 5 UN 1000016972</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -13894,19 +13894,19 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-198-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-477-LR22</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>557970-6-O122</t>
+          <t>1057489-198-LR22</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>CONSERV. RUTINARIA AD. PICHOY, COMUNA DE MARIQUINA</t>
+          <t>Convenio de Suministro de reactivos insumos equipamiento completo y sistema informático para análisis automatizado para Laboratorio de Hematología y Citometría de Flujo por 48 meses para el Hospital del Salvador.</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -13922,19 +13922,19 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=557970-6-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-198-LR22</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>885-65-LE22</t>
+          <t>557970-6-O122</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Adquisición de 14 impresoras multifuncionales</t>
+          <t>CONSERV. RUTINARIA AD. PICHOY, COMUNA DE MARIQUINA</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -13950,19 +13950,19 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-65-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=557970-6-O122</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>621-454-LR22</t>
+          <t>885-65-LE22</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t xml:space="preserve">METRONIDAZOL 500 MG CMCM REC.  1000016954 </t>
+          <t>Adquisición de 14 impresoras multifuncionales</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -13978,19 +13978,19 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-454-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-65-LE22</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>1017312-2-LQ22</t>
+          <t>621-454-LR22</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Servicio Proced. Diagnósticos y Terapeut. Iquique.</t>
+          <t xml:space="preserve">METRONIDAZOL 500 MG CMCM REC.  1000016954 </t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -14006,19 +14006,19 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017312-2-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-454-LR22</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>621-459-LR22</t>
+          <t>1017312-2-LQ22</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t xml:space="preserve">LITIO CARBONATO 450 MGCMCM REC LP  1000016947 </t>
+          <t>Servicio Proced. Diagnósticos y Terapeut. Iquique.</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -14034,19 +14034,19 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-459-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017312-2-LQ22</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>621-461-LR22</t>
+          <t>621-459-LR22</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUNITINIB 50 MG CP  1000016990 </t>
+          <t xml:space="preserve">LITIO CARBONATO 450 MGCMCM REC LP  1000016947 </t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -14062,19 +14062,19 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-461-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-459-LR22</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>621-462-LR22</t>
+          <t>621-461-LR22</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t xml:space="preserve">DISULFIRAM 500 MG CM  1000016992 </t>
+          <t xml:space="preserve">SUNITINIB 50 MG CP  1000016990 </t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -14090,19 +14090,19 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-462-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-461-LR22</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>1075963-388-LR21</t>
+          <t>621-462-LR22</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS ANTIMICROBIANOS</t>
+          <t xml:space="preserve">DISULFIRAM 500 MG CM  1000016992 </t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -14118,19 +14118,19 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-388-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-462-LR22</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>1075963-389-LR21</t>
+          <t>1075963-388-LR21</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS EN COMPRIMIDOS</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS ANTIMICROBIANOS</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -14146,19 +14146,19 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-389-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-388-LR21</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>1075963-390-LR21</t>
+          <t>1075963-389-LR21</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS REFRIGERADOS</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS EN COMPRIMIDOS</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -14174,19 +14174,19 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-390-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-389-LR21</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>1947-51-LE22</t>
+          <t>1075963-390-LR21</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>CONTRATACIÓN DEL SERVICIO DE ARRIENDO DE CAMAS CLÍNICAS DE PACIENTE INTENSIVO DEL HOSPITAL ROBERTO DEL RÍO</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS REFRIGERADOS</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -14202,19 +14202,19 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-51-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-390-LR21</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>885-54-LE22</t>
+          <t>1947-51-LE22</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACIÓN UPS 30KVA CR. COQUIMBO</t>
+          <t>CONTRATACIÓN DEL SERVICIO DE ARRIENDO DE CAMAS CLÍNICAS DE PACIENTE INTENSIVO DEL HOSPITAL ROBERTO DEL RÍO</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -14230,19 +14230,19 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-54-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-51-LE22</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>1057489-247-LE22</t>
+          <t>885-54-LE22</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Hisopo Gasa Estéril por 24 meses en el Hospital del Salvador </t>
+          <t>SUMINISTRO E INSTALACIÓN UPS 30KVA CR. COQUIMBO</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -14258,19 +14258,19 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-247-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-54-LE22</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2436-223-L122</t>
+          <t>1057489-247-LE22</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Adquisición de Estanque BioPlastic 5400 lts.,  Bomba Pedrollo, Autopress Elect, según archivo adjunto, necesarios para Cerro Condell.</t>
+          <t xml:space="preserve">Convenio de Suministro de Hisopo Gasa Estéril por 24 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -14286,19 +14286,19 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2436-223-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-247-LE22</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>1057489-246-LE22</t>
+          <t>2436-223-L122</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Grapadoras Circulares Curvas por 12 meses en el Hospital del Salvador </t>
+          <t>Adquisición de Estanque BioPlastic 5400 lts.,  Bomba Pedrollo, Autopress Elect, según archivo adjunto, necesarios para Cerro Condell.</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -14314,19 +14314,19 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-246-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2436-223-L122</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>4085-22-L122</t>
+          <t>1057489-246-LE22</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>MOBILIARIOS MENAJE Y ROPA DE CAMA CENTRO DIURNO.</t>
+          <t xml:space="preserve">Convenio de Suministro de Grapadoras Circulares Curvas por 12 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -14342,19 +14342,19 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-22-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-246-LE22</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>1057489-248-LE22</t>
+          <t>2422-306-L122</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Sutura Catgut por 24 meses en el Hospital del Salvador </t>
+          <t>S.A. 936887 COOLER LONCHERA</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -14370,19 +14370,19 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-248-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-306-L122</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>3220-10-LE22</t>
+          <t>4085-22-L122</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>SERVICIO DE MANTENIMIENTO CALDERA A VAPOR</t>
+          <t>MOBILIARIOS MENAJE Y ROPA DE CAMA CENTRO DIURNO.</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -14398,19 +14398,19 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3220-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-22-L122</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>3415-3-L122</t>
+          <t>1057489-248-LE22</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ELEMENTOS DE ESCRITORIO</t>
+          <t xml:space="preserve">Convenio de Suministro de Sutura Catgut por 24 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -14426,19 +14426,19 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3415-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-248-LE22</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2422-306-L122</t>
+          <t>3220-10-LE22</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>S.A. 936887 COOLER LONCHERA</t>
+          <t>SERVICIO DE MANTENIMIENTO CALDERA A VAPOR</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -14454,19 +14454,19 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-306-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3220-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>1057494-43-LE22</t>
+          <t>3415-3-L122</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Adquisición de Art. de Alimentación y Otros</t>
+          <t>ELEMENTOS DE ESCRITORIO</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -14482,19 +14482,19 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057494-43-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3415-3-L122</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>1149-22-LE22</t>
+          <t>1057494-43-LE22</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO RESBALÓN BAHÍA MURTA COMUNA DE IBÁÑEZ AÑO 2022</t>
+          <t>Adquisición de Art. de Alimentación y Otros</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -14510,19 +14510,19 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057494-43-LE22</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>1057499-18-LE22</t>
+          <t>1149-22-LE22</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE LA RED DEL SERVICIO DE SALUD METROPOLITANO SUR</t>
+          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO RESBALÓN BAHÍA MURTA COMUNA DE IBÁÑEZ AÑO 2022</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -14538,19 +14538,19 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057499-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2366-75-L122</t>
+          <t>1057499-18-LE22</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MATERIALES DE ASEO M.11 DIRECCIÓN</t>
+          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE LA RED DEL SERVICIO DE SALUD METROPOLITANO SUR</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>2022-05-27T15:59:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E507" s="2" t="n">
@@ -14566,19 +14566,19 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-75-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057499-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>3477-110-LR22</t>
+          <t>2366-75-L122</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>CONTRATACION SERVICIO VOZ DATOS E INTERNET PARA  INMUEBLES DE LA MUNICIPALIDAD DE VILCUN</t>
+          <t>ADQUISICIÓN DE MATERIALES DE ASEO M.11 DIRECCIÓN</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>2022-05-27T15:47:00</t>
+          <t>2022-05-27T15:59:00</t>
         </is>
       </c>
       <c r="E508" s="2" t="n">
@@ -14594,19 +14594,19 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3477-110-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-75-L122</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2422-298-LE22</t>
+          <t>3477-110-LR22</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>SOL. 936840 PARKA TERMICA</t>
+          <t>CONTRATACION SERVICIO VOZ DATOS E INTERNET PARA  INMUEBLES DE LA MUNICIPALIDAD DE VILCUN</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>2022-05-27T15:44:00</t>
+          <t>2022-05-27T15:47:00</t>
         </is>
       </c>
       <c r="E509" s="2" t="n">
@@ -14622,19 +14622,19 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-298-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3477-110-LR22</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2591-89-L122</t>
+          <t>2422-298-LE22</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MESAS Y SILLAS</t>
+          <t>SOL. 936840 PARKA TERMICA</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>2022-05-27T15:38:00</t>
+          <t>2022-05-27T15:44:00</t>
         </is>
       </c>
       <c r="E510" s="2" t="n">
@@ -14650,19 +14650,19 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-89-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-298-LE22</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>387-26-LR22</t>
+          <t>2591-89-L122</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>C.S Mantención áreas verdes de la Comuna de Los Muermos</t>
+          <t>ADQUISICIÓN DE MESAS Y SILLAS</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>2022-05-27T15:35:00</t>
+          <t>2022-05-27T15:38:00</t>
         </is>
       </c>
       <c r="E511" s="2" t="n">
@@ -14678,19 +14678,19 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=387-26-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-89-L122</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2258-72-LR22</t>
+          <t>387-26-LR22</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ANTIINFECCIOS INYECTABLES</t>
+          <t>C.S Mantención áreas verdes de la Comuna de Los Muermos</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>2022-05-27T15:31:00</t>
+          <t>2022-05-27T15:35:00</t>
         </is>
       </c>
       <c r="E512" s="2" t="n">
@@ -14706,19 +14706,19 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2258-72-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=387-26-LR22</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>3621-42-L122</t>
+          <t>2258-72-LR22</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>COMPRA DE MOBILIARIO</t>
+          <t>ANTIINFECCIOS INYECTABLES</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -14734,19 +14734,19 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-42-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2258-72-LR22</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>5190-29-LP22</t>
+          <t>3621-42-L122</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>FARMACIA - SUMINISTRO DE FORMULAS LACTEAS</t>
+          <t>COMPRA DE MOBILIARIO</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -14762,19 +14762,19 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5190-29-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-42-L122</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2377-185-L122</t>
+          <t>5190-29-LP22</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
+          <t>FARMACIA - SUMINISTRO DE FORMULAS LACTEAS</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -14790,19 +14790,19 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-185-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5190-29-LP22</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>1057430-42-LE22</t>
+          <t>2377-185-L122</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Convenio Servicios Climatización y Ventilación</t>
+          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -14810,7 +14810,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T15:31:00</t>
         </is>
       </c>
       <c r="E516" s="2" t="n">
@@ -14818,19 +14818,19 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057430-42-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-185-L122</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2703-126-L122</t>
+          <t>1057430-42-LE22</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>SC 8100 Doppler portátil. CESFAM</t>
+          <t>Convenio Servicios Climatización y Ventilación</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -14846,19 +14846,19 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-126-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057430-42-LE22</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>756-11-L122</t>
+          <t>2703-126-L122</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Adquisición de termos y hervidores de agua</t>
+          <t>SC 8100 Doppler portátil. CESFAM</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -14874,19 +14874,19 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-11-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-126-L122</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>1300-23-LE22</t>
+          <t>756-11-L122</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>CAMPAÑA DÍA DEL BUEN TRATO AL ADULTO MAYOR</t>
+          <t>Adquisición de termos y hervidores de agua</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -14902,19 +14902,19 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1300-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-11-L122</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>609-36-LE22</t>
+          <t>1300-23-LE22</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Consultas de Información Comercial de Usuarios</t>
+          <t>CAMPAÑA DÍA DEL BUEN TRATO AL ADULTO MAYOR</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=609-36-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1300-23-LE22</t>
         </is>
       </c>
     </row>
@@ -14965,12 +14965,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>756-10-L122</t>
+          <t>609-36-LE22</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Servicio de impresión de carpetas y sobres con grafica institucional.</t>
+          <t>Consultas de Información Comercial de Usuarios</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -14986,19 +14986,19 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=609-36-LE22</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>1993-11-LE22</t>
+          <t>756-10-L122</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Curso Gestión de Contratos en Servicios Públicos.</t>
+          <t>Servicio de impresión de carpetas y sobres con grafica institucional.</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -15014,19 +15014,19 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1993-11-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-10-L122</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>739-9-LE22</t>
+          <t>1993-11-LE22</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>SAT AREA LA CALERA QUILLOTA Y LIMACHE. INDAP R.VA</t>
+          <t>Curso Gestión de Contratos en Servicios Públicos.</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -15042,19 +15042,19 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-9-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1993-11-LE22</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>739-10-LP22</t>
+          <t>739-9-LE22</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SAT LA LIGUA FLORES. INDAP R.VALPO.</t>
+          <t>SAT AREA LA CALERA QUILLOTA Y LIMACHE. INDAP R.VA</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -15070,19 +15070,19 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-10-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-9-LE22</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>1411-19-LP22</t>
+          <t>739-10-LP22</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Servicio de aseo y limpieza para C.R.S. Santiago Occidente y CAIS Melipilla</t>
+          <t>SAT LA LIGUA FLORES. INDAP R.VALPO.</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -15098,19 +15098,19 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1411-19-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-10-LP22</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>1231-2-LE22</t>
+          <t>1411-19-LP22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Servicios de destrucción de mercancías DRAV</t>
+          <t>Servicio de aseo y limpieza para C.R.S. Santiago Occidente y CAIS Melipilla</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -15126,19 +15126,19 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1231-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1411-19-LP22</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2735-45-LE22</t>
+          <t>1231-2-LE22</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Servicios de Medición de Ruido</t>
+          <t>Servicios de destrucción de mercancías DRAV</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -15154,19 +15154,19 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1231-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2423-20-LR22</t>
+          <t>2735-45-LE22</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>SERVICIO DE RECOLECCIÓN TRANSPORTE Y DISPOSICIÓN DE RESIDUOS SOLIDOS DOMICILIARIOS Y ASIMILABLES</t>
+          <t>Servicios de Medición de Ruido</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -15182,19 +15182,19 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2423-20-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>3328-39-LE22</t>
+          <t>2423-20-LR22</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>JAG SERVICIO DE REPARACIÓN COMPLETA DE CALDERA</t>
+          <t>SERVICIO DE RECOLECCIÓN TRANSPORTE Y DISPOSICIÓN DE RESIDUOS SOLIDOS DOMICILIARIOS Y ASIMILABLES</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -15202,7 +15202,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>2022-05-27T15:29:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E530" s="2" t="n">
@@ -15210,19 +15210,19 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3328-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2423-20-LR22</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>1057441-42-LE22</t>
+          <t>3328-39-LE22</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Servicio de Mantención Prev. y Correct. Equipo Rx Dental</t>
+          <t>JAG SERVICIO DE REPARACIÓN COMPLETA DE CALDERA</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>2022-05-27T15:25:00</t>
+          <t>2022-05-27T15:29:00</t>
         </is>
       </c>
       <c r="E531" s="2" t="n">
@@ -15238,19 +15238,19 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057441-42-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3328-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2410-95-L122</t>
+          <t>1057441-42-LE22</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Adquisición de tintas para programa UAPO, CESFAM Nororiente</t>
+          <t>Servicio de Mantención Prev. y Correct. Equipo Rx Dental</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>2022-05-27T15:22:00</t>
+          <t>2022-05-27T15:25:00</t>
         </is>
       </c>
       <c r="E532" s="2" t="n">
@@ -15266,19 +15266,19 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2410-95-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057441-42-LE22</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2366-74-L122</t>
+          <t>2410-95-L122</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE OXIMETROS DE PULSO M.305 CESFAM AMADOR NEGHME</t>
+          <t>Adquisición de tintas para programa UAPO, CESFAM Nororiente</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>2022-05-27T15:17:00</t>
+          <t>2022-05-27T15:22:00</t>
         </is>
       </c>
       <c r="E533" s="2" t="n">
@@ -15294,19 +15294,19 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-74-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2410-95-L122</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>3231-84-E222</t>
+          <t>2366-74-L122</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>COMPRA DE COMPUTADORES IMPRESORAS Y DISCO DUROS P</t>
+          <t>ADQUISICIÓN DE OXIMETROS DE PULSO M.305 CESFAM AMADOR NEGHME</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>2022-05-27T15:11:00</t>
+          <t>2022-05-27T15:17:00</t>
         </is>
       </c>
       <c r="E534" s="2" t="n">
@@ -15322,19 +15322,19 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3231-84-E222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-74-L122</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>908366-8-LE22</t>
+          <t>3231-84-E222</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Servicios de arriendo de fotocopiadoras</t>
+          <t>COMPRA DE COMPUTADORES IMPRESORAS Y DISCO DUROS P</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>2022-05-27T15:10:00</t>
+          <t>2022-05-27T15:11:00</t>
         </is>
       </c>
       <c r="E535" s="2" t="n">
@@ -15350,19 +15350,19 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=908366-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3231-84-E222</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>5890-26-LE22</t>
+          <t>908366-8-LE22</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>CONTRATO OBRAS MENORES MT-0</t>
+          <t>Servicios de arriendo de fotocopiadoras</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -15378,19 +15378,19 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5890-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=908366-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>4090-25-LE22</t>
+          <t>5890-26-LE22</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>IMAGENES DIAGNOSTICAS - ECOTOMOGRAFIA ABDOMINAL</t>
+          <t>CONTRATO OBRAS MENORES MT-0</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>2022-05-27T15:08:00</t>
+          <t>2022-05-27T15:10:00</t>
         </is>
       </c>
       <c r="E537" s="2" t="n">
@@ -15406,19 +15406,19 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4090-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5890-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2790-97-L122</t>
+          <t>4090-25-LE22</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>EQUIPO ESPIRÓMETRO</t>
+          <t>IMAGENES DIAGNOSTICAS - ECOTOMOGRAFIA ABDOMINAL</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>2022-05-27T15:07:00</t>
+          <t>2022-05-27T15:08:00</t>
         </is>
       </c>
       <c r="E538" s="2" t="n">
@@ -15434,19 +15434,19 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-97-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4090-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2374-27-L122</t>
+          <t>2790-97-L122</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Corta de 4 árboles de Eucalytus</t>
+          <t>EQUIPO ESPIRÓMETRO</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:07:00</t>
         </is>
       </c>
       <c r="E539" s="2" t="n">
@@ -15462,19 +15462,19 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2374-27-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-97-L122</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>1116007-20-L122</t>
+          <t>2374-27-L122</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Adquisición gas licuado a granel</t>
+          <t>Corta de 4 árboles de Eucalytus</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -15490,19 +15490,19 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1116007-20-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2374-27-L122</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>2020-8-LE22</t>
+          <t>1116007-20-L122</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SE REQUIERE EL SERVICIO DE IMPRESION DE 600 LIBROS</t>
+          <t>Adquisición gas licuado a granel</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -15518,19 +15518,19 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2020-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1116007-20-L122</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2727-42-L122</t>
+          <t>2020-8-LE22</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACIÓN AIRE ACONDICIONADO FARMACIA COMUNAL</t>
+          <t>SE REQUIERE EL SERVICIO DE IMPRESION DE 600 LIBROS</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -15546,19 +15546,19 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2727-42-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2020-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>5349-14-LE22</t>
+          <t>2727-42-L122</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>CONTRATO DE PRESTACIÓN DE SERVICIOS DE PERSONAL AUXILIAR PARA APOYO EN LA UNIDAD DE EMERGENCIA DEL HOSPITAL PROVINCIAL DEL HUASCO MONSEÑOR FERNANDO ARIZTÍA RUIZ</t>
+          <t>SUMINISTRO E INSTALACIÓN AIRE ACONDICIONADO FARMACIA COMUNAL</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -15574,19 +15574,19 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5349-14-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2727-42-L122</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>4493-23-LE22</t>
+          <t>5349-14-LE22</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Adquisición de Combustible para Generador CESFAM</t>
+          <t>CONTRATO DE PRESTACIÓN DE SERVICIOS DE PERSONAL AUXILIAR PARA APOYO EN LA UNIDAD DE EMERGENCIA DEL HOSPITAL PROVINCIAL DEL HUASCO MONSEÑOR FERNANDO ARIZTÍA RUIZ</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -15602,19 +15602,19 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4493-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5349-14-LE22</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>2735-6-LR22</t>
+          <t>4493-23-LE22</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>OBRAS PARA LA RENOVACIÓN EJE LO BARNECHEA</t>
+          <t>Adquisición de Combustible para Generador CESFAM</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -15630,19 +15630,19 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-6-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4493-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>2562-5-LR22</t>
+          <t>2735-6-LR22</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Adquisición de vehículos combate de incendio</t>
+          <t>OBRAS PARA LA RENOVACIÓN EJE LO BARNECHEA</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E546" s="2" t="n">
@@ -15658,19 +15658,19 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2562-5-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-6-LR22</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>1947-39-LE22</t>
+          <t>2562-5-LR22</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>810-ADQUISICIÓN DE SERVICIO DE PLANIFICACIÓN DE CIRUGÍA MAXILOFACIAL PARA HOSPITAL DE NIÑOS ROBERTO DEL RIO CAF</t>
+          <t>Adquisición de vehículos combate de incendio</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -15686,19 +15686,19 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2562-5-LR22</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>2460-64-L122</t>
+          <t>1947-39-LE22</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MATERIALES DE FERRETERIA</t>
+          <t>810-ADQUISICIÓN DE SERVICIO DE PLANIFICACIÓN DE CIRUGÍA MAXILOFACIAL PARA HOSPITAL DE NIÑOS ROBERTO DEL RIO CAF</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -15714,19 +15714,19 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2460-64-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>979-10-LE22</t>
+          <t>2460-64-L122</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Elaboración y Tramitación de Informe Experto</t>
+          <t>ADQUISICION DE MATERIALES DE FERRETERIA</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -15742,19 +15742,19 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=979-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2460-64-L122</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>2424-33-LE22</t>
+          <t>979-10-LE22</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>484- - P.B - ADQUISICION TARIMA DE ESCENARIO</t>
+          <t>Elaboración y Tramitación de Informe Experto</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -15770,19 +15770,19 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-33-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=979-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>2424-70-LE22</t>
+          <t>2424-33-LE22</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>867 - INFRAESTRUCTURA - M.A. - SERVICIO DE PINTADO EXTERIOR DE MODULOS-MUNICIPIO DE CUIDADOS EN EL TERRITORIO</t>
+          <t>484- - P.B - ADQUISICION TARIMA DE ESCENARIO</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -15798,19 +15798,19 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-70-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-33-LE22</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>1150-16-O122</t>
+          <t>2424-70-LE22</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>CONSERV. Y REFUERZOS DE RIBERAS, ESTERO LAS CRUCES</t>
+          <t>867 - INFRAESTRUCTURA - M.A. - SERVICIO DE PINTADO EXTERIOR DE MODULOS-MUNICIPIO DE CUIDADOS EN EL TERRITORIO</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -15826,19 +15826,19 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1150-16-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-70-LE22</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>1003473-17-LQ22</t>
+          <t>1150-16-O122</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>CONTRATO DE SUMINISTRO DE INSUMOS DE SOPORTE RESPIRATORIO NO INVASIVO PARA EL HOSPITAL “SAN JUAN DE DIOS” DE CURICÓ</t>
+          <t>CONSERV. Y REFUERZOS DE RIBERAS, ESTERO LAS CRUCES</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -15854,19 +15854,19 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1003473-17-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1150-16-O122</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>4629-12-LR22</t>
+          <t>1003473-17-LQ22</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Serv. de red de datos seguridad perimetral y call</t>
+          <t>CONTRATO DE SUMINISTRO DE INSUMOS DE SOPORTE RESPIRATORIO NO INVASIVO PARA EL HOSPITAL “SAN JUAN DE DIOS” DE CURICÓ</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -15882,19 +15882,19 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4629-12-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1003473-17-LQ22</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>1057501-177-LR22</t>
+          <t>4629-12-LR22</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO JERINGAS CASR</t>
+          <t>Serv. de red de datos seguridad perimetral y call</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -15910,19 +15910,19 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057501-177-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4629-12-LR22</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>2080-138-LR22</t>
+          <t>1057501-177-LR22</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>SUMINISTRO AUDÍFONOS</t>
+          <t>CONVENIO SUMINISTRO JERINGAS CASR</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -15938,19 +15938,19 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2080-138-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057501-177-LR22</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>1079650-22-LQ22</t>
+          <t>2080-138-LR22</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Rep Ambulancias Hospital Guillermo Grant Benavente</t>
+          <t>SUMINISTRO AUDÍFONOS</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -15966,19 +15966,19 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079650-22-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2080-138-LR22</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>1079639-38-L122</t>
+          <t>1079650-22-LQ22</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADQUISICIÒN DE MATERIALES DE CONSTRUCCIÒN PARA LA REPARACIÒN DEL PISO, DE LA 4TA. COM. CHAITEN  </t>
+          <t>Rep Ambulancias Hospital Guillermo Grant Benavente</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -15994,19 +15994,19 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079639-38-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079650-22-LQ22</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>1057390-21-LP22</t>
+          <t>1079639-38-L122</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO DE PETROLEO PARA CALDERAS SSAN</t>
+          <t xml:space="preserve">ADQUISICIÒN DE MATERIALES DE CONSTRUCCIÒN PARA LA REPARACIÒN DEL PISO, DE LA 4TA. COM. CHAITEN  </t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -16022,19 +16022,19 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057390-21-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079639-38-L122</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>1591-11-LE22</t>
+          <t>1057390-21-LP22</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CURSOS DE CAPACITACIÓN PARA EL SERVICIO NACIONAL DE TURISMO ADJUDICACIÓN MÚLTIPLE</t>
+          <t>CONVENIO SUMINISTRO DE PETROLEO PARA CALDERAS SSAN</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -16050,19 +16050,19 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1591-11-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057390-21-LP22</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>548871-2-L122</t>
+          <t>1591-11-LE22</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Servicio de aseo IPS Porvenir</t>
+          <t>CURSOS DE CAPACITACIÓN PARA EL SERVICIO NACIONAL DE TURISMO ADJUDICACIÓN MÚLTIPLE</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -16078,19 +16078,19 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548871-2-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1591-11-LE22</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>906-16-LE22</t>
+          <t>548871-2-L122</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MIRL Servicio de Aseo y auxiliar</t>
+          <t>Servicio de aseo IPS Porvenir</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -16106,19 +16106,19 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=906-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548871-2-L122</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>4491-36-LE22</t>
+          <t>906-16-LE22</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Reparación Liceo Pencopolitano Comuna de Penco</t>
+          <t>MIRL Servicio de Aseo y auxiliar</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -16134,19 +16134,19 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4491-36-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=906-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>699866-51-LE22</t>
+          <t>4491-36-LE22</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>CONVENIO DE INSUMOS COMPATIBLES CON EMBOLSADORA AUTOBAG</t>
+          <t>Reparación Liceo Pencopolitano Comuna de Penco</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -16162,19 +16162,19 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=699866-51-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4491-36-LE22</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>1699-6-LE22</t>
+          <t>699866-51-LE22</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Mantenciones de Viviendas Judiciales Zonal Rgua</t>
+          <t>CONVENIO DE INSUMOS COMPATIBLES CON EMBOLSADORA AUTOBAG</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -16190,19 +16190,19 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1699-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=699866-51-LE22</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>2200-33-L122</t>
+          <t>1699-6-LE22</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>CURSO ESTRATEGIAS DE ABORDAJE DE NIÑOS, NIÑAS Y ADOLESCENTES HOSPITALIZADOS POR CONDICIÓN DE SALUD MENTAL - U. CAP</t>
+          <t>Mantenciones de Viviendas Judiciales Zonal Rgua</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -16218,19 +16218,19 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2200-33-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1699-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>1380-121-LP22</t>
+          <t>2200-33-L122</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>182-22 CONTR SERV ARRIENDO EQ ELECTROENCEFALÓGRAFO</t>
+          <t>CURSO ESTRATEGIAS DE ABORDAJE DE NIÑOS, NIÑAS Y ADOLESCENTES HOSPITALIZADOS POR CONDICIÓN DE SALUD MENTAL - U. CAP</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -16246,19 +16246,19 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-121-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2200-33-L122</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>3502-61-LE22</t>
+          <t>1380-121-LP22</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE COMPACTADORA UNIDAD MEDIO AMBIENTE</t>
+          <t>182-22 CONTR SERV ARRIENDO EQ ELECTROENCEFALÓGRAFO</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -16274,19 +16274,19 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3502-61-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-121-LP22</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>548868-9-LE22</t>
+          <t>3502-61-LE22</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Servicio de Sala Cuna y Jardín Infantil IPS Xa.</t>
+          <t>ADQUISICIÓN DE COMPACTADORA UNIDAD MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -16302,19 +16302,19 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548868-9-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3502-61-LE22</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>1278-8-LE22</t>
+          <t>548868-9-LE22</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Materiales de Seguridad Vial para Prov. de Curicó</t>
+          <t>Servicio de Sala Cuna y Jardín Infantil IPS Xa.</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -16330,19 +16330,19 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1278-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548868-9-LE22</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>1077920-7-LE22</t>
+          <t>1278-8-LE22</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>COMPRA COADYUVANTES PARA TERAPIA ONCOLOGICA</t>
+          <t>Materiales de Seguridad Vial para Prov. de Curicó</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -16358,19 +16358,19 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1278-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>1201-26-LE22</t>
+          <t>1077920-7-LE22</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>CS de arriendo multifuncionales IND Aysén</t>
+          <t>COMPRA COADYUVANTES PARA TERAPIA ONCOLOGICA</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -16386,19 +16386,19 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>2284-118-L122</t>
+          <t>1201-26-LE22</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>SUMINISTRO MANTENCION Y REPARACION DE GASFITERIA — SOLICITUD Nº 45127</t>
+          <t>CS de arriendo multifuncionales IND Aysén</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -16414,19 +16414,19 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2284-118-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>1462-10-LE22</t>
+          <t>2284-118-L122</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>SERVICIO DE ASEO Y LIMPIEZA DE CONSULTORIO ADOSADO Y UNIDADES DE APOYO DEL HOSPITAL DE HUALAÑÉ</t>
+          <t>SUMINISTRO MANTENCION Y REPARACION DE GASFITERIA — SOLICITUD Nº 45127</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -16442,19 +16442,19 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1462-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2284-118-L122</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>796297-10-L122</t>
+          <t>1462-10-LE22</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>005 021 036/2022 GBS ADQUISICION DE CALEFACTOR A PELLET PARA C.R. SERRANO.</t>
+          <t>SERVICIO DE ASEO Y LIMPIEZA DE CONSULTORIO ADOSADO Y UNIDADES DE APOYO DEL HOSPITAL DE HUALAÑÉ</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -16470,19 +16470,19 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=796297-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1462-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>2424-149-L122</t>
+          <t>796297-10-L122</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>276 - DEPORTES - (M.A.) - KIT ARTICULOS DEPORTIVOS</t>
+          <t>005 021 036/2022 GBS ADQUISICION DE CALEFACTOR A PELLET PARA C.R. SERRANO.</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -16498,19 +16498,19 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-149-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=796297-10-L122</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>1017-2-LP22</t>
+          <t>2424-149-L122</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Servicio de Aseo NC y RM</t>
+          <t>276 - DEPORTES - (M.A.) - KIT ARTICULOS DEPORTIVOS</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -16526,19 +16526,19 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017-2-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-149-L122</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>2825-24-L122</t>
+          <t>1017-2-LP22</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ADQUISICIN MEDICAMENTO F.P.</t>
+          <t>Servicio de Aseo NC y RM</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -16554,19 +16554,19 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2825-24-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017-2-LP22</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>4463-10-LQ22</t>
+          <t>2825-24-L122</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Contrato de Suministro de Medicamentos en comprimidos para el Hospital de Curicó</t>
+          <t>ADQUISICIN MEDICAMENTO F.P.</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -16582,19 +16582,19 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4463-10-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2825-24-L122</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>1002-32-LE22</t>
+          <t>4463-10-LQ22</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>CONVENIO SERVICIO DE MANTENCION EQUIPOS DE LABORATORIO</t>
+          <t>Contrato de Suministro de Medicamentos en comprimidos para el Hospital de Curicó</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -16610,19 +16610,19 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002-32-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4463-10-LQ22</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>3497-21-LE22</t>
+          <t>1002-32-LE22</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>SUMINISTROS DE ALIMENTOS Y ABARROTES M. COBQUECURA</t>
+          <t>CONVENIO SERVICIO DE MANTENCION EQUIPOS DE LABORATORIO</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -16638,19 +16638,19 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3497-21-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002-32-LE22</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>1201-24-LE22</t>
+          <t>3497-21-LE22</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Suministro de trofeos y medallas Escolares 2022</t>
+          <t>SUMINISTROS DE ALIMENTOS Y ABARROTES M. COBQUECURA</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -16666,19 +16666,19 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-24-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3497-21-LE22</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>5737-3-LP22</t>
+          <t>1201-24-LE22</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Serv. tamizaje At. Medica Area Oftalmologia</t>
+          <t>Suministro de trofeos y medallas Escolares 2022</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -16694,19 +16694,19 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5737-3-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-24-LE22</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>3428-14-L122</t>
+          <t>5737-3-LP22</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servicio de reparación del sistema de alcantarillado del Destacamento </t>
+          <t>Serv. tamizaje At. Medica Area Oftalmologia</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -16722,19 +16722,19 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3428-14-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5737-3-LP22</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>657-19-LE22</t>
+          <t>3428-14-L122</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Aseo Delegacion Serviu Puerto Aysen</t>
+          <t xml:space="preserve">Servicio de reparación del sistema de alcantarillado del Destacamento </t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -16750,19 +16750,19 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=657-19-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3428-14-L122</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>5413-81-LE22</t>
+          <t>657-19-LE22</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Impresión de Libros en OFFSET para la Universidad de Los Lagos</t>
+          <t>Aseo Delegacion Serviu Puerto Aysen</t>
         </is>
       </c>
       <c r="C586" t="n">
@@ -16778,19 +16778,19 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5413-81-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=657-19-LE22</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>3794-44-LE22</t>
+          <t>5413-81-LE22</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>FLETE INTERNACIONAL MENAJE WASHINGTON ESTADOS UNIDOS - SANTIAGO CHILE</t>
+          <t>Impresión de Libros en OFFSET para la Universidad de Los Lagos</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -16806,19 +16806,19 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3794-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5413-81-LE22</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>3252-36-L122</t>
+          <t>3794-44-LE22</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>REPUESTOS Y ACCESORIOS CAMIONETA DAEM</t>
+          <t>FLETE INTERNACIONAL MENAJE WASHINGTON ESTADOS UNIDOS - SANTIAGO CHILE</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -16834,19 +16834,19 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3252-36-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3794-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>933-7-LE22</t>
+          <t>1028-41-L122</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Implementos Deportivos para Programa</t>
+          <t>Artículos de Escritorio</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -16862,19 +16862,19 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=933-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028-41-L122</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>1002588-46-LE22</t>
+          <t>933-7-LE22</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Coffee break vía suministro para el SLEP.</t>
+          <t>Implementos Deportivos para Programa</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -16890,19 +16890,19 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002588-46-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=933-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>1979-125-LQ22</t>
+          <t>1002588-46-LE22</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>136.22 SERVICIO DE OPERACIÓN PARA SALA DE CONTROL CENTRALIZADO Y OTROS PARA NODO COSTERO: HOSPITAL DE NUEVA IMPERIAL.</t>
+          <t>Coffee break vía suministro para el SLEP.</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -16918,19 +16918,19 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-125-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002588-46-LE22</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>1059082-14-LE22</t>
+          <t>1979-125-LQ22</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Servicio Impresión J.I. JUNJI REGIÓN ÑUBLE</t>
+          <t>136.22 SERVICIO DE OPERACIÓN PARA SALA DE CONTROL CENTRALIZADO Y OTROS PARA NODO COSTERO: HOSPITAL DE NUEVA IMPERIAL.</t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -16946,19 +16946,19 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1059082-14-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-125-LQ22</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>1077920-8-LE22</t>
+          <t>1059082-14-LE22</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Compra de Fármacos Inyectables Tradicionales</t>
+          <t>Servicio Impresión J.I. JUNJI REGIÓN ÑUBLE</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -16974,19 +16974,19 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1059082-14-LE22</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>5155-14-LP22</t>
+          <t>1077920-8-LE22</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Serv Impresión carta variable para notificaciones</t>
+          <t>Compra de Fármacos Inyectables Tradicionales</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -17002,19 +17002,19 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5155-14-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1380-122-LQ22</t>
+          <t>5155-14-LP22</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>PPTA 198-22 “ADQUISICIÓN DE FORMULAS ENTERALES”</t>
+          <t>Serv Impresión carta variable para notificaciones</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -17030,19 +17030,19 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-122-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5155-14-LP22</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>1488-34-LE22</t>
+          <t>1380-122-LQ22</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Propuesta Pública Nº203-22 denominada “MEJORAMIENTO Y REMODELACIÓN PARA PLANTA DE TRATAMIENTO DE AGUA DEL HOSPITAL”</t>
+          <t>PPTA 198-22 “ADQUISICIÓN DE FORMULAS ENTERALES”</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -17058,19 +17058,19 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1488-34-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-122-LQ22</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>985737-2-LE22</t>
+          <t>1488-34-LE22</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>INSUMOS Y EQUIPOS PARA TALLERES  TNS ENFERMERIA</t>
+          <t>Propuesta Pública Nº203-22 denominada “MEJORAMIENTO Y REMODELACIÓN PARA PLANTA DE TRATAMIENTO DE AGUA DEL HOSPITAL”</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -17086,19 +17086,19 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=985737-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1488-34-LE22</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>29-66-L122</t>
+          <t>985737-2-LE22</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>DTS.079/2021 ADQUISICIÓN DE REPUESTOS PARA CAMIONETAS MARCA NISSAN ZNA DE LA FUERZA AÉREA DE CHILE</t>
+          <t>INSUMOS Y EQUIPOS PARA TALLERES  TNS ENFERMERIA</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -17114,19 +17114,19 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=29-66-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=985737-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>4281-29-LE22</t>
+          <t>2328-207-LE22</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>SERVICIO DE IMPRENTA PARA EL DSM-CUNCO.</t>
+          <t>ADQUISICIÓN NOTEBOOK PARA UNIDAD DE FINANZAS</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -17142,19 +17142,19 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-207-LE22</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>1028-41-L122</t>
+          <t>2409-311-L122</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Artículos de Escritorio</t>
+          <t>ADQ DE SILLAS PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -17170,19 +17170,19 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028-41-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-311-L122</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>2409-311-L122</t>
+          <t>2409-313-L122</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>ADQ DE SILLAS PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
+          <t>ADQ DE MESAS Y ESTANTES PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -17198,19 +17198,19 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-311-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-313-L122</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>550301-1-LE22</t>
+          <t>2409-314-L122</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>“SUMINISTRO DE MATERIALES PROGRAMA ORASMI</t>
+          <t>ADQUISICION DE MAQUINARIA PARA ESPECIALIDAD DE AGROPECUARIA DE LICEO LLANO BLANCO</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -17226,19 +17226,19 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=550301-1-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-314-L122</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>2328-207-LE22</t>
+          <t>4281-29-LE22</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN NOTEBOOK PARA UNIDAD DE FINANZAS</t>
+          <t>SERVICIO DE IMPRENTA PARA EL DSM-CUNCO.</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -17254,19 +17254,19 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-207-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>2409-313-L122</t>
+          <t>3252-36-L122</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>ADQ DE MESAS Y ESTANTES PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
+          <t>REPUESTOS Y ACCESORIOS CAMIONETA DAEM</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -17282,19 +17282,19 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-313-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3252-36-L122</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>2409-314-L122</t>
+          <t>550301-1-LE22</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MAQUINARIA PARA ESPECIALIDAD DE AGROPECUARIA DE LICEO LLANO BLANCO</t>
+          <t>“SUMINISTRO DE MATERIALES PROGRAMA ORASMI</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -17310,19 +17310,19 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-314-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=550301-1-LE22</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>3947-59-LE22</t>
+          <t>29-66-L122</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>KIT DE SEGURIDAD DE BAÑOS PROGRAMA CIUDADES AMIGABLES LÍNEA 2 SANTA JUANA</t>
+          <t>DTS.079/2021 ADQUISICIÓN DE REPUESTOS PARA CAMIONETAS MARCA NISSAN ZNA DE LA FUERZA AÉREA DE CHILE</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>2022-05-27T14:30:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E606" s="2" t="n">
@@ -17338,19 +17338,19 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3947-59-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=29-66-L122</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>3928-17-LR22</t>
+          <t>3947-59-LE22</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>CONSERVACION ESCUELA DIGNA CAMILO PICHILEMU</t>
+          <t>KIT DE SEGURIDAD DE BAÑOS PROGRAMA CIUDADES AMIGABLES LÍNEA 2 SANTA JUANA</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -17366,19 +17366,19 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-17-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3947-59-LE22</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>1043-5-O122</t>
+          <t>3928-17-LR22</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>CONSERV. PEQ. AERODROMOS, AEROD. RIO BRAVO</t>
+          <t>CONSERVACION ESCUELA DIGNA CAMILO PICHILEMU</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>2022-05-27T14:29:00</t>
+          <t>2022-05-27T14:30:00</t>
         </is>
       </c>
       <c r="E608" s="2" t="n">
@@ -17394,19 +17394,19 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1043-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-17-LR22</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>4337-28-LE22</t>
+          <t>1043-5-O122</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Mantención preventiva y correctiva autoclave</t>
+          <t>CONSERV. PEQ. AERODROMOS, AEROD. RIO BRAVO</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>2022-05-27T14:28:00</t>
+          <t>2022-05-27T14:29:00</t>
         </is>
       </c>
       <c r="E609" s="2" t="n">
@@ -17422,19 +17422,19 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4337-28-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1043-5-O122</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>1121816-77-L122</t>
+          <t>4337-28-LE22</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>PEDIDO N°1334 GESTION ADMINISTRATIVA</t>
+          <t>Mantención preventiva y correctiva autoclave</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -17442,7 +17442,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>2022-05-27T14:19:00</t>
+          <t>2022-05-27T14:28:00</t>
         </is>
       </c>
       <c r="E610" s="2" t="n">
@@ -17450,19 +17450,19 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1121816-77-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4337-28-LE22</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>1736-163-L122</t>
+          <t>1121816-77-L122</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>LLAVERO INSTITUCIONAL</t>
+          <t>PEDIDO N°1334 GESTION ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -17470,7 +17470,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>2022-05-27T14:18:00</t>
+          <t>2022-05-27T14:19:00</t>
         </is>
       </c>
       <c r="E611" s="2" t="n">
@@ -17478,19 +17478,19 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-163-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1121816-77-L122</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>2409-297-L122</t>
+          <t>1736-163-L122</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>ADQ. DE MASCARILLAS DESECHABLES PARA NIÑOS ESC. CHACAYAL SUR</t>
+          <t>LLAVERO INSTITUCIONAL</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>2022-05-27T14:14:00</t>
+          <t>2022-05-27T14:18:00</t>
         </is>
       </c>
       <c r="E612" s="2" t="n">
@@ -17506,19 +17506,19 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-297-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-163-L122</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2371-51-L122</t>
+          <t>2409-297-L122</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>S/P 185, EXPEDIENTE 6195, SERVICIO DE BIENESTAR</t>
+          <t>ADQ. DE MASCARILLAS DESECHABLES PARA NIÑOS ESC. CHACAYAL SUR</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>2022-05-27T14:06:00</t>
+          <t>2022-05-27T14:14:00</t>
         </is>
       </c>
       <c r="E613" s="2" t="n">
@@ -17534,19 +17534,19 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2371-51-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-297-L122</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>3928-19-L122</t>
+          <t>2371-51-L122</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>CONTRATACION PLATAFORMA DIGITAL PARA COLEGIO DIVIN</t>
+          <t>S/P 185, EXPEDIENTE 6195, SERVICIO DE BIENESTAR</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T14:06:00</t>
         </is>
       </c>
       <c r="E614" s="2" t="n">
@@ -17562,19 +17562,19 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-19-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2371-51-L122</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>2409-304-L122</t>
+          <t>3537-73-L122</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ADQ. DE TELEVISOR PARA ESC. D-870</t>
+          <t>Adquisición de señaléticas  para el Campamento Puelo X</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -17590,19 +17590,19 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-304-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3537-73-L122</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>3537-73-L122</t>
+          <t>2409-304-L122</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Adquisición de señaléticas  para el Campamento Puelo X</t>
+          <t>ADQ. DE TELEVISOR PARA ESC. D-870</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3537-73-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-304-L122</t>
         </is>
       </c>
     </row>
@@ -17653,12 +17653,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>1191688-55-LE22</t>
+          <t>3928-19-L122</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Programa Águila Sur</t>
+          <t>CONTRATACION PLATAFORMA DIGITAL PARA COLEGIO DIVIN</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -17674,19 +17674,19 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-55-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-19-L122</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>2582-32-LP22</t>
+          <t>1191688-55-LE22</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN EQUIPAMIENTO ESCUELA REP. PANAMÁ</t>
+          <t>Programa Águila Sur</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -17702,19 +17702,19 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2582-32-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-55-LE22</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>1409-7-LE22</t>
+          <t>2582-32-LP22</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Adquisición de Rack para trajes de combate</t>
+          <t>ADQUISICIÓN EQUIPAMIENTO ESCUELA REP. PANAMÁ</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -17730,19 +17730,19 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1409-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2582-32-LP22</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>1079576-29-LE22</t>
+          <t>1409-7-LE22</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2DO. LLAMADO A LA CONTRATACIÓN DEL SUMINISTRO DE REPUESTOS PARA MOTOS POLICIALES MARCA HONDA Y BMW DE LA VIIIª ZONA DE CARABINEROS BÍO BÍO</t>
+          <t>Adquisición de Rack para trajes de combate</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -17758,19 +17758,19 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079576-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1409-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>619133-87-LE22</t>
+          <t>1079576-29-LE22</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO ADQUISICION DE EXPANSOR Y PROTESIS MAMARIA PARA HOSPITAL SAN CAMILO</t>
+          <t>2DO. LLAMADO A LA CONTRATACIÓN DEL SUMINISTRO DE REPUESTOS PARA MOTOS POLICIALES MARCA HONDA Y BMW DE LA VIIIª ZONA DE CARABINEROS BÍO BÍO</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -17786,19 +17786,19 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=619133-87-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079576-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>4295-17-LE22</t>
+          <t>619133-87-LE22</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘’ Adquisición de 20.0000 formularios de Licencia de conducir’’ </t>
+          <t>CONVENIO SUMINISTRO ADQUISICION DE EXPANSOR Y PROTESIS MAMARIA PARA HOSPITAL SAN CAMILO</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -17814,19 +17814,19 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4295-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=619133-87-LE22</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>2137-20-L122</t>
+          <t>4295-17-LE22</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>LICITACIÓN FONOAUDIOLOGO</t>
+          <t xml:space="preserve">‘’ Adquisición de 20.0000 formularios de Licencia de conducir’’ </t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>2022-05-27T13:46:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E624" s="2" t="n">
@@ -17842,19 +17842,19 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2137-20-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4295-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>2671-4-LR22</t>
+          <t>2137-20-L122</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>CONCESIÓN PARA LA MANTENCIÓN DE LAS  AREAS VERDES DE LA COMUNA DE CONCEPCIÓN 2022 - 2024</t>
+          <t>LICITACIÓN FONOAUDIOLOGO</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>2022-05-27T13:30:00</t>
+          <t>2022-05-27T13:46:00</t>
         </is>
       </c>
       <c r="E625" s="2" t="n">
@@ -17870,19 +17870,19 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2671-4-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2137-20-L122</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>3588-16-LE22</t>
+          <t>2671-4-LR22</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO BAÑOS PUBLICOS ESTADIO MUNICIPAL</t>
+          <t>CONCESIÓN PARA LA MANTENCIÓN DE LAS  AREAS VERDES DE LA COMUNA DE CONCEPCIÓN 2022 - 2024</t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -17898,19 +17898,19 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3588-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2671-4-LR22</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>2452-107-L122</t>
+          <t>3588-16-LE22</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>10152 Materiales de aseo para vehículos Red de Salud</t>
+          <t>MEJORAMIENTO BAÑOS PUBLICOS ESTADIO MUNICIPAL</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>2022-05-27T13:25:00</t>
+          <t>2022-05-27T13:30:00</t>
         </is>
       </c>
       <c r="E627" s="2" t="n">
@@ -17926,19 +17926,19 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2452-107-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3588-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>4832-6-LE22</t>
+          <t>2452-107-L122</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>IMPRESORAS</t>
+          <t>10152 Materiales de aseo para vehículos Red de Salud</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>2022-05-27T13:22:00</t>
+          <t>2022-05-27T13:25:00</t>
         </is>
       </c>
       <c r="E628" s="2" t="n">
@@ -17954,19 +17954,19 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4832-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2452-107-L122</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>1736-159-LE22</t>
+          <t>4832-6-LE22</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Materiales de Construcción para el Programa Habitabilidad Convocatoria 2020.</t>
+          <t>IMPRESORAS</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -17982,19 +17982,19 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-159-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4832-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>3935-45-LE22</t>
+          <t>1736-159-LE22</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE PROYECTORES LED PARA ESTADIO MUNICIPAL DE FREIRE</t>
+          <t>Materiales de Construcción para el Programa Habitabilidad Convocatoria 2020.</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -18010,19 +18010,19 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-159-LE22</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>2332-70-L122</t>
+          <t>3935-45-LE22</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>SERVICIO DISEÑO Y REPOSICION ELECTRICA CESFAM ANGELMO Y C.CARVAJAL DESAM PTO MONTT</t>
+          <t>ADQUISICIÓN DE PROYECTORES LED PARA ESTADIO MUNICIPAL DE FREIRE</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -18030,7 +18030,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>2022-05-27T13:16:00</t>
+          <t>2022-05-27T13:22:00</t>
         </is>
       </c>
       <c r="E631" s="2" t="n">
@@ -18038,19 +18038,19 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2332-70-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>4555-9-L122</t>
+          <t>2332-70-L122</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>FORMULARIOS IMPRESOS PARA SALUD</t>
+          <t>SERVICIO DISEÑO Y REPOSICION ELECTRICA CESFAM ANGELMO Y C.CARVAJAL DESAM PTO MONTT</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>2022-05-27T13:10:00</t>
+          <t>2022-05-27T13:16:00</t>
         </is>
       </c>
       <c r="E632" s="2" t="n">
@@ -18066,19 +18066,19 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4555-9-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2332-70-L122</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>1563-3-L122</t>
+          <t>4555-9-L122</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Mantención Cortinas Metálicas sucursales Fonasa, DZCS</t>
+          <t>FORMULARIOS IMPRESOS PARA SALUD</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T13:10:00</t>
         </is>
       </c>
       <c r="E633" s="2" t="n">
@@ -18094,19 +18094,19 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1563-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4555-9-L122</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>3597-23-L122</t>
+          <t>1191688-56-LE22</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>ADQUISICION DE LICENCIA PARA CORTAFUEGOS SONICWALL NSA 2600, 1 AÑO</t>
+          <t>Programa de veredas menos de 30 m2 Stgo. Rebolledo</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -18122,19 +18122,19 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3597-23-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-56-LE22</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>1191688-56-LE22</t>
+          <t>1493-45-LE22</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Programa de veredas menos de 30 m2 Stgo. Rebolledo</t>
+          <t>MEJORAMIENTOS INSTALACIONES ELECTRICAS Y REPARACIONES EN VIVIENDAS PROGRAMA DE HABITABILIDAD 2021-2022 DE LA COMUNA DE SAN NICOLÁS</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -18150,19 +18150,19 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-56-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1493-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>1493-45-LE22</t>
+          <t>1487-2-LE22</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>MEJORAMIENTOS INSTALACIONES ELECTRICAS Y REPARACIONES EN VIVIENDAS PROGRAMA DE HABITABILIDAD 2021-2022 DE LA COMUNA DE SAN NICOLÁS</t>
+          <t>Serv. Sanitización Desratización - Ad Carriel Sur</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -18178,19 +18178,19 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1493-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1487-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>1487-2-LE22</t>
+          <t>1563-3-L122</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Serv. Sanitización Desratización - Ad Carriel Sur</t>
+          <t>Mantención Cortinas Metálicas sucursales Fonasa, DZCS</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -18206,19 +18206,19 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1487-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1563-3-L122</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>1191688-53-LE22</t>
+          <t>3597-23-L122</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Programa de Veredas</t>
+          <t>ADQUISICION DE LICENCIA PARA CORTAFUEGOS SONICWALL NSA 2600, 1 AÑO</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -18234,19 +18234,19 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-53-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3597-23-L122</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>3333-27-LQ22</t>
+          <t>1191688-53-LE22</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>TRANSMISIÓN Y PRODUCCIÓN FESTIVAL DEL HUASO</t>
+          <t>Programa de Veredas</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -18262,19 +18262,19 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3333-27-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-53-LE22</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>2409-295-L122</t>
+          <t>3333-27-LQ22</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>ADQ. PROGRAMA DE FORMACION Y ACOMPAÑAMIENTO PARA ESC. D-926</t>
+          <t>TRANSMISIÓN Y PRODUCCIÓN FESTIVAL DEL HUASO</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -18282,7 +18282,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>2022-05-27T12:52:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E640" s="2" t="n">
@@ -18290,19 +18290,19 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-295-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3333-27-LQ22</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>3693-99-LE22</t>
+          <t>2409-295-L122</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE VESTUARIO Y CALZADO OPERACIONES</t>
+          <t>ADQ. PROGRAMA DE FORMACION Y ACOMPAÑAMIENTO PARA ESC. D-926</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>2022-05-27T12:30:00</t>
+          <t>2022-05-27T12:52:00</t>
         </is>
       </c>
       <c r="E641" s="2" t="n">
@@ -18318,19 +18318,19 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-99-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-295-L122</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>613419-25-LE22</t>
+          <t>3693-99-LE22</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE 72 M3 DE MEZCLA DE HORMIGÓN PARA INSTALACIÓN DE RADIER DE GALPONES DESMONTABLES PROGRAMA FNDR RECICLAJE REGIÓN DEL BIOBÍO 2022</t>
+          <t>ADQUISICIÓN DE VESTUARIO Y CALZADO OPERACIONES</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -18346,19 +18346,19 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=613419-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-99-LE22</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>2311-80-L122</t>
+          <t>613419-25-LE22</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>PROTECCIONES PARA VENTANAS POSTA DE SALUD</t>
+          <t>ADQUISICIÓN DE 72 M3 DE MEZCLA DE HORMIGÓN PARA INSTALACIÓN DE RADIER DE GALPONES DESMONTABLES PROGRAMA FNDR RECICLAJE REGIÓN DEL BIOBÍO 2022</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>2022-05-27T12:23:00</t>
+          <t>2022-05-27T12:30:00</t>
         </is>
       </c>
       <c r="E643" s="2" t="n">
@@ -18374,19 +18374,19 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-80-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=613419-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>2793-125-LE22</t>
+          <t>2311-80-L122</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Adquisición de Camioneta para la Municipalidad</t>
+          <t>PROTECCIONES PARA VENTANAS POSTA DE SALUD</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>2022-05-27T12:16:00</t>
+          <t>2022-05-27T12:23:00</t>
         </is>
       </c>
       <c r="E644" s="2" t="n">
@@ -18402,19 +18402,19 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2793-125-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-80-L122</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>2215-20-LE22</t>
+          <t>2793-125-LE22</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>SUMINISTRO INSUMOS PROCEDIMIENTOS BRONCOPULMONAR</t>
+          <t>Adquisición de Camioneta para la Municipalidad</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -18430,19 +18430,19 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2215-20-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2793-125-LE22</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>2129-10-LE22</t>
+          <t>2215-20-LE22</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESTUDIO DE PRE-INVERSIÓN CESFAM ÑIPAS. </t>
+          <t>SUMINISTRO INSUMOS PROCEDIMIENTOS BRONCOPULMONAR</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>2022-05-27T12:14:00</t>
+          <t>2022-05-27T12:16:00</t>
         </is>
       </c>
       <c r="E646" s="2" t="n">
@@ -18458,19 +18458,19 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2129-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2215-20-LE22</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>2381-29-LE22</t>
+          <t>2129-10-LE22</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE FÁRMACOS DIRECCIÓN DE SALUD MUNICIP</t>
+          <t xml:space="preserve">ESTUDIO DE PRE-INVERSIÓN CESFAM ÑIPAS. </t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>2022-05-27T12:13:00</t>
+          <t>2022-05-27T12:14:00</t>
         </is>
       </c>
       <c r="E647" s="2" t="n">
@@ -18486,19 +18486,19 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2381-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2129-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>3710-129-L122</t>
+          <t>2381-29-LE22</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>INSUMOS MÉDICOS PARA EL SAR</t>
+          <t>ADQUISICIÓN DE FÁRMACOS DIRECCIÓN DE SALUD MUNICIP</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -18514,19 +18514,19 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3710-129-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2381-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>3449-6-LE22</t>
+          <t>3710-129-L122</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>CONVENIO DE SUMINISTRO DE ALIMENTOS COBQUECURA</t>
+          <t>INSUMOS MÉDICOS PARA EL SAR</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>2022-05-27T12:04:00</t>
+          <t>2022-05-27T12:13:00</t>
         </is>
       </c>
       <c r="E649" s="2" t="n">
@@ -18542,19 +18542,19 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3449-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3710-129-L122</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>2405-80-LE22</t>
+          <t>3449-6-LE22</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>SERV. RETIRO TRASLADO Y DISPOSICION CONTENEDORES</t>
+          <t>CONVENIO DE SUMINISTRO DE ALIMENTOS COBQUECURA</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -18562,7 +18562,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:04:00</t>
         </is>
       </c>
       <c r="E650" s="2" t="n">
@@ -18570,19 +18570,19 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-80-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3449-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>602-39-LE22</t>
+          <t>2405-80-LE22</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Servicio Exclusivo Transporte Escolar Rural Chahuilco - Salca 2022</t>
+          <t>SERV. RETIRO TRASLADO Y DISPOSICION CONTENEDORES</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -18598,19 +18598,19 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=602-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-80-LE22</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>4159-10-LE22</t>
+          <t>602-39-LE22</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>SERVICIO DE IMPRESION Y FOTOCOPIADO DAEM PARRAL</t>
+          <t>Servicio Exclusivo Transporte Escolar Rural Chahuilco - Salca 2022</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -18626,19 +18626,19 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4159-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=602-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>575061-59-LE22</t>
+          <t>4159-10-LE22</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>UPS PARA RESPALDO EQUIPOS LACRIM CENTRAL</t>
+          <t>SERVICIO DE IMPRESION Y FOTOCOPIADO DAEM PARRAL</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -18654,19 +18654,19 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=575061-59-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4159-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>2309-59-LQ22</t>
+          <t>575061-59-LE22</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Conservación jardín infantil y sala cuna Trencito de mis tesoros 2° llamado</t>
+          <t>UPS PARA RESPALDO EQUIPOS LACRIM CENTRAL</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -18682,19 +18682,19 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2309-59-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=575061-59-LE22</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>2319-25-LE22</t>
+          <t>2309-59-LQ22</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Reparación eléctrica e Instalacion alumbrado</t>
+          <t>Conservación jardín infantil y sala cuna Trencito de mis tesoros 2° llamado</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -18710,19 +18710,19 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2309-59-LQ22</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>539119-23-LE22</t>
+          <t>2319-25-LE22</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TASACIONES INMOBILIARIA ZONA NORTE CENTRO SUR Y AUSTRAL DE CHILE.</t>
+          <t>Reparación eléctrica e Instalacion alumbrado</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -18738,19 +18738,19 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=539119-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>2319-24-LE22</t>
+          <t>539119-23-LE22</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Mejopramiento Vial Apertura Calle El Canelo</t>
+          <t>SUMINISTRO DE TASACIONES INMOBILIARIA ZONA NORTE CENTRO SUR Y AUSTRAL DE CHILE.</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -18766,19 +18766,19 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-24-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=539119-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>3693-98-LE22</t>
+          <t>2319-24-LE22</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>VESTUARIO Y CALZADO DIMAO 2022</t>
+          <t>Mejopramiento Vial Apertura Calle El Canelo</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -18794,19 +18794,19 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-98-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-24-LE22</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>923000-19-CO22</t>
+          <t>3693-98-LE22</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>BANCO DE PRUEBAS MECANICO</t>
+          <t>VESTUARIO Y CALZADO DIMAO 2022</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -18822,19 +18822,19 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-19-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-98-LE22</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>4085-18-LE22</t>
+          <t>923000-19-CO22</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Suministro Banquetería Coctelería y otros</t>
+          <t>BANCO DE PRUEBAS MECANICO</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -18850,19 +18850,19 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-19-CO22</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>1057498-23-LE22</t>
+          <t>4085-18-LE22</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>MATERIALES PARA GASFITERÍA</t>
+          <t>Suministro Banquetería Coctelería y otros</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -18878,19 +18878,19 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057498-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>614-2-LE22</t>
+          <t>1057498-23-LE22</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO EDIFICIO SEREMI MINVU I REGION</t>
+          <t>MATERIALES PARA GASFITERÍA</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -18906,19 +18906,19 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=614-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057498-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>3311-6-LE22</t>
+          <t>614-2-LE22</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADQUISICION MATERIALES DE OFICINA PDI REPOL MAULE </t>
+          <t>MEJORAMIENTO EDIFICIO SEREMI MINVU I REGION</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -18934,19 +18934,19 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3311-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=614-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>712307-34-O122</t>
+          <t>3311-6-LE22</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Pavimentos Participativos 31 Proceso - Grupo 3</t>
+          <t xml:space="preserve">ADQUISICION MATERIALES DE OFICINA PDI REPOL MAULE </t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -18962,19 +18962,19 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=712307-34-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3311-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>894863-15-LP22</t>
+          <t>712307-34-O122</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>ASESORIA INSPECCION TECNICA OBRA CERRO GRANDE</t>
+          <t>Pavimentos Participativos 31 Proceso - Grupo 3</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -18990,19 +18990,19 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=894863-15-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=712307-34-O122</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>3138-22-LE22</t>
+          <t>894863-15-LP22</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>COMPRESOR DE AIRE DE BAJA PRESIÓN</t>
+          <t>ASESORIA INSPECCION TECNICA OBRA CERRO GRANDE</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -19018,19 +19018,19 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3138-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=894863-15-LP22</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>975-35-O122</t>
+          <t>3138-22-LE22</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIF PERF Y HAB DE POZOS SOMEROS SECTOR MINCHA </t>
+          <t>COMPRESOR DE AIRE DE BAJA PRESIÓN</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -19046,19 +19046,19 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-35-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3138-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>5315-9-LR22</t>
+          <t>975-35-O122</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>CONSTRUCCION CASETAS SANITARIAS LOCALIDAD DE RAFAEL COMUNA DE TOMÉ</t>
+          <t xml:space="preserve">AIF PERF Y HAB DE POZOS SOMEROS SECTOR MINCHA </t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -19074,19 +19074,19 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5315-9-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-35-O122</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>1063487-10-LP22</t>
+          <t>5315-9-LR22</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERVICIO BULLDOZER CONSERVACION RIO LONQUEN </t>
+          <t>CONSTRUCCION CASETAS SANITARIAS LOCALIDAD DE RAFAEL COMUNA DE TOMÉ</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -19102,19 +19102,19 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1063487-10-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5315-9-LR22</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>2430-23-LR22</t>
+          <t>1063487-10-LP22</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>PLAN DE DESARROLLO COMUNAL DE ANTOFAGASTA 2023-2029</t>
+          <t xml:space="preserve">SERVICIO BULLDOZER CONSERVACION RIO LONQUEN </t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -19130,19 +19130,19 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2430-23-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1063487-10-LP22</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>2348-17-LE22</t>
+          <t>2430-23-LR22</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN INSUMOS DE ASEO PARA STOCK BODEGA.</t>
+          <t>PLAN DE DESARROLLO COMUNAL DE ANTOFAGASTA 2023-2029</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -19158,19 +19158,19 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2348-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2430-23-LR22</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>5463-12-LQ22</t>
+          <t>2348-17-LE22</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>SUMINISTRO MANTENCION DE VEHICULOS</t>
+          <t>ADQUISICIÓN INSUMOS DE ASEO PARA STOCK BODEGA.</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -19186,19 +19186,19 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-12-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2348-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>5463-9-LP22</t>
+          <t>5463-12-LQ22</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>SERVICIO DE MANTENCIÓN PREVENTIVA CORRECTIVA</t>
+          <t>SUMINISTRO MANTENCION DE VEHICULOS</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -19214,19 +19214,19 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-9-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-12-LQ22</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>4113-48-L122</t>
+          <t>5463-9-LP22</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>PRODUCCION ARTISTICA FIESTA DE LA MOSQUETA 2022</t>
+          <t>SERVICIO DE MANTENCIÓN PREVENTIVA CORRECTIVA</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -19234,7 +19234,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>2022-05-27T11:30:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E674" s="2" t="n">
@@ -19242,19 +19242,19 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4113-48-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-9-LP22</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>4086-35-LE22</t>
+          <t>4113-48-L122</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN EQUIPOS DE AUDIO</t>
+          <t>PRODUCCION ARTISTICA FIESTA DE LA MOSQUETA 2022</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -19262,7 +19262,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>2022-05-27T11:15:00</t>
+          <t>2022-05-27T11:30:00</t>
         </is>
       </c>
       <c r="E675" s="2" t="n">
@@ -19270,19 +19270,19 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4086-35-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4113-48-L122</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>3017-104-L122</t>
+          <t>4086-35-LE22</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>SERVICIO DE FUMIGACION Y DESRATICACION  ADM MUNICIPAL.</t>
+          <t>ADQUISICIÓN EQUIPOS DE AUDIO</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -19290,7 +19290,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>2022-05-27T11:10:00</t>
+          <t>2022-05-27T11:15:00</t>
         </is>
       </c>
       <c r="E676" s="2" t="n">
@@ -19298,19 +19298,19 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3017-104-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4086-35-LE22</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>729-236-LE22</t>
+          <t>3017-104-L122</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>COFRE FUSIBLE ALSTOM G1317 7-11317 ECU</t>
+          <t>SERVICIO DE FUMIGACION Y DESRATICACION  ADM MUNICIPAL.</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>2022-05-27T11:09:00</t>
+          <t>2022-05-27T11:10:00</t>
         </is>
       </c>
       <c r="E677" s="2" t="n">
@@ -19326,19 +19326,19 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-236-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3017-104-L122</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>2360-37-L122</t>
+          <t>729-236-LE22</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE INSUMOS GENERALES PARA LABORATORIO</t>
+          <t>COFRE FUSIBLE ALSTOM G1317 7-11317 ECU</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T11:09:00</t>
         </is>
       </c>
       <c r="E678" s="2" t="n">
@@ -19354,19 +19354,19 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-37-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-236-LE22</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>835727-26-L122</t>
+          <t>2360-37-L122</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>SERVICIO DE PRODUCCION DE EVENTOS PRESENTACIÓN ARTISTICA AMPLIFICACION DE SONIDO Y ESCENARIO</t>
+          <t>ADQUISICIÓN DE INSUMOS GENERALES PARA LABORATORIO</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -19382,19 +19382,19 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=835727-26-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-37-L122</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>1369-8-O122</t>
+          <t>835727-26-L122</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>CCB B-155, KM 19 al 32,5 Tercer Llamado</t>
+          <t>SERVICIO DE PRODUCCION DE EVENTOS PRESENTACIÓN ARTISTICA AMPLIFICACION DE SONIDO Y ESCENARIO</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -19410,19 +19410,19 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-8-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=835727-26-L122</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>1152-10-O122</t>
+          <t>1369-8-O122</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>CONSERVACIÓN PALACIO DE LA MONEDA 2022</t>
+          <t>CCB B-155, KM 19 al 32,5 Tercer Llamado</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -19438,19 +19438,19 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1152-10-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-8-O122</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>975-34-O122</t>
+          <t>1152-10-O122</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>AIF PERF POZOS SOMEROS SECTOR TUNGA. 2DO LLAMADO</t>
+          <t>CONSERVACIÓN PALACIO DE LA MONEDA 2022</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -19466,19 +19466,19 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-34-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1152-10-O122</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>4469-30-L122</t>
+          <t>975-34-O122</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>SC 30323-30324 (CPV) TABLETS GALAXI TAB S6 LITE BOOK COVER 10,4" O SIMILAR  ESCUELA POST GRADO</t>
+          <t>AIF PERF POZOS SOMEROS SECTOR TUNGA. 2DO LLAMADO</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -19494,19 +19494,19 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-30-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-34-O122</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>975-1-O122</t>
+          <t>4469-30-L122</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Plan Maestro de Evacuación Buin y Paine</t>
+          <t>SC 30323-30324 (CPV) TABLETS GALAXI TAB S6 LITE BOOK COVER 10,4" O SIMILAR  ESCUELA POST GRADO</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -19514,7 +19514,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>2022-05-27T10:55:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E684" s="2" t="n">
@@ -19522,19 +19522,19 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-1-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-30-L122</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>1741-44-L122</t>
+          <t>975-1-O122</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>PAÑALES ADULTO - SOCIAL 78</t>
+          <t>Plan Maestro de Evacuación Buin y Paine</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -19542,7 +19542,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>2022-05-27T10:18:00</t>
+          <t>2022-05-27T10:55:00</t>
         </is>
       </c>
       <c r="E685" s="2" t="n">
@@ -19550,19 +19550,19 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1741-44-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-1-O122</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>2992-93-LE22</t>
+          <t>1741-44-L122</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Estanque para almacenar agua</t>
+          <t>PAÑALES ADULTO - SOCIAL 78</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>2022-05-27T10:08:00</t>
+          <t>2022-05-27T10:18:00</t>
         </is>
       </c>
       <c r="E686" s="2" t="n">
@@ -19578,19 +19578,19 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2992-93-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1741-44-L122</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>4062-7-LE22</t>
+          <t>2992-93-LE22</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>SERVICIO DE VULCANIZACION PARA EL AÑO 2022</t>
+          <t>Estanque para almacenar agua</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>2022-05-27T10:06:00</t>
+          <t>2022-05-27T10:08:00</t>
         </is>
       </c>
       <c r="E687" s="2" t="n">
@@ -19606,19 +19606,19 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4062-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2992-93-LE22</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>3241-23-LE22</t>
+          <t>4062-7-LE22</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MATERIALES PARA JARDIN INFANTIL Y SALA CUNA</t>
+          <t>SERVICIO DE VULCANIZACION PARA EL AÑO 2022</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>2022-05-27T10:02:00</t>
+          <t>2022-05-27T10:06:00</t>
         </is>
       </c>
       <c r="E688" s="2" t="n">
@@ -19634,19 +19634,19 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3241-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4062-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>4329-12-CO22</t>
+          <t>3241-23-LE22</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>CONVENIO PARA LAS MANTENCIONES Y REPARACIONES</t>
+          <t>ADQUISICIÓN DE MATERIALES PARA JARDIN INFANTIL Y SALA CUNA</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -19654,7 +19654,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>2022-05-27T10:01:00</t>
+          <t>2022-05-27T10:02:00</t>
         </is>
       </c>
       <c r="E689" s="2" t="n">
@@ -19662,19 +19662,19 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4329-12-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3241-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>2687-10-LE22</t>
+          <t>4329-12-CO22</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DEPORTIVA PARA EL COLEGIO C.A.A.</t>
+          <t>CONVENIO PARA LAS MANTENCIONES Y REPARACIONES</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -19690,19 +19690,19 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2687-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4329-12-CO22</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>1013609-16-LE22</t>
+          <t>2687-10-LE22</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>adq serv mant de casino de playa SOFLES</t>
+          <t>IMPLEMENTACIÓN DEPORTIVA PARA EL COLEGIO C.A.A.</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -19718,19 +19718,19 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1013609-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2687-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>2920-44-LE22</t>
+          <t>1013609-16-LE22</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Adquisición Computadores Daf</t>
+          <t>adq serv mant de casino de playa SOFLES</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -19738,7 +19738,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T10:01:00</t>
         </is>
       </c>
       <c r="E692" s="2" t="n">
@@ -19746,19 +19746,19 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2920-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1013609-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>2703-135-L122</t>
+          <t>2920-44-LE22</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>SC 8387 Uso dental. CESFAM</t>
+          <t>Adquisición Computadores Daf</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -19774,19 +19774,19 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-135-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2920-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>2703-136-L122</t>
+          <t>3757-4-LE22</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>SC 8388 Uso dental. CESFAM</t>
+          <t>ADQUISICION MAQUINAS COMPACTADORAS ENFARDADORAS</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -19802,19 +19802,19 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-136-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3757-4-LE22</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>2703-137-L122</t>
+          <t>2360-36-L122</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>SC 8389 Indicador biológico CESFAM</t>
+          <t>ADQUISICIÓN DE BASUREROS PARA RESIDUOS ESPECIALES.</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -19830,19 +19830,19 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-137-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-36-L122</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>3757-4-LE22</t>
+          <t>4324-23-LE22</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>ADQUISICION MAQUINAS COMPACTADORAS ENFARDADORAS</t>
+          <t xml:space="preserve">Servicio de Mantención Preventivo de Equipos Críticos Del Cesfam Perquenco </t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -19858,19 +19858,19 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3757-4-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4324-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>2360-36-L122</t>
+          <t>3459-28-LE22</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE BASUREROS PARA RESIDUOS ESPECIALES.</t>
+          <t>MANTENIMIENTO Y REPARACIÓN MAQUINARIA RANCHO TROPA</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -19886,19 +19886,19 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-36-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3459-28-LE22</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>3459-28-LE22</t>
+          <t>2703-135-L122</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO Y REPARACIÓN MAQUINARIA RANCHO TROPA</t>
+          <t>SC 8387 Uso dental. CESFAM</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -19914,19 +19914,19 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3459-28-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-135-L122</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>4324-23-LE22</t>
+          <t>2703-136-L122</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servicio de Mantención Preventivo de Equipos Críticos Del Cesfam Perquenco </t>
+          <t>SC 8388 Uso dental. CESFAM</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -19942,19 +19942,19 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4324-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-136-L122</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>923000-18-LE22</t>
+          <t>2703-137-L122</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>EQUIPAMIENTO MECANICA</t>
+          <t>SC 8389 Indicador biológico CESFAM</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -19970,19 +19970,19 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-137-L122</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>2703-139-L122</t>
+          <t>923000-18-LE22</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>SC 8075 Pechera Polietileno. CESFAM</t>
+          <t>EQUIPAMIENTO MECANICA</t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -19998,19 +19998,19 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-139-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>2664-18-LE22</t>
+          <t>2703-139-L122</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>MEDICAMENTOS DROGUERIA</t>
+          <t>SC 8075 Pechera Polietileno. CESFAM</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -20026,19 +20026,19 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2664-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-139-L122</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>2409-307-L122</t>
+          <t>2664-18-LE22</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN LIBROS DE LECTURA ESCUELA RINCONADA DEL SALTO</t>
+          <t>MEDICAMENTOS DROGUERIA</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -20054,19 +20054,19 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-307-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2664-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>757818-3-L122</t>
+          <t>2409-307-L122</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>ADQUISICION MATERIALES DE CONSTRUCCION AYUDA SOCIA</t>
+          <t>ADQUISICIÓN LIBROS DE LECTURA ESCUELA RINCONADA DEL SALTO</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -20082,19 +20082,19 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=757818-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-307-L122</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>2292-34-LE22</t>
+          <t>757818-3-L122</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Arriendo de Carpas Impermeables para Entrada Principal de Cesfam La Florida Cesfam Carlos Trup W. y Posta Mercedes</t>
+          <t>ADQUISICION MATERIALES DE CONSTRUCCION AYUDA SOCIA</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -20110,19 +20110,19 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2292-34-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=757818-3-L122</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>2282-19-LQ22</t>
+          <t>2292-34-LE22</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>P.P 21-2022 CONTRATACIÓN SERVICIO DE BACHEO</t>
+          <t>Arriendo de Carpas Impermeables para Entrada Principal de Cesfam La Florida Cesfam Carlos Trup W. y Posta Mercedes</t>
         </is>
       </c>
       <c r="C706" t="n">
@@ -20138,19 +20138,19 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2282-19-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2292-34-LE22</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>1369-9-O122</t>
+          <t>2282-19-LQ22</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>CRV Ruta 27-CH. KM 90 al 96, Tercer Llamado</t>
+          <t>P.P 21-2022 CONTRATACIÓN SERVICIO DE BACHEO</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -20166,19 +20166,19 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-9-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2282-19-LQ22</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>653-21-O122</t>
+          <t>1369-9-O122</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Cons. veredas desconfinamiento post covid Curepto</t>
+          <t>CRV Ruta 27-CH. KM 90 al 96, Tercer Llamado</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -20194,19 +20194,19 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=653-21-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-9-O122</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>2216-5-O122</t>
+          <t>653-21-O122</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIFE Américo Vespucio Oriente, Tramo Av. El Salto </t>
+          <t>Cons. veredas desconfinamiento post covid Curepto</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -20222,19 +20222,19 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=653-21-O122</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>1048-35-H222</t>
+          <t>2216-5-O122</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR COMUNA EL TABO</t>
+          <t xml:space="preserve">AIFE Américo Vespucio Oriente, Tramo Av. El Salto </t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -20250,19 +20250,19 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1048-35-H222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-5-O122</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>2342-43-LR22</t>
+          <t>1048-35-H222</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN Y MANTENCIÓN SERVICIOS DE TELEFONÍA IP PARA LA ILUSTRE MUNICIPALIDAD DE SAN BERNARDO</t>
+          <t>ACTUALIZACION PLAN REGULADOR COMUNA EL TABO</t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -20270,7 +20270,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>2022-05-27T09:45:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E711" s="2" t="n">
@@ -20278,19 +20278,19 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2342-43-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1048-35-H222</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>3929-22-LE22</t>
+          <t>2342-43-LR22</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>BARRIOS COMERCIALES PROTEGIDOS ILUMINACIÓN SEGURA AÑO 2021” CÓDIGO BCP21-IL-0002</t>
+          <t>IMPLEMENTACIÓN Y MANTENCIÓN SERVICIOS DE TELEFONÍA IP PARA LA ILUSTRE MUNICIPALIDAD DE SAN BERNARDO</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>2022-05-27T09:30:00</t>
+          <t>2022-05-27T09:45:00</t>
         </is>
       </c>
       <c r="E712" s="2" t="n">
@@ -20306,19 +20306,19 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3929-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2342-43-LR22</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>3505-18-LE22</t>
+          <t>3929-22-LE22</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Arriendo gabinete Psicotécnico para la Municipalidad de Pencahue</t>
+          <t>BARRIOS COMERCIALES PROTEGIDOS ILUMINACIÓN SEGURA AÑO 2021” CÓDIGO BCP21-IL-0002</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -20334,19 +20334,19 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3505-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3929-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>1464-50-LE22</t>
+          <t>3505-18-LE22</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>CAPACITACIONES PAC 2022  HOSPITAL PARRAL</t>
+          <t>Arriendo gabinete Psicotécnico para la Municipalidad de Pencahue</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -20362,19 +20362,19 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1464-50-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3505-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>4351-30-LE22</t>
+          <t>1464-50-LE22</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Materiales cierre perimetral Estadio Municipal</t>
+          <t>CAPACITACIONES PAC 2022  HOSPITAL PARRAL</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>2022-05-27T09:01:00</t>
+          <t>2022-05-27T09:30:00</t>
         </is>
       </c>
       <c r="E715" s="2" t="n">
@@ -20390,19 +20390,19 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4351-30-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1464-50-LE22</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>2408-148-LE22</t>
+          <t>4351-30-LE22</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN Y EQUIPOS PARA PROGRAMA VIVIENDAS CON APOYO 2022</t>
+          <t>Materiales cierre perimetral Estadio Municipal</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T09:01:00</t>
         </is>
       </c>
       <c r="E716" s="2" t="n">
@@ -20418,19 +20418,19 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2408-148-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4351-30-LE22</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>704093-54-O122</t>
+          <t>2408-148-LE22</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>LP 56-2022 INF. SANITARIA, VARIAS COMUNAS</t>
+          <t>IMPLEMENTACIÓN Y EQUIPOS PARA PROGRAMA VIVIENDAS CON APOYO 2022</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -20446,19 +20446,19 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=704093-54-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2408-148-LE22</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>2409-228-LE22</t>
+          <t>704093-54-O122</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>SERVICIO DE INSTALACIÓN DE MAMPARA CON PROTECCIÓN Y RAMPA EN HORMIGÓN PARA SECTOR DE BIBLIOTECA A-61 COEDUCACIONAL</t>
+          <t>LP 56-2022 INF. SANITARIA, VARIAS COMUNAS</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -20474,19 +20474,19 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-228-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=704093-54-O122</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>1057509-136-LE22</t>
+          <t>2409-228-LE22</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>CONVENIO COMPRA DE SERVICIOS MÉDICOS PARA REALIZAR INTERVENCIONES QUIRÚRGICAS ESPECIALIDAD UROLOGÍA lbl</t>
+          <t>SERVICIO DE INSTALACIÓN DE MAMPARA CON PROTECCIÓN Y RAMPA EN HORMIGÓN PARA SECTOR DE BIBLIOTECA A-61 COEDUCACIONAL</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -20502,19 +20502,19 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057509-136-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-228-LE22</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>1851-18-LE22</t>
+          <t>1057509-136-LE22</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Adquisición Señales  DPVC.</t>
+          <t>CONVENIO COMPRA DE SERVICIOS MÉDICOS PARA REALIZAR INTERVENCIONES QUIRÚRGICAS ESPECIALIDAD UROLOGÍA lbl</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -20530,19 +20530,19 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1851-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057509-136-LE22</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>2405-77-LE22</t>
+          <t>1851-18-LE22</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>CTTO DE SERVICIO DE PLAN DE MEDIOS RADIAL</t>
+          <t>Adquisición Señales  DPVC.</t>
         </is>
       </c>
       <c r="C721" t="n">
@@ -20558,19 +20558,19 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-77-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1851-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>2261-12-O122</t>
+          <t>2405-77-LE22</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>AIF Terminación Ruta S-70 Pocoyan Pte. Peule</t>
+          <t>CTTO DE SERVICIO DE PLAN DE MEDIOS RADIAL</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -20586,19 +20586,19 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-12-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-77-LE22</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>2409-196-LE22</t>
+          <t>2261-12-O122</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>CONSERVACIÓN ÁREA DE PREBASICA ESCUELA F-887 ISLA DEL LAJA LOS ÁNGELES</t>
+          <t>AIF Terminación Ruta S-70 Pocoyan Pte. Peule</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -20614,19 +20614,19 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-196-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-12-O122</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>2261-6-O222</t>
+          <t>2409-196-LE22</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Repararción Pte. Pellahuen, comuna de Lumaco</t>
+          <t>CONSERVACIÓN ÁREA DE PREBASICA ESCUELA F-887 ISLA DEL LAJA LOS ÁNGELES</t>
         </is>
       </c>
       <c r="C724" t="n">
@@ -20642,19 +20642,19 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-6-O222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-196-LE22</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>1369-11-O122</t>
+          <t>2261-6-O222</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Termino Obras CCB Ruta B-70</t>
+          <t>Repararción Pte. Pellahuen, comuna de Lumaco</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -20670,19 +20670,19 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-11-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-6-O222</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>3845-3-LE22</t>
+          <t>1369-11-O122</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PUERTAS Y VENTANAS SALAS DE CLASES</t>
+          <t>Termino Obras CCB Ruta B-70</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -20698,19 +20698,19 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3845-3-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-11-O122</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>2409-110-LE22</t>
+          <t>3845-3-LE22</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>TEXTOS COMPRENSION LECTORA  ESCUELA D-934</t>
+          <t>MEJORAMIENTO PUERTAS Y VENTANAS SALAS DE CLASES</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -20726,19 +20726,19 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-110-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3845-3-LE22</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>727202-54-LE22</t>
+          <t>2409-110-LE22</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE LUBRICANTES Y OTROS SERVICIOS</t>
+          <t>TEXTOS COMPRENSION LECTORA  ESCUELA D-934</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -20754,19 +20754,19 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-54-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-110-LE22</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>3847-22-LE22</t>
+          <t>727202-54-LE22</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>SERVICIO INTERNET DEDICADO PARA DEPENDENCIAS MSG</t>
+          <t>SUMINISTRO DE LUBRICANTES Y OTROS SERVICIOS</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -20782,19 +20782,19 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3847-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-54-LE22</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>2471-65-LE22</t>
+          <t>3847-22-LE22</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>MATERIAL TECNOLÓGICO- G-223 E-235 G-215</t>
+          <t>SERVICIO INTERNET DEDICADO PARA DEPENDENCIAS MSG</t>
         </is>
       </c>
       <c r="C730" t="n">
@@ -20810,19 +20810,19 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2471-65-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3847-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>3478-18-CO22</t>
+          <t>2471-65-LE22</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>ADQUISICION DE CIRCUITO CERRADO DE TELEVISION</t>
+          <t>MATERIAL TECNOLÓGICO- G-223 E-235 G-215</t>
         </is>
       </c>
       <c r="C731" t="n">
@@ -20838,19 +20838,19 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3478-18-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2471-65-LE22</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>2405-81-LE22</t>
+          <t>3478-18-CO22</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE 13 POSTES CÓNICOS </t>
+          <t>ADQUISICION DE CIRCUITO CERRADO DE TELEVISION</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -20866,19 +20866,19 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-81-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3478-18-CO22</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>2324-276-L122</t>
+          <t>2405-81-LE22</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMPLEMENTACION MOBILIARIO OFICINAS OPERATIVAS </t>
+          <t xml:space="preserve">SUMINISTRO DE 13 POSTES CÓNICOS </t>
         </is>
       </c>
       <c r="C733" t="n">
@@ -20894,19 +20894,19 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2324-276-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-81-LE22</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>1265-5-O122</t>
+          <t>2324-276-L122</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>ESBA MEJORAMIENTO CALETA LAS CONCHAS</t>
+          <t xml:space="preserve">IMPLEMENTACION MOBILIARIO OFICINAS OPERATIVAS </t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -20914,7 +20914,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>2022-05-27T08:30:00</t>
+          <t>2022-05-27T09:00:00</t>
         </is>
       </c>
       <c r="E734" s="2" t="n">
@@ -20922,33 +20922,61 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1265-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2324-276-L122</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
+          <t>1265-5-O122</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>ESBA MEJORAMIENTO CALETA LAS CONCHAS</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>6</v>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>2022-05-27T08:30:00</t>
+        </is>
+      </c>
+      <c r="E735" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1265-5-O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
           <t>2261-10-O122</t>
         </is>
       </c>
-      <c r="B735" t="inlineStr">
+      <c r="B736" t="inlineStr">
         <is>
           <t>Cam.Maquehue Boroa Pte. Ragñintuleufu, 2do llamado</t>
         </is>
       </c>
-      <c r="C735" t="n">
-        <v>6</v>
-      </c>
-      <c r="D735" t="inlineStr">
+      <c r="C736" t="n">
+        <v>6</v>
+      </c>
+      <c r="D736" t="inlineStr">
         <is>
           <t>2022-05-27T08:00:00</t>
         </is>
       </c>
-      <c r="E735" s="2" t="n">
-        <v>44708</v>
-      </c>
-      <c r="F735" t="inlineStr">
+      <c r="E736" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F736" t="inlineStr">
         <is>
           <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-10-O122</t>
         </is>

--- a/licitaciones_cerradas_2019.xlsx
+++ b/licitaciones_cerradas_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F736"/>
+  <dimension ref="A1:F737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13117,12 +13117,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2422-297-LE22</t>
+          <t>3340-10-L122</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>SOL. 936791 IMPRESORAS LASER Y MULTIFUNCIONAL</t>
+          <t>Adquisición de 02 (Dos) termos calentadores de agua a gas y eléctrico</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>2022-05-27T16:39:00</t>
+          <t>2022-05-27T16:45:00</t>
         </is>
       </c>
       <c r="E456" s="2" t="n">
@@ -13138,19 +13138,19 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-297-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3340-10-L122</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>3663-29-LE22</t>
+          <t>2311-81-L122</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>MAMOGRAFIAS</t>
+          <t>COMPUTADORES DE ESCRITORIO</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>2022-05-27T16:35:00</t>
+          <t>2022-05-27T16:43:00</t>
         </is>
       </c>
       <c r="E457" s="2" t="n">
@@ -13166,19 +13166,19 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3663-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-81-L122</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>3268-45-L122</t>
+          <t>2422-297-LE22</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t xml:space="preserve">002 001 01-2022 DPTO GUARNICIONAL COLCHONES 1 PLAZA </t>
+          <t>SOL. 936791 IMPRESORAS LASER Y MULTIFUNCIONAL</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T16:39:00</t>
         </is>
       </c>
       <c r="E458" s="2" t="n">
@@ -13194,19 +13194,19 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3268-45-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-297-LE22</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>855-13-LE22</t>
+          <t>3663-29-LE22</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CMEE-ARRIENDO Y MANTENCIÓN DE CAMIONETA JUNJI</t>
+          <t>MAMOGRAFIAS</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T16:35:00</t>
         </is>
       </c>
       <c r="E459" s="2" t="n">
@@ -13222,19 +13222,19 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=855-13-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3663-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>4237-20-LE22</t>
+          <t>3268-45-L122</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>ADQUISICION DE TIRAS DE FIERROS PARA EJECUCION DE</t>
+          <t xml:space="preserve">002 001 01-2022 DPTO GUARNICIONAL COLCHONES 1 PLAZA </t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -13250,19 +13250,19 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4237-20-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3268-45-L122</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>4469-32-L122</t>
+          <t>4237-20-LE22</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>S..C.. N° 30430 Y 30431 (U.F.). IMPLEMENTACIÓN DE LABORATORIO E INSUMOS PARA ANÁLISIS BIODEGRADABILIDAD. CEAM.  UPLA.</t>
+          <t>ADQUISICION DE TIRAS DE FIERROS PARA EJECUCION DE</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -13278,19 +13278,19 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-32-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4237-20-LE22</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>1658-351-L122</t>
+          <t>855-13-LE22</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>S50/2022/SERVICIO MANTENCION DE CALDERA A GAS DE EDIFICIO DIDECO.</t>
+          <t>CMEE-ARRIENDO Y MANTENCIÓN DE CAMIONETA JUNJI</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -13306,19 +13306,19 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-351-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=855-13-LE22</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>1658-352-L122</t>
+          <t>2409-310-L122</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>S82/2022/OPERACIONES/ADQ. MATERIALES DE CONSTRUCCION PARA GALPON DEL DEPTO. REPARACION DE INMUEBLES Y MUEBLES MUNICIPALES DE OPERACIONES, DE ACUERDO A ESPECIFICACIONES TECNICAS ADJUNTAS.</t>
+          <t>ADQ. DE INSUMOS INFORMATICOS PARA ESC. D-870</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -13334,19 +13334,19 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-352-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-310-L122</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2409-310-L122</t>
+          <t>1658-351-L122</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ADQ. DE INSUMOS INFORMATICOS PARA ESC. D-870</t>
+          <t>S50/2022/SERVICIO MANTENCION DE CALDERA A GAS DE EDIFICIO DIDECO.</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -13362,19 +13362,19 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-310-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-351-L122</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>1395-52-LQ22</t>
+          <t>1658-352-L122</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Adquisicion de Licencias Office-H.Ovalle</t>
+          <t>S82/2022/OPERACIONES/ADQ. MATERIALES DE CONSTRUCCION PARA GALPON DEL DEPTO. REPARACION DE INMUEBLES Y MUEBLES MUNICIPALES DE OPERACIONES, DE ACUERDO A ESPECIFICACIONES TECNICAS ADJUNTAS.</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -13390,19 +13390,19 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1395-52-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-352-L122</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>4105-12-LE22</t>
+          <t>4469-32-L122</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Servicios Profesionales Auditoría Financiera Conta</t>
+          <t>S..C.. N° 30430 Y 30431 (U.F.). IMPLEMENTACIÓN DE LABORATORIO E INSUMOS PARA ANÁLISIS BIODEGRADABILIDAD. CEAM.  UPLA.</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -13418,19 +13418,19 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4105-12-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-32-L122</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>4282-8-LE22</t>
+          <t>4105-12-LE22</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Capacitación FAEP 2020</t>
+          <t>Servicios Profesionales Auditoría Financiera Conta</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -13446,19 +13446,19 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4282-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4105-12-LE22</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>600644-6-LQ22</t>
+          <t>4282-8-LE22</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SERVICIO DE ASEO COMPLEJO FRONTERIZO COLCHANE </t>
+          <t>Capacitación FAEP 2020</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>2022-05-27T16:29:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E468" s="2" t="n">
@@ -13474,19 +13474,19 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=600644-6-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4282-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>951405-26-LE22</t>
+          <t>1395-52-LQ22</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>SERVICIO MANT-REPARACIÓN ELECTRICA PABELLÓN CMC</t>
+          <t>Adquisicion de Licencias Office-H.Ovalle</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -13494,7 +13494,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>2022-05-27T16:02:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E469" s="2" t="n">
@@ -13502,19 +13502,19 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1395-52-LQ22</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>3747-17-LE22</t>
+          <t>600644-6-LQ22</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>PROTESIS E INSUMOS PROGRAMA GES ODONTOLOGICOS</t>
+          <t xml:space="preserve"> SERVICIO DE ASEO COMPLEJO FRONTERIZO COLCHANE </t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:29:00</t>
         </is>
       </c>
       <c r="E470" s="2" t="n">
@@ -13530,19 +13530,19 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3747-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=600644-6-LQ22</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>951405-29-L122</t>
+          <t>951405-26-LE22</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MATERIALES DE OFICINA PARA EL CMC, TERCER PROCESO</t>
+          <t>SERVICIO MANT-REPARACIÓN ELECTRICA PABELLÓN CMC</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:02:00</t>
         </is>
       </c>
       <c r="E471" s="2" t="n">
@@ -13558,19 +13558,19 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-29-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>1995-7-L122</t>
+          <t>951405-29-L122</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAPACITACIÓN EN MANEJO E INTERVENCIÓN EN CRISIS EN EL ÁMBITO LABORAL </t>
+          <t>ADQUISICION DE MATERIALES DE OFICINA PARA EL CMC, TERCER PROCESO</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -13586,19 +13586,19 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1995-7-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-29-L122</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>1126-6-LE22</t>
+          <t>1995-7-L122</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CONSULTORIA PAE HORTICULTORES DE ARAUCO SPA</t>
+          <t xml:space="preserve">CAPACITACIÓN EN MANEJO E INTERVENCIÓN EN CRISIS EN EL ÁMBITO LABORAL </t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -13614,19 +13614,19 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1126-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1995-7-L122</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>1180825-9-LQ22</t>
+          <t>621-515-LQ22</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Provisión de Ambulancia de Emergencia Básica 4x2</t>
+          <t xml:space="preserve">RANIBIZUMAB 05 MG005 ML SOL FAM  1000017033 </t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -13642,19 +13642,19 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1180825-9-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-515-LQ22</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2565-10-LE22</t>
+          <t>1126-6-LE22</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE SERVICIOS PARA PROGRAMA DE IMAGENES DIAGNOSTICAS</t>
+          <t>CONSULTORIA PAE HORTICULTORES DE ARAUCO SPA</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2565-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1126-6-LE22</t>
         </is>
       </c>
     </row>
@@ -13733,12 +13733,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>621-515-LQ22</t>
+          <t>1180825-9-LQ22</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t xml:space="preserve">RANIBIZUMAB 05 MG005 ML SOL FAM  1000017033 </t>
+          <t>Provisión de Ambulancia de Emergencia Básica 4x2</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -13754,19 +13754,19 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-515-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1180825-9-LQ22</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>1031849-9-LR22</t>
+          <t>2565-10-LE22</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>SERV. DE VIGILANCIA Y PROTECCION  SSTHNO C LIRQUEN</t>
+          <t>ADQUISICIÓN DE SERVICIOS PARA PROGRAMA DE IMAGENES DIAGNOSTICAS</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -13782,19 +13782,19 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1031849-9-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2565-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>956-44-LR22</t>
+          <t>1031849-9-LR22</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Consultoría para la elaboración de estudios de mercado especificaciones técnicas y propuestas de evaluación de licitaciones de equipos y equipamiento para Proyecto Normalización Hospital Claudio Vicuña</t>
+          <t>SERV. DE VIGILANCIA Y PROTECCION  SSTHNO C LIRQUEN</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -13810,19 +13810,19 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=956-44-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1031849-9-LR22</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>621-489-LR22</t>
+          <t>956-44-LR22</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t xml:space="preserve">HIDROXICARBAMIDA 500 MG  CPCM  1000017015 </t>
+          <t>Consultoría para la elaboración de estudios de mercado especificaciones técnicas y propuestas de evaluación de licitaciones de equipos y equipamiento para Proyecto Normalización Hospital Claudio Vicuña</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -13838,19 +13838,19 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-489-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=956-44-LR22</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>621-490-LR22</t>
+          <t>621-489-LR22</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t xml:space="preserve">PIPERACILINATAZOBACTAM 4000500 MG FAM  1000017016 </t>
+          <t xml:space="preserve">HIDROXICARBAMIDA 500 MG  CPCM  1000017015 </t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -13866,19 +13866,19 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-490-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-489-LR22</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>621-477-LR22</t>
+          <t>621-490-LR22</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>GASA ALG. 4 PL 5X100 CM HILO R.O SO 5 UN 1000016972</t>
+          <t xml:space="preserve">PIPERACILINATAZOBACTAM 4000500 MG FAM  1000017016 </t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -13894,19 +13894,19 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-477-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-490-LR22</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>1057489-198-LR22</t>
+          <t>621-477-LR22</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Convenio de Suministro de reactivos insumos equipamiento completo y sistema informático para análisis automatizado para Laboratorio de Hematología y Citometría de Flujo por 48 meses para el Hospital del Salvador.</t>
+          <t>GASA ALG. 4 PL 5X100 CM HILO R.O SO 5 UN 1000016972</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -13922,19 +13922,19 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-198-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-477-LR22</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>557970-6-O122</t>
+          <t>1057489-198-LR22</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>CONSERV. RUTINARIA AD. PICHOY, COMUNA DE MARIQUINA</t>
+          <t>Convenio de Suministro de reactivos insumos equipamiento completo y sistema informático para análisis automatizado para Laboratorio de Hematología y Citometría de Flujo por 48 meses para el Hospital del Salvador.</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -13950,19 +13950,19 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=557970-6-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-198-LR22</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>885-65-LE22</t>
+          <t>557970-6-O122</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Adquisición de 14 impresoras multifuncionales</t>
+          <t>CONSERV. RUTINARIA AD. PICHOY, COMUNA DE MARIQUINA</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -13978,19 +13978,19 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-65-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=557970-6-O122</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>621-454-LR22</t>
+          <t>885-65-LE22</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t xml:space="preserve">METRONIDAZOL 500 MG CMCM REC.  1000016954 </t>
+          <t>Adquisición de 14 impresoras multifuncionales</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -14006,19 +14006,19 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-454-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-65-LE22</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>1017312-2-LQ22</t>
+          <t>621-454-LR22</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Servicio Proced. Diagnósticos y Terapeut. Iquique.</t>
+          <t xml:space="preserve">METRONIDAZOL 500 MG CMCM REC.  1000016954 </t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -14034,19 +14034,19 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017312-2-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-454-LR22</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>621-459-LR22</t>
+          <t>1017312-2-LQ22</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t xml:space="preserve">LITIO CARBONATO 450 MGCMCM REC LP  1000016947 </t>
+          <t>Servicio Proced. Diagnósticos y Terapeut. Iquique.</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -14062,19 +14062,19 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-459-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017312-2-LQ22</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>621-461-LR22</t>
+          <t>621-459-LR22</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUNITINIB 50 MG CP  1000016990 </t>
+          <t xml:space="preserve">LITIO CARBONATO 450 MGCMCM REC LP  1000016947 </t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -14090,19 +14090,19 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-461-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-459-LR22</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>621-462-LR22</t>
+          <t>621-461-LR22</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t xml:space="preserve">DISULFIRAM 500 MG CM  1000016992 </t>
+          <t xml:space="preserve">SUNITINIB 50 MG CP  1000016990 </t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -14118,19 +14118,19 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-462-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-461-LR22</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>1075963-388-LR21</t>
+          <t>621-462-LR22</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS ANTIMICROBIANOS</t>
+          <t xml:space="preserve">DISULFIRAM 500 MG CM  1000016992 </t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -14146,19 +14146,19 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-388-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-462-LR22</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>1075963-389-LR21</t>
+          <t>1075963-388-LR21</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS EN COMPRIMIDOS</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS ANTIMICROBIANOS</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -14174,19 +14174,19 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-389-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-388-LR21</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>1075963-390-LR21</t>
+          <t>1075963-389-LR21</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS REFRIGERADOS</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS EN COMPRIMIDOS</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -14202,19 +14202,19 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-390-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-389-LR21</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>1947-51-LE22</t>
+          <t>1075963-390-LR21</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>CONTRATACIÓN DEL SERVICIO DE ARRIENDO DE CAMAS CLÍNICAS DE PACIENTE INTENSIVO DEL HOSPITAL ROBERTO DEL RÍO</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS REFRIGERADOS</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -14230,19 +14230,19 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-51-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-390-LR21</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>885-54-LE22</t>
+          <t>1947-51-LE22</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACIÓN UPS 30KVA CR. COQUIMBO</t>
+          <t>CONTRATACIÓN DEL SERVICIO DE ARRIENDO DE CAMAS CLÍNICAS DE PACIENTE INTENSIVO DEL HOSPITAL ROBERTO DEL RÍO</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -14258,19 +14258,19 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-54-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-51-LE22</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>1057489-247-LE22</t>
+          <t>885-54-LE22</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Hisopo Gasa Estéril por 24 meses en el Hospital del Salvador </t>
+          <t>SUMINISTRO E INSTALACIÓN UPS 30KVA CR. COQUIMBO</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -14286,19 +14286,19 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-247-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-54-LE22</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2436-223-L122</t>
+          <t>3220-10-LE22</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Adquisición de Estanque BioPlastic 5400 lts.,  Bomba Pedrollo, Autopress Elect, según archivo adjunto, necesarios para Cerro Condell.</t>
+          <t>SERVICIO DE MANTENIMIENTO CALDERA A VAPOR</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -14314,19 +14314,19 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2436-223-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3220-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>1057489-246-LE22</t>
+          <t>3415-3-L122</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Grapadoras Circulares Curvas por 12 meses en el Hospital del Salvador </t>
+          <t>ELEMENTOS DE ESCRITORIO</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -14342,19 +14342,19 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-246-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3415-3-L122</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2422-306-L122</t>
+          <t>1057489-247-LE22</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>S.A. 936887 COOLER LONCHERA</t>
+          <t xml:space="preserve">Convenio de Suministro de Hisopo Gasa Estéril por 24 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -14370,19 +14370,19 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-306-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-247-LE22</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>4085-22-L122</t>
+          <t>2436-223-L122</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>MOBILIARIOS MENAJE Y ROPA DE CAMA CENTRO DIURNO.</t>
+          <t>Adquisición de Estanque BioPlastic 5400 lts.,  Bomba Pedrollo, Autopress Elect, según archivo adjunto, necesarios para Cerro Condell.</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -14398,19 +14398,19 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-22-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2436-223-L122</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>1057489-248-LE22</t>
+          <t>2422-306-L122</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Sutura Catgut por 24 meses en el Hospital del Salvador </t>
+          <t>S.A. 936887 COOLER LONCHERA</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -14426,19 +14426,19 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-248-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-306-L122</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>3220-10-LE22</t>
+          <t>1057489-246-LE22</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>SERVICIO DE MANTENIMIENTO CALDERA A VAPOR</t>
+          <t xml:space="preserve">Convenio de Suministro de Grapadoras Circulares Curvas por 12 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -14454,19 +14454,19 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3220-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-246-LE22</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>3415-3-L122</t>
+          <t>4085-22-L122</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>ELEMENTOS DE ESCRITORIO</t>
+          <t>MOBILIARIOS MENAJE Y ROPA DE CAMA CENTRO DIURNO.</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -14482,19 +14482,19 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3415-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-22-L122</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>1057494-43-LE22</t>
+          <t>1057489-248-LE22</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Adquisición de Art. de Alimentación y Otros</t>
+          <t xml:space="preserve">Convenio de Suministro de Sutura Catgut por 24 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -14510,19 +14510,19 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057494-43-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-248-LE22</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>1149-22-LE22</t>
+          <t>3747-17-LE22</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO RESBALÓN BAHÍA MURTA COMUNA DE IBÁÑEZ AÑO 2022</t>
+          <t>PROTESIS E INSUMOS PROGRAMA GES ODONTOLOGICOS</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -14538,19 +14538,19 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3747-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>1057499-18-LE22</t>
+          <t>1057494-43-LE22</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE LA RED DEL SERVICIO DE SALUD METROPOLITANO SUR</t>
+          <t>Adquisición de Art. de Alimentación y Otros</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -14566,19 +14566,19 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057499-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057494-43-LE22</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2366-75-L122</t>
+          <t>1149-22-LE22</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MATERIALES DE ASEO M.11 DIRECCIÓN</t>
+          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO RESBALÓN BAHÍA MURTA COMUNA DE IBÁÑEZ AÑO 2022</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>2022-05-27T15:59:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E508" s="2" t="n">
@@ -14594,19 +14594,19 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-75-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>3477-110-LR22</t>
+          <t>1057499-18-LE22</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>CONTRATACION SERVICIO VOZ DATOS E INTERNET PARA  INMUEBLES DE LA MUNICIPALIDAD DE VILCUN</t>
+          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE LA RED DEL SERVICIO DE SALUD METROPOLITANO SUR</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>2022-05-27T15:47:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E509" s="2" t="n">
@@ -14622,19 +14622,19 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3477-110-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057499-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2422-298-LE22</t>
+          <t>2366-75-L122</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>SOL. 936840 PARKA TERMICA</t>
+          <t>ADQUISICIÓN DE MATERIALES DE ASEO M.11 DIRECCIÓN</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>2022-05-27T15:44:00</t>
+          <t>2022-05-27T15:59:00</t>
         </is>
       </c>
       <c r="E510" s="2" t="n">
@@ -14650,19 +14650,19 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-298-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-75-L122</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2591-89-L122</t>
+          <t>3477-110-LR22</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MESAS Y SILLAS</t>
+          <t>CONTRATACION SERVICIO VOZ DATOS E INTERNET PARA  INMUEBLES DE LA MUNICIPALIDAD DE VILCUN</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>2022-05-27T15:38:00</t>
+          <t>2022-05-27T15:47:00</t>
         </is>
       </c>
       <c r="E511" s="2" t="n">
@@ -14678,19 +14678,19 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-89-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3477-110-LR22</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>387-26-LR22</t>
+          <t>2422-298-LE22</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>C.S Mantención áreas verdes de la Comuna de Los Muermos</t>
+          <t>SOL. 936840 PARKA TERMICA</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>2022-05-27T15:35:00</t>
+          <t>2022-05-27T15:44:00</t>
         </is>
       </c>
       <c r="E512" s="2" t="n">
@@ -14706,19 +14706,19 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=387-26-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-298-LE22</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2258-72-LR22</t>
+          <t>2591-89-L122</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ANTIINFECCIOS INYECTABLES</t>
+          <t>ADQUISICIÓN DE MESAS Y SILLAS</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>2022-05-27T15:31:00</t>
+          <t>2022-05-27T15:38:00</t>
         </is>
       </c>
       <c r="E513" s="2" t="n">
@@ -14734,19 +14734,19 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2258-72-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-89-L122</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>3621-42-L122</t>
+          <t>387-26-LR22</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>COMPRA DE MOBILIARIO</t>
+          <t>C.S Mantención áreas verdes de la Comuna de Los Muermos</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>2022-05-27T15:31:00</t>
+          <t>2022-05-27T15:35:00</t>
         </is>
       </c>
       <c r="E514" s="2" t="n">
@@ -14762,19 +14762,19 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-42-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=387-26-LR22</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>5190-29-LP22</t>
+          <t>2258-72-LR22</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>FARMACIA - SUMINISTRO DE FORMULAS LACTEAS</t>
+          <t>ANTIINFECCIOS INYECTABLES</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -14790,19 +14790,19 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5190-29-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2258-72-LR22</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2377-185-L122</t>
+          <t>3621-42-L122</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
+          <t>COMPRA DE MOBILIARIO</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -14818,19 +14818,19 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-185-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-42-L122</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>1057430-42-LE22</t>
+          <t>5190-29-LP22</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Convenio Servicios Climatización y Ventilación</t>
+          <t>FARMACIA - SUMINISTRO DE FORMULAS LACTEAS</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -14838,7 +14838,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T15:31:00</t>
         </is>
       </c>
       <c r="E517" s="2" t="n">
@@ -14846,19 +14846,19 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057430-42-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5190-29-LP22</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2703-126-L122</t>
+          <t>2377-185-L122</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SC 8100 Doppler portátil. CESFAM</t>
+          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T15:31:00</t>
         </is>
       </c>
       <c r="E518" s="2" t="n">
@@ -14874,19 +14874,19 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-126-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-185-L122</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>756-11-L122</t>
+          <t>1057430-42-LE22</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Adquisición de termos y hervidores de agua</t>
+          <t>Convenio Servicios Climatización y Ventilación</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-11-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057430-42-LE22</t>
         </is>
       </c>
     </row>
@@ -14937,12 +14937,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>1149-23-LE22</t>
+          <t>2703-126-L122</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO SIN NOMBRE CERRO CASTILLO COMUNA DE IBÁÑEZ AÑO 2022</t>
+          <t>SC 8100 Doppler portátil. CESFAM</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -14958,19 +14958,19 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-126-L122</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>609-36-LE22</t>
+          <t>756-11-L122</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Consultas de Información Comercial de Usuarios</t>
+          <t>Adquisición de termos y hervidores de agua</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -14986,19 +14986,19 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=609-36-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-11-L122</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>756-10-L122</t>
+          <t>1149-23-LE22</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Servicio de impresión de carpetas y sobres con grafica institucional.</t>
+          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO SIN NOMBRE CERRO CASTILLO COMUNA DE IBÁÑEZ AÑO 2022</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -15014,19 +15014,19 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>1993-11-LE22</t>
+          <t>609-36-LE22</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Curso Gestión de Contratos en Servicios Públicos.</t>
+          <t>Consultas de Información Comercial de Usuarios</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -15042,19 +15042,19 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1993-11-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=609-36-LE22</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>739-9-LE22</t>
+          <t>1993-11-LE22</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SAT AREA LA CALERA QUILLOTA Y LIMACHE. INDAP R.VA</t>
+          <t>Curso Gestión de Contratos en Servicios Públicos.</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -15070,19 +15070,19 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-9-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1993-11-LE22</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>739-10-LP22</t>
+          <t>756-10-L122</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SAT LA LIGUA FLORES. INDAP R.VALPO.</t>
+          <t>Servicio de impresión de carpetas y sobres con grafica institucional.</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -15098,19 +15098,19 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-10-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-10-L122</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>1411-19-LP22</t>
+          <t>739-9-LE22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Servicio de aseo y limpieza para C.R.S. Santiago Occidente y CAIS Melipilla</t>
+          <t>SAT AREA LA CALERA QUILLOTA Y LIMACHE. INDAP R.VA</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -15126,19 +15126,19 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1411-19-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-9-LE22</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>1231-2-LE22</t>
+          <t>739-10-LP22</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Servicios de destrucción de mercancías DRAV</t>
+          <t>SAT LA LIGUA FLORES. INDAP R.VALPO.</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -15154,19 +15154,19 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1231-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-10-LP22</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2735-45-LE22</t>
+          <t>1411-19-LP22</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Servicios de Medición de Ruido</t>
+          <t>Servicio de aseo y limpieza para C.R.S. Santiago Occidente y CAIS Melipilla</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -15182,19 +15182,19 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1411-19-LP22</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2423-20-LR22</t>
+          <t>1231-2-LE22</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>SERVICIO DE RECOLECCIÓN TRANSPORTE Y DISPOSICIÓN DE RESIDUOS SOLIDOS DOMICILIARIOS Y ASIMILABLES</t>
+          <t>Servicios de destrucción de mercancías DRAV</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -15210,19 +15210,19 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2423-20-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1231-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>3328-39-LE22</t>
+          <t>2735-45-LE22</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>JAG SERVICIO DE REPARACIÓN COMPLETA DE CALDERA</t>
+          <t>Servicios de Medición de Ruido</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>2022-05-27T15:29:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E531" s="2" t="n">
@@ -15238,19 +15238,19 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3328-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>1057441-42-LE22</t>
+          <t>2423-20-LR22</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Servicio de Mantención Prev. y Correct. Equipo Rx Dental</t>
+          <t>SERVICIO DE RECOLECCIÓN TRANSPORTE Y DISPOSICIÓN DE RESIDUOS SOLIDOS DOMICILIARIOS Y ASIMILABLES</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>2022-05-27T15:25:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E532" s="2" t="n">
@@ -15266,19 +15266,19 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057441-42-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2423-20-LR22</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2410-95-L122</t>
+          <t>3328-39-LE22</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Adquisición de tintas para programa UAPO, CESFAM Nororiente</t>
+          <t>JAG SERVICIO DE REPARACIÓN COMPLETA DE CALDERA</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>2022-05-27T15:22:00</t>
+          <t>2022-05-27T15:29:00</t>
         </is>
       </c>
       <c r="E533" s="2" t="n">
@@ -15294,19 +15294,19 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2410-95-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3328-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2366-74-L122</t>
+          <t>1057441-42-LE22</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE OXIMETROS DE PULSO M.305 CESFAM AMADOR NEGHME</t>
+          <t>Servicio de Mantención Prev. y Correct. Equipo Rx Dental</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>2022-05-27T15:17:00</t>
+          <t>2022-05-27T15:25:00</t>
         </is>
       </c>
       <c r="E534" s="2" t="n">
@@ -15322,19 +15322,19 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-74-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057441-42-LE22</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>3231-84-E222</t>
+          <t>2410-95-L122</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>COMPRA DE COMPUTADORES IMPRESORAS Y DISCO DUROS P</t>
+          <t>Adquisición de tintas para programa UAPO, CESFAM Nororiente</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>2022-05-27T15:11:00</t>
+          <t>2022-05-27T15:22:00</t>
         </is>
       </c>
       <c r="E535" s="2" t="n">
@@ -15350,19 +15350,19 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3231-84-E222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2410-95-L122</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>908366-8-LE22</t>
+          <t>2366-74-L122</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Servicios de arriendo de fotocopiadoras</t>
+          <t>ADQUISICIÓN DE OXIMETROS DE PULSO M.305 CESFAM AMADOR NEGHME</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>2022-05-27T15:10:00</t>
+          <t>2022-05-27T15:17:00</t>
         </is>
       </c>
       <c r="E536" s="2" t="n">
@@ -15378,19 +15378,19 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=908366-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-74-L122</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>5890-26-LE22</t>
+          <t>3231-84-E222</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>CONTRATO OBRAS MENORES MT-0</t>
+          <t>COMPRA DE COMPUTADORES IMPRESORAS Y DISCO DUROS P</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>2022-05-27T15:10:00</t>
+          <t>2022-05-27T15:11:00</t>
         </is>
       </c>
       <c r="E537" s="2" t="n">
@@ -15406,19 +15406,19 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5890-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3231-84-E222</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>4090-25-LE22</t>
+          <t>908366-8-LE22</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>IMAGENES DIAGNOSTICAS - ECOTOMOGRAFIA ABDOMINAL</t>
+          <t>Servicios de arriendo de fotocopiadoras</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>2022-05-27T15:08:00</t>
+          <t>2022-05-27T15:10:00</t>
         </is>
       </c>
       <c r="E538" s="2" t="n">
@@ -15434,19 +15434,19 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4090-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=908366-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2790-97-L122</t>
+          <t>5890-26-LE22</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>EQUIPO ESPIRÓMETRO</t>
+          <t>CONTRATO OBRAS MENORES MT-0</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2022-05-27T15:07:00</t>
+          <t>2022-05-27T15:10:00</t>
         </is>
       </c>
       <c r="E539" s="2" t="n">
@@ -15462,19 +15462,19 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-97-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5890-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>2374-27-L122</t>
+          <t>4090-25-LE22</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Corta de 4 árboles de Eucalytus</t>
+          <t>IMAGENES DIAGNOSTICAS - ECOTOMOGRAFIA ABDOMINAL</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:08:00</t>
         </is>
       </c>
       <c r="E540" s="2" t="n">
@@ -15490,19 +15490,19 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2374-27-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4090-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>1116007-20-L122</t>
+          <t>2790-97-L122</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Adquisición gas licuado a granel</t>
+          <t>EQUIPO ESPIRÓMETRO</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -15510,7 +15510,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:07:00</t>
         </is>
       </c>
       <c r="E541" s="2" t="n">
@@ -15518,19 +15518,19 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1116007-20-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-97-L122</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2020-8-LE22</t>
+          <t>2374-27-L122</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SE REQUIERE EL SERVICIO DE IMPRESION DE 600 LIBROS</t>
+          <t>Corta de 4 árboles de Eucalytus</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -15546,19 +15546,19 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2020-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2374-27-L122</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>2727-42-L122</t>
+          <t>1116007-20-L122</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACIÓN AIRE ACONDICIONADO FARMACIA COMUNAL</t>
+          <t>Adquisición gas licuado a granel</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -15574,19 +15574,19 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2727-42-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1116007-20-L122</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>5349-14-LE22</t>
+          <t>2020-8-LE22</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>CONTRATO DE PRESTACIÓN DE SERVICIOS DE PERSONAL AUXILIAR PARA APOYO EN LA UNIDAD DE EMERGENCIA DEL HOSPITAL PROVINCIAL DEL HUASCO MONSEÑOR FERNANDO ARIZTÍA RUIZ</t>
+          <t>SE REQUIERE EL SERVICIO DE IMPRESION DE 600 LIBROS</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -15602,19 +15602,19 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5349-14-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2020-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>4493-23-LE22</t>
+          <t>5349-14-LE22</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Adquisición de Combustible para Generador CESFAM</t>
+          <t>CONTRATO DE PRESTACIÓN DE SERVICIOS DE PERSONAL AUXILIAR PARA APOYO EN LA UNIDAD DE EMERGENCIA DEL HOSPITAL PROVINCIAL DEL HUASCO MONSEÑOR FERNANDO ARIZTÍA RUIZ</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -15630,19 +15630,19 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4493-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5349-14-LE22</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>2735-6-LR22</t>
+          <t>2727-42-L122</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>OBRAS PARA LA RENOVACIÓN EJE LO BARNECHEA</t>
+          <t>SUMINISTRO E INSTALACIÓN AIRE ACONDICIONADO FARMACIA COMUNAL</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -15658,19 +15658,19 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-6-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2727-42-L122</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>2562-5-LR22</t>
+          <t>4493-23-LE22</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Adquisición de vehículos combate de incendio</t>
+          <t>Adquisición de Combustible para Generador CESFAM</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E547" s="2" t="n">
@@ -15686,19 +15686,19 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2562-5-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4493-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>1947-39-LE22</t>
+          <t>2735-6-LR22</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>810-ADQUISICIÓN DE SERVICIO DE PLANIFICACIÓN DE CIRUGÍA MAXILOFACIAL PARA HOSPITAL DE NIÑOS ROBERTO DEL RIO CAF</t>
+          <t>OBRAS PARA LA RENOVACIÓN EJE LO BARNECHEA</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E548" s="2" t="n">
@@ -15714,19 +15714,19 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-6-LR22</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>2460-64-L122</t>
+          <t>2562-5-LR22</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MATERIALES DE FERRETERIA</t>
+          <t>Adquisición de vehículos combate de incendio</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -15742,19 +15742,19 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2460-64-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2562-5-LR22</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>979-10-LE22</t>
+          <t>1947-39-LE22</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Elaboración y Tramitación de Informe Experto</t>
+          <t>810-ADQUISICIÓN DE SERVICIO DE PLANIFICACIÓN DE CIRUGÍA MAXILOFACIAL PARA HOSPITAL DE NIÑOS ROBERTO DEL RIO CAF</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -15770,19 +15770,19 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=979-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>2424-33-LE22</t>
+          <t>2460-64-L122</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>484- - P.B - ADQUISICION TARIMA DE ESCENARIO</t>
+          <t>ADQUISICION DE MATERIALES DE FERRETERIA</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -15798,19 +15798,19 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-33-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2460-64-L122</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>2424-70-LE22</t>
+          <t>979-10-LE22</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>867 - INFRAESTRUCTURA - M.A. - SERVICIO DE PINTADO EXTERIOR DE MODULOS-MUNICIPIO DE CUIDADOS EN EL TERRITORIO</t>
+          <t>Elaboración y Tramitación de Informe Experto</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -15826,19 +15826,19 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-70-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=979-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>1150-16-O122</t>
+          <t>2424-33-LE22</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>CONSERV. Y REFUERZOS DE RIBERAS, ESTERO LAS CRUCES</t>
+          <t>484- - P.B - ADQUISICION TARIMA DE ESCENARIO</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -15854,19 +15854,19 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1150-16-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-33-LE22</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>1003473-17-LQ22</t>
+          <t>2424-70-LE22</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>CONTRATO DE SUMINISTRO DE INSUMOS DE SOPORTE RESPIRATORIO NO INVASIVO PARA EL HOSPITAL “SAN JUAN DE DIOS” DE CURICÓ</t>
+          <t>867 - INFRAESTRUCTURA - M.A. - SERVICIO DE PINTADO EXTERIOR DE MODULOS-MUNICIPIO DE CUIDADOS EN EL TERRITORIO</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -15882,19 +15882,19 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1003473-17-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-70-LE22</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>4629-12-LR22</t>
+          <t>1150-16-O122</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Serv. de red de datos seguridad perimetral y call</t>
+          <t>CONSERV. Y REFUERZOS DE RIBERAS, ESTERO LAS CRUCES</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -15910,19 +15910,19 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4629-12-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1150-16-O122</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>1057501-177-LR22</t>
+          <t>1003473-17-LQ22</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO JERINGAS CASR</t>
+          <t>CONTRATO DE SUMINISTRO DE INSUMOS DE SOPORTE RESPIRATORIO NO INVASIVO PARA EL HOSPITAL “SAN JUAN DE DIOS” DE CURICÓ</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -15938,19 +15938,19 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057501-177-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1003473-17-LQ22</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>2080-138-LR22</t>
+          <t>4629-12-LR22</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>SUMINISTRO AUDÍFONOS</t>
+          <t>Serv. de red de datos seguridad perimetral y call</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -15966,19 +15966,19 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2080-138-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4629-12-LR22</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>1079650-22-LQ22</t>
+          <t>1057501-177-LR22</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Rep Ambulancias Hospital Guillermo Grant Benavente</t>
+          <t>CONVENIO SUMINISTRO JERINGAS CASR</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -15994,19 +15994,19 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079650-22-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057501-177-LR22</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>1079639-38-L122</t>
+          <t>2080-138-LR22</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADQUISICIÒN DE MATERIALES DE CONSTRUCCIÒN PARA LA REPARACIÒN DEL PISO, DE LA 4TA. COM. CHAITEN  </t>
+          <t>SUMINISTRO AUDÍFONOS</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -16022,19 +16022,19 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079639-38-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2080-138-LR22</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>1057390-21-LP22</t>
+          <t>1079650-22-LQ22</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO DE PETROLEO PARA CALDERAS SSAN</t>
+          <t>Rep Ambulancias Hospital Guillermo Grant Benavente</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -16050,19 +16050,19 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057390-21-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079650-22-LQ22</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>1591-11-LE22</t>
+          <t>1079639-38-L122</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>CURSOS DE CAPACITACIÓN PARA EL SERVICIO NACIONAL DE TURISMO ADJUDICACIÓN MÚLTIPLE</t>
+          <t xml:space="preserve">ADQUISICIÒN DE MATERIALES DE CONSTRUCCIÒN PARA LA REPARACIÒN DEL PISO, DE LA 4TA. COM. CHAITEN  </t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -16078,19 +16078,19 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1591-11-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079639-38-L122</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>548871-2-L122</t>
+          <t>1057390-21-LP22</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Servicio de aseo IPS Porvenir</t>
+          <t>CONVENIO SUMINISTRO DE PETROLEO PARA CALDERAS SSAN</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -16106,19 +16106,19 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548871-2-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057390-21-LP22</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>906-16-LE22</t>
+          <t>1591-11-LE22</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>MIRL Servicio de Aseo y auxiliar</t>
+          <t>CURSOS DE CAPACITACIÓN PARA EL SERVICIO NACIONAL DE TURISMO ADJUDICACIÓN MÚLTIPLE</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -16134,19 +16134,19 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=906-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1591-11-LE22</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>4491-36-LE22</t>
+          <t>548871-2-L122</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Reparación Liceo Pencopolitano Comuna de Penco</t>
+          <t>Servicio de aseo IPS Porvenir</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -16162,19 +16162,19 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4491-36-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548871-2-L122</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>699866-51-LE22</t>
+          <t>906-16-LE22</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>CONVENIO DE INSUMOS COMPATIBLES CON EMBOLSADORA AUTOBAG</t>
+          <t>MIRL Servicio de Aseo y auxiliar</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -16190,19 +16190,19 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=699866-51-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=906-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>1699-6-LE22</t>
+          <t>4491-36-LE22</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Mantenciones de Viviendas Judiciales Zonal Rgua</t>
+          <t>Reparación Liceo Pencopolitano Comuna de Penco</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -16218,19 +16218,19 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1699-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4491-36-LE22</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>2200-33-L122</t>
+          <t>699866-51-LE22</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>CURSO ESTRATEGIAS DE ABORDAJE DE NIÑOS, NIÑAS Y ADOLESCENTES HOSPITALIZADOS POR CONDICIÓN DE SALUD MENTAL - U. CAP</t>
+          <t>CONVENIO DE INSUMOS COMPATIBLES CON EMBOLSADORA AUTOBAG</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -16246,19 +16246,19 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2200-33-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=699866-51-LE22</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>1380-121-LP22</t>
+          <t>1699-6-LE22</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>182-22 CONTR SERV ARRIENDO EQ ELECTROENCEFALÓGRAFO</t>
+          <t>Mantenciones de Viviendas Judiciales Zonal Rgua</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -16274,19 +16274,19 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-121-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1699-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>3502-61-LE22</t>
+          <t>2200-33-L122</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE COMPACTADORA UNIDAD MEDIO AMBIENTE</t>
+          <t>CURSO ESTRATEGIAS DE ABORDAJE DE NIÑOS, NIÑAS Y ADOLESCENTES HOSPITALIZADOS POR CONDICIÓN DE SALUD MENTAL - U. CAP</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -16302,19 +16302,19 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3502-61-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2200-33-L122</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>548868-9-LE22</t>
+          <t>1380-121-LP22</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Servicio de Sala Cuna y Jardín Infantil IPS Xa.</t>
+          <t>182-22 CONTR SERV ARRIENDO EQ ELECTROENCEFALÓGRAFO</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -16330,19 +16330,19 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548868-9-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-121-LP22</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>1278-8-LE22</t>
+          <t>548868-9-LE22</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Materiales de Seguridad Vial para Prov. de Curicó</t>
+          <t>Servicio de Sala Cuna y Jardín Infantil IPS Xa.</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -16358,19 +16358,19 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1278-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548868-9-LE22</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>1077920-7-LE22</t>
+          <t>1462-10-LE22</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>COMPRA COADYUVANTES PARA TERAPIA ONCOLOGICA</t>
+          <t>SERVICIO DE ASEO Y LIMPIEZA DE CONSULTORIO ADOSADO Y UNIDADES DE APOYO DEL HOSPITAL DE HUALAÑÉ</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -16386,19 +16386,19 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1462-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>1201-26-LE22</t>
+          <t>1278-8-LE22</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>CS de arriendo multifuncionales IND Aysén</t>
+          <t>Materiales de Seguridad Vial para Prov. de Curicó</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -16414,19 +16414,19 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1278-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>2284-118-L122</t>
+          <t>1077920-7-LE22</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>SUMINISTRO MANTENCION Y REPARACION DE GASFITERIA — SOLICITUD Nº 45127</t>
+          <t>COMPRA COADYUVANTES PARA TERAPIA ONCOLOGICA</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -16442,19 +16442,19 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2284-118-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>1462-10-LE22</t>
+          <t>1201-26-LE22</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>SERVICIO DE ASEO Y LIMPIEZA DE CONSULTORIO ADOSADO Y UNIDADES DE APOYO DEL HOSPITAL DE HUALAÑÉ</t>
+          <t>CS de arriendo multifuncionales IND Aysén</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -16470,19 +16470,19 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1462-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>796297-10-L122</t>
+          <t>3502-61-LE22</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>005 021 036/2022 GBS ADQUISICION DE CALEFACTOR A PELLET PARA C.R. SERRANO.</t>
+          <t>ADQUISICIÓN DE COMPACTADORA UNIDAD MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -16498,19 +16498,19 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=796297-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3502-61-LE22</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>2424-149-L122</t>
+          <t>2284-118-L122</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>276 - DEPORTES - (M.A.) - KIT ARTICULOS DEPORTIVOS</t>
+          <t>SUMINISTRO MANTENCION Y REPARACION DE GASFITERIA — SOLICITUD Nº 45127</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -16526,19 +16526,19 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-149-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2284-118-L122</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>1017-2-LP22</t>
+          <t>1201-24-LE22</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Servicio de Aseo NC y RM</t>
+          <t>Suministro de trofeos y medallas Escolares 2022</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -16554,19 +16554,19 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017-2-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-24-LE22</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>2825-24-L122</t>
+          <t>796297-10-L122</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>ADQUISICIN MEDICAMENTO F.P.</t>
+          <t>005 021 036/2022 GBS ADQUISICION DE CALEFACTOR A PELLET PARA C.R. SERRANO.</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -16582,19 +16582,19 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2825-24-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=796297-10-L122</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>4463-10-LQ22</t>
+          <t>2424-149-L122</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Contrato de Suministro de Medicamentos en comprimidos para el Hospital de Curicó</t>
+          <t>276 - DEPORTES - (M.A.) - KIT ARTICULOS DEPORTIVOS</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -16610,19 +16610,19 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4463-10-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-149-L122</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>1002-32-LE22</t>
+          <t>2825-24-L122</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>CONVENIO SERVICIO DE MANTENCION EQUIPOS DE LABORATORIO</t>
+          <t>ADQUISICIN MEDICAMENTO F.P.</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -16638,19 +16638,19 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002-32-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2825-24-L122</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>3497-21-LE22</t>
+          <t>1017-2-LP22</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>SUMINISTROS DE ALIMENTOS Y ABARROTES M. COBQUECURA</t>
+          <t>Servicio de Aseo NC y RM</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -16666,19 +16666,19 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3497-21-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017-2-LP22</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>1201-24-LE22</t>
+          <t>4463-10-LQ22</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Suministro de trofeos y medallas Escolares 2022</t>
+          <t>Contrato de Suministro de Medicamentos en comprimidos para el Hospital de Curicó</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -16694,19 +16694,19 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-24-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4463-10-LQ22</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>5737-3-LP22</t>
+          <t>1002-32-LE22</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Serv. tamizaje At. Medica Area Oftalmologia</t>
+          <t>CONVENIO SERVICIO DE MANTENCION EQUIPOS DE LABORATORIO</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -16722,19 +16722,19 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5737-3-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002-32-LE22</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>3428-14-L122</t>
+          <t>3497-21-LE22</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servicio de reparación del sistema de alcantarillado del Destacamento </t>
+          <t>SUMINISTROS DE ALIMENTOS Y ABARROTES M. COBQUECURA</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3428-14-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3497-21-LE22</t>
         </is>
       </c>
     </row>
@@ -16785,12 +16785,12 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>5413-81-LE22</t>
+          <t>5737-3-LP22</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Impresión de Libros en OFFSET para la Universidad de Los Lagos</t>
+          <t>Serv. tamizaje At. Medica Area Oftalmologia</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -16806,19 +16806,19 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5413-81-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5737-3-LP22</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>3794-44-LE22</t>
+          <t>3428-14-L122</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>FLETE INTERNACIONAL MENAJE WASHINGTON ESTADOS UNIDOS - SANTIAGO CHILE</t>
+          <t xml:space="preserve">Servicio de reparación del sistema de alcantarillado del Destacamento </t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -16834,19 +16834,19 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3794-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3428-14-L122</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>1028-41-L122</t>
+          <t>1002588-46-LE22</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Artículos de Escritorio</t>
+          <t>Coffee break vía suministro para el SLEP.</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -16862,19 +16862,19 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028-41-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002588-46-LE22</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>933-7-LE22</t>
+          <t>5413-81-LE22</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Implementos Deportivos para Programa</t>
+          <t>Impresión de Libros en OFFSET para la Universidad de Los Lagos</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -16890,19 +16890,19 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=933-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5413-81-LE22</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>1002588-46-LE22</t>
+          <t>3794-44-LE22</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Coffee break vía suministro para el SLEP.</t>
+          <t>FLETE INTERNACIONAL MENAJE WASHINGTON ESTADOS UNIDOS - SANTIAGO CHILE</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -16918,19 +16918,19 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002588-46-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3794-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>1979-125-LQ22</t>
+          <t>933-7-LE22</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>136.22 SERVICIO DE OPERACIÓN PARA SALA DE CONTROL CENTRALIZADO Y OTROS PARA NODO COSTERO: HOSPITAL DE NUEVA IMPERIAL.</t>
+          <t>Implementos Deportivos para Programa</t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -16946,19 +16946,19 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-125-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=933-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>1059082-14-LE22</t>
+          <t>1979-125-LQ22</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Servicio Impresión J.I. JUNJI REGIÓN ÑUBLE</t>
+          <t>136.22 SERVICIO DE OPERACIÓN PARA SALA DE CONTROL CENTRALIZADO Y OTROS PARA NODO COSTERO: HOSPITAL DE NUEVA IMPERIAL.</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -16974,19 +16974,19 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1059082-14-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-125-LQ22</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>1077920-8-LE22</t>
+          <t>1059082-14-LE22</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Compra de Fármacos Inyectables Tradicionales</t>
+          <t>Servicio Impresión J.I. JUNJI REGIÓN ÑUBLE</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -17002,19 +17002,19 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1059082-14-LE22</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>5155-14-LP22</t>
+          <t>1077920-8-LE22</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Serv Impresión carta variable para notificaciones</t>
+          <t>Compra de Fármacos Inyectables Tradicionales</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -17030,19 +17030,19 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5155-14-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>1380-122-LQ22</t>
+          <t>5155-14-LP22</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>PPTA 198-22 “ADQUISICIÓN DE FORMULAS ENTERALES”</t>
+          <t>Serv Impresión carta variable para notificaciones</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -17058,19 +17058,19 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-122-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5155-14-LP22</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>1488-34-LE22</t>
+          <t>1380-122-LQ22</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Propuesta Pública Nº203-22 denominada “MEJORAMIENTO Y REMODELACIÓN PARA PLANTA DE TRATAMIENTO DE AGUA DEL HOSPITAL”</t>
+          <t>PPTA 198-22 “ADQUISICIÓN DE FORMULAS ENTERALES”</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -17086,19 +17086,19 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1488-34-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-122-LQ22</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>985737-2-LE22</t>
+          <t>1488-34-LE22</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>INSUMOS Y EQUIPOS PARA TALLERES  TNS ENFERMERIA</t>
+          <t>Propuesta Pública Nº203-22 denominada “MEJORAMIENTO Y REMODELACIÓN PARA PLANTA DE TRATAMIENTO DE AGUA DEL HOSPITAL”</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -17114,19 +17114,19 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=985737-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1488-34-LE22</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>2328-207-LE22</t>
+          <t>985737-2-LE22</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN NOTEBOOK PARA UNIDAD DE FINANZAS</t>
+          <t>INSUMOS Y EQUIPOS PARA TALLERES  TNS ENFERMERIA</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -17142,19 +17142,19 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-207-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=985737-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>2409-311-L122</t>
+          <t>2328-207-LE22</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>ADQ DE SILLAS PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
+          <t>ADQUISICIÓN NOTEBOOK PARA UNIDAD DE FINANZAS</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -17170,19 +17170,19 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-311-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-207-LE22</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>2409-313-L122</t>
+          <t>550301-1-LE22</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>ADQ DE MESAS Y ESTANTES PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
+          <t>“SUMINISTRO DE MATERIALES PROGRAMA ORASMI</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -17198,19 +17198,19 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-313-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=550301-1-LE22</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>2409-314-L122</t>
+          <t>2409-313-L122</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MAQUINARIA PARA ESPECIALIDAD DE AGROPECUARIA DE LICEO LLANO BLANCO</t>
+          <t>ADQ DE MESAS Y ESTANTES PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -17226,19 +17226,19 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-314-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-313-L122</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>4281-29-LE22</t>
+          <t>2409-314-L122</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>SERVICIO DE IMPRENTA PARA EL DSM-CUNCO.</t>
+          <t>ADQUISICION DE MAQUINARIA PARA ESPECIALIDAD DE AGROPECUARIA DE LICEO LLANO BLANCO</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -17254,19 +17254,19 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-314-L122</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>3252-36-L122</t>
+          <t>2409-311-L122</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>REPUESTOS Y ACCESORIOS CAMIONETA DAEM</t>
+          <t>ADQ DE SILLAS PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -17282,19 +17282,19 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3252-36-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-311-L122</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>550301-1-LE22</t>
+          <t>4281-29-LE22</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>“SUMINISTRO DE MATERIALES PROGRAMA ORASMI</t>
+          <t>SERVICIO DE IMPRENTA PARA EL DSM-CUNCO.</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -17310,19 +17310,19 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=550301-1-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>29-66-L122</t>
+          <t>1028-41-L122</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>DTS.079/2021 ADQUISICIÓN DE REPUESTOS PARA CAMIONETAS MARCA NISSAN ZNA DE LA FUERZA AÉREA DE CHILE</t>
+          <t>Artículos de Escritorio</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -17338,19 +17338,19 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=29-66-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028-41-L122</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>3947-59-LE22</t>
+          <t>3252-36-L122</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>KIT DE SEGURIDAD DE BAÑOS PROGRAMA CIUDADES AMIGABLES LÍNEA 2 SANTA JUANA</t>
+          <t>REPUESTOS Y ACCESORIOS CAMIONETA DAEM</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -17358,7 +17358,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>2022-05-27T14:30:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E607" s="2" t="n">
@@ -17366,19 +17366,19 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3947-59-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3252-36-L122</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>3928-17-LR22</t>
+          <t>29-66-L122</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>CONSERVACION ESCUELA DIGNA CAMILO PICHILEMU</t>
+          <t>DTS.079/2021 ADQUISICIÓN DE REPUESTOS PARA CAMIONETAS MARCA NISSAN ZNA DE LA FUERZA AÉREA DE CHILE</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>2022-05-27T14:30:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E608" s="2" t="n">
@@ -17394,19 +17394,19 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-17-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=29-66-L122</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>1043-5-O122</t>
+          <t>3947-59-LE22</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>CONSERV. PEQ. AERODROMOS, AEROD. RIO BRAVO</t>
+          <t>KIT DE SEGURIDAD DE BAÑOS PROGRAMA CIUDADES AMIGABLES LÍNEA 2 SANTA JUANA</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>2022-05-27T14:29:00</t>
+          <t>2022-05-27T14:30:00</t>
         </is>
       </c>
       <c r="E609" s="2" t="n">
@@ -17422,19 +17422,19 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1043-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3947-59-LE22</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>4337-28-LE22</t>
+          <t>3928-17-LR22</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Mantención preventiva y correctiva autoclave</t>
+          <t>CONSERVACION ESCUELA DIGNA CAMILO PICHILEMU</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -17442,7 +17442,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>2022-05-27T14:28:00</t>
+          <t>2022-05-27T14:30:00</t>
         </is>
       </c>
       <c r="E610" s="2" t="n">
@@ -17450,19 +17450,19 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4337-28-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-17-LR22</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>1121816-77-L122</t>
+          <t>1043-5-O122</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>PEDIDO N°1334 GESTION ADMINISTRATIVA</t>
+          <t>CONSERV. PEQ. AERODROMOS, AEROD. RIO BRAVO</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -17470,7 +17470,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>2022-05-27T14:19:00</t>
+          <t>2022-05-27T14:29:00</t>
         </is>
       </c>
       <c r="E611" s="2" t="n">
@@ -17478,19 +17478,19 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1121816-77-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1043-5-O122</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>1736-163-L122</t>
+          <t>4337-28-LE22</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>LLAVERO INSTITUCIONAL</t>
+          <t>Mantención preventiva y correctiva autoclave</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>2022-05-27T14:18:00</t>
+          <t>2022-05-27T14:28:00</t>
         </is>
       </c>
       <c r="E612" s="2" t="n">
@@ -17506,19 +17506,19 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-163-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4337-28-LE22</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>2409-297-L122</t>
+          <t>1121816-77-L122</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>ADQ. DE MASCARILLAS DESECHABLES PARA NIÑOS ESC. CHACAYAL SUR</t>
+          <t>PEDIDO N°1334 GESTION ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>2022-05-27T14:14:00</t>
+          <t>2022-05-27T14:19:00</t>
         </is>
       </c>
       <c r="E613" s="2" t="n">
@@ -17534,19 +17534,19 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-297-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1121816-77-L122</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>2371-51-L122</t>
+          <t>1736-163-L122</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>S/P 185, EXPEDIENTE 6195, SERVICIO DE BIENESTAR</t>
+          <t>LLAVERO INSTITUCIONAL</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>2022-05-27T14:06:00</t>
+          <t>2022-05-27T14:18:00</t>
         </is>
       </c>
       <c r="E614" s="2" t="n">
@@ -17562,19 +17562,19 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2371-51-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-163-L122</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>3537-73-L122</t>
+          <t>2409-297-L122</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Adquisición de señaléticas  para el Campamento Puelo X</t>
+          <t>ADQ. DE MASCARILLAS DESECHABLES PARA NIÑOS ESC. CHACAYAL SUR</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -17582,7 +17582,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T14:14:00</t>
         </is>
       </c>
       <c r="E615" s="2" t="n">
@@ -17590,19 +17590,19 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3537-73-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-297-L122</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2409-304-L122</t>
+          <t>2371-51-L122</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ADQ. DE TELEVISOR PARA ESC. D-870</t>
+          <t>S/P 185, EXPEDIENTE 6195, SERVICIO DE BIENESTAR</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -17610,7 +17610,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T14:06:00</t>
         </is>
       </c>
       <c r="E616" s="2" t="n">
@@ -17618,19 +17618,19 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-304-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2371-51-L122</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>3935-44-LE22</t>
+          <t>2409-304-L122</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE ELECTROBOMBAS DE ASPIRACIÓN PARA POZOS DE AGUA Y ESTANQUES ALMACENADORES DE AGUA POTABLE 2022</t>
+          <t>ADQ. DE TELEVISOR PARA ESC. D-870</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -17646,19 +17646,19 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-304-L122</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>3928-19-L122</t>
+          <t>3537-73-L122</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>CONTRATACION PLATAFORMA DIGITAL PARA COLEGIO DIVIN</t>
+          <t>Adquisición de señaléticas  para el Campamento Puelo X</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -17674,19 +17674,19 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-19-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3537-73-L122</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>1191688-55-LE22</t>
+          <t>3935-44-LE22</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Programa Águila Sur</t>
+          <t>ADQUISICIÓN DE ELECTROBOMBAS DE ASPIRACIÓN PARA POZOS DE AGUA Y ESTANQUES ALMACENADORES DE AGUA POTABLE 2022</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -17702,19 +17702,19 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-55-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>2582-32-LP22</t>
+          <t>3928-19-L122</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN EQUIPAMIENTO ESCUELA REP. PANAMÁ</t>
+          <t>CONTRATACION PLATAFORMA DIGITAL PARA COLEGIO DIVIN</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -17730,19 +17730,19 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2582-32-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-19-L122</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>1409-7-LE22</t>
+          <t>1191688-55-LE22</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Adquisición de Rack para trajes de combate</t>
+          <t>Programa Águila Sur</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -17758,19 +17758,19 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1409-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-55-LE22</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>1079576-29-LE22</t>
+          <t>2582-32-LP22</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2DO. LLAMADO A LA CONTRATACIÓN DEL SUMINISTRO DE REPUESTOS PARA MOTOS POLICIALES MARCA HONDA Y BMW DE LA VIIIª ZONA DE CARABINEROS BÍO BÍO</t>
+          <t>ADQUISICIÓN EQUIPAMIENTO ESCUELA REP. PANAMÁ</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -17786,19 +17786,19 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079576-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2582-32-LP22</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>619133-87-LE22</t>
+          <t>1409-7-LE22</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO ADQUISICION DE EXPANSOR Y PROTESIS MAMARIA PARA HOSPITAL SAN CAMILO</t>
+          <t>Adquisición de Rack para trajes de combate</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -17814,19 +17814,19 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=619133-87-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1409-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>4295-17-LE22</t>
+          <t>1079576-29-LE22</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘’ Adquisición de 20.0000 formularios de Licencia de conducir’’ </t>
+          <t>2DO. LLAMADO A LA CONTRATACIÓN DEL SUMINISTRO DE REPUESTOS PARA MOTOS POLICIALES MARCA HONDA Y BMW DE LA VIIIª ZONA DE CARABINEROS BÍO BÍO</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -17842,19 +17842,19 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4295-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079576-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>2137-20-L122</t>
+          <t>619133-87-LE22</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>LICITACIÓN FONOAUDIOLOGO</t>
+          <t>CONVENIO SUMINISTRO ADQUISICION DE EXPANSOR Y PROTESIS MAMARIA PARA HOSPITAL SAN CAMILO</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>2022-05-27T13:46:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E625" s="2" t="n">
@@ -17870,19 +17870,19 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2137-20-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=619133-87-LE22</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>2671-4-LR22</t>
+          <t>4295-17-LE22</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>CONCESIÓN PARA LA MANTENCIÓN DE LAS  AREAS VERDES DE LA COMUNA DE CONCEPCIÓN 2022 - 2024</t>
+          <t xml:space="preserve">‘’ Adquisición de 20.0000 formularios de Licencia de conducir’’ </t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>2022-05-27T13:30:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E626" s="2" t="n">
@@ -17898,19 +17898,19 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2671-4-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4295-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>3588-16-LE22</t>
+          <t>2137-20-L122</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO BAÑOS PUBLICOS ESTADIO MUNICIPAL</t>
+          <t>LICITACIÓN FONOAUDIOLOGO</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>2022-05-27T13:30:00</t>
+          <t>2022-05-27T13:46:00</t>
         </is>
       </c>
       <c r="E627" s="2" t="n">
@@ -17926,19 +17926,19 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3588-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2137-20-L122</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>2452-107-L122</t>
+          <t>2671-4-LR22</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>10152 Materiales de aseo para vehículos Red de Salud</t>
+          <t>CONCESIÓN PARA LA MANTENCIÓN DE LAS  AREAS VERDES DE LA COMUNA DE CONCEPCIÓN 2022 - 2024</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>2022-05-27T13:25:00</t>
+          <t>2022-05-27T13:30:00</t>
         </is>
       </c>
       <c r="E628" s="2" t="n">
@@ -17954,19 +17954,19 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2452-107-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2671-4-LR22</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>4832-6-LE22</t>
+          <t>3588-16-LE22</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>IMPRESORAS</t>
+          <t>MEJORAMIENTO BAÑOS PUBLICOS ESTADIO MUNICIPAL</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>2022-05-27T13:22:00</t>
+          <t>2022-05-27T13:30:00</t>
         </is>
       </c>
       <c r="E629" s="2" t="n">
@@ -17982,19 +17982,19 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4832-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3588-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>1736-159-LE22</t>
+          <t>2452-107-L122</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Materiales de Construcción para el Programa Habitabilidad Convocatoria 2020.</t>
+          <t>10152 Materiales de aseo para vehículos Red de Salud</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -18002,7 +18002,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>2022-05-27T13:22:00</t>
+          <t>2022-05-27T13:25:00</t>
         </is>
       </c>
       <c r="E630" s="2" t="n">
@@ -18010,19 +18010,19 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-159-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2452-107-L122</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>3935-45-LE22</t>
+          <t>4832-6-LE22</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE PROYECTORES LED PARA ESTADIO MUNICIPAL DE FREIRE</t>
+          <t>IMPRESORAS</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -18038,19 +18038,19 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4832-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>2332-70-L122</t>
+          <t>1736-159-LE22</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>SERVICIO DISEÑO Y REPOSICION ELECTRICA CESFAM ANGELMO Y C.CARVAJAL DESAM PTO MONTT</t>
+          <t>Materiales de Construcción para el Programa Habitabilidad Convocatoria 2020.</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>2022-05-27T13:16:00</t>
+          <t>2022-05-27T13:22:00</t>
         </is>
       </c>
       <c r="E632" s="2" t="n">
@@ -18066,19 +18066,19 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2332-70-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-159-LE22</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>4555-9-L122</t>
+          <t>3935-45-LE22</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>FORMULARIOS IMPRESOS PARA SALUD</t>
+          <t>ADQUISICIÓN DE PROYECTORES LED PARA ESTADIO MUNICIPAL DE FREIRE</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2022-05-27T13:10:00</t>
+          <t>2022-05-27T13:22:00</t>
         </is>
       </c>
       <c r="E633" s="2" t="n">
@@ -18094,19 +18094,19 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4555-9-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>1191688-56-LE22</t>
+          <t>2332-70-L122</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Programa de veredas menos de 30 m2 Stgo. Rebolledo</t>
+          <t>SERVICIO DISEÑO Y REPOSICION ELECTRICA CESFAM ANGELMO Y C.CARVAJAL DESAM PTO MONTT</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -18114,7 +18114,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T13:16:00</t>
         </is>
       </c>
       <c r="E634" s="2" t="n">
@@ -18122,19 +18122,19 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-56-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2332-70-L122</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>1493-45-LE22</t>
+          <t>4555-9-L122</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>MEJORAMIENTOS INSTALACIONES ELECTRICAS Y REPARACIONES EN VIVIENDAS PROGRAMA DE HABITABILIDAD 2021-2022 DE LA COMUNA DE SAN NICOLÁS</t>
+          <t>FORMULARIOS IMPRESOS PARA SALUD</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T13:10:00</t>
         </is>
       </c>
       <c r="E635" s="2" t="n">
@@ -18150,19 +18150,19 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1493-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4555-9-L122</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>1487-2-LE22</t>
+          <t>1563-3-L122</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Serv. Sanitización Desratización - Ad Carriel Sur</t>
+          <t>Mantención Cortinas Metálicas sucursales Fonasa, DZCS</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -18178,19 +18178,19 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1487-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1563-3-L122</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>1563-3-L122</t>
+          <t>3597-23-L122</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Mantención Cortinas Metálicas sucursales Fonasa, DZCS</t>
+          <t>ADQUISICION DE LICENCIA PARA CORTAFUEGOS SONICWALL NSA 2600, 1 AÑO</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -18206,19 +18206,19 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1563-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3597-23-L122</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>3597-23-L122</t>
+          <t>1191688-56-LE22</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>ADQUISICION DE LICENCIA PARA CORTAFUEGOS SONICWALL NSA 2600, 1 AÑO</t>
+          <t>Programa de veredas menos de 30 m2 Stgo. Rebolledo</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -18234,19 +18234,19 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3597-23-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-56-LE22</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>1191688-53-LE22</t>
+          <t>1493-45-LE22</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Programa de Veredas</t>
+          <t>MEJORAMIENTOS INSTALACIONES ELECTRICAS Y REPARACIONES EN VIVIENDAS PROGRAMA DE HABITABILIDAD 2021-2022 DE LA COMUNA DE SAN NICOLÁS</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -18262,19 +18262,19 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-53-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1493-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>3333-27-LQ22</t>
+          <t>1487-2-LE22</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>TRANSMISIÓN Y PRODUCCIÓN FESTIVAL DEL HUASO</t>
+          <t>Serv. Sanitización Desratización - Ad Carriel Sur</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -18290,19 +18290,19 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3333-27-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1487-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>2409-295-L122</t>
+          <t>1191688-53-LE22</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>ADQ. PROGRAMA DE FORMACION Y ACOMPAÑAMIENTO PARA ESC. D-926</t>
+          <t>Programa de Veredas</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>2022-05-27T12:52:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E641" s="2" t="n">
@@ -18318,19 +18318,19 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-295-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-53-LE22</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>3693-99-LE22</t>
+          <t>3333-27-LQ22</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE VESTUARIO Y CALZADO OPERACIONES</t>
+          <t>TRANSMISIÓN Y PRODUCCIÓN FESTIVAL DEL HUASO</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>2022-05-27T12:30:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E642" s="2" t="n">
@@ -18346,19 +18346,19 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-99-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3333-27-LQ22</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>613419-25-LE22</t>
+          <t>2409-295-L122</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE 72 M3 DE MEZCLA DE HORMIGÓN PARA INSTALACIÓN DE RADIER DE GALPONES DESMONTABLES PROGRAMA FNDR RECICLAJE REGIÓN DEL BIOBÍO 2022</t>
+          <t>ADQ. PROGRAMA DE FORMACION Y ACOMPAÑAMIENTO PARA ESC. D-926</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>2022-05-27T12:30:00</t>
+          <t>2022-05-27T12:52:00</t>
         </is>
       </c>
       <c r="E643" s="2" t="n">
@@ -18374,19 +18374,19 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=613419-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-295-L122</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>2311-80-L122</t>
+          <t>3693-99-LE22</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>PROTECCIONES PARA VENTANAS POSTA DE SALUD</t>
+          <t>ADQUISICIÓN DE VESTUARIO Y CALZADO OPERACIONES</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>2022-05-27T12:23:00</t>
+          <t>2022-05-27T12:30:00</t>
         </is>
       </c>
       <c r="E644" s="2" t="n">
@@ -18402,19 +18402,19 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-80-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-99-LE22</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>2793-125-LE22</t>
+          <t>613419-25-LE22</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Adquisición de Camioneta para la Municipalidad</t>
+          <t>ADQUISICIÓN DE 72 M3 DE MEZCLA DE HORMIGÓN PARA INSTALACIÓN DE RADIER DE GALPONES DESMONTABLES PROGRAMA FNDR RECICLAJE REGIÓN DEL BIOBÍO 2022</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -18422,7 +18422,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>2022-05-27T12:16:00</t>
+          <t>2022-05-27T12:30:00</t>
         </is>
       </c>
       <c r="E645" s="2" t="n">
@@ -18430,19 +18430,19 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2793-125-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=613419-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>2215-20-LE22</t>
+          <t>2311-80-L122</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>SUMINISTRO INSUMOS PROCEDIMIENTOS BRONCOPULMONAR</t>
+          <t>PROTECCIONES PARA VENTANAS POSTA DE SALUD</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>2022-05-27T12:16:00</t>
+          <t>2022-05-27T12:23:00</t>
         </is>
       </c>
       <c r="E646" s="2" t="n">
@@ -18458,19 +18458,19 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2215-20-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-80-L122</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>2129-10-LE22</t>
+          <t>2793-125-LE22</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESTUDIO DE PRE-INVERSIÓN CESFAM ÑIPAS. </t>
+          <t>Adquisición de Camioneta para la Municipalidad</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>2022-05-27T12:14:00</t>
+          <t>2022-05-27T12:16:00</t>
         </is>
       </c>
       <c r="E647" s="2" t="n">
@@ -18486,19 +18486,19 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2129-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2793-125-LE22</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>2381-29-LE22</t>
+          <t>2215-20-LE22</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE FÁRMACOS DIRECCIÓN DE SALUD MUNICIP</t>
+          <t>SUMINISTRO INSUMOS PROCEDIMIENTOS BRONCOPULMONAR</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -18506,7 +18506,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>2022-05-27T12:13:00</t>
+          <t>2022-05-27T12:16:00</t>
         </is>
       </c>
       <c r="E648" s="2" t="n">
@@ -18514,19 +18514,19 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2381-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2215-20-LE22</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>3710-129-L122</t>
+          <t>2129-10-LE22</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>INSUMOS MÉDICOS PARA EL SAR</t>
+          <t xml:space="preserve">ESTUDIO DE PRE-INVERSIÓN CESFAM ÑIPAS. </t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>2022-05-27T12:13:00</t>
+          <t>2022-05-27T12:14:00</t>
         </is>
       </c>
       <c r="E649" s="2" t="n">
@@ -18542,19 +18542,19 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3710-129-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2129-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>3449-6-LE22</t>
+          <t>2381-29-LE22</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>CONVENIO DE SUMINISTRO DE ALIMENTOS COBQUECURA</t>
+          <t>ADQUISICIÓN DE FÁRMACOS DIRECCIÓN DE SALUD MUNICIP</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -18562,7 +18562,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>2022-05-27T12:04:00</t>
+          <t>2022-05-27T12:13:00</t>
         </is>
       </c>
       <c r="E650" s="2" t="n">
@@ -18570,19 +18570,19 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3449-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2381-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>2405-80-LE22</t>
+          <t>3710-129-L122</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>SERV. RETIRO TRASLADO Y DISPOSICION CONTENEDORES</t>
+          <t>INSUMOS MÉDICOS PARA EL SAR</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -18590,7 +18590,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:13:00</t>
         </is>
       </c>
       <c r="E651" s="2" t="n">
@@ -18598,19 +18598,19 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-80-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3710-129-L122</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>602-39-LE22</t>
+          <t>3449-6-LE22</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Servicio Exclusivo Transporte Escolar Rural Chahuilco - Salca 2022</t>
+          <t>CONVENIO DE SUMINISTRO DE ALIMENTOS COBQUECURA</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -18618,7 +18618,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:04:00</t>
         </is>
       </c>
       <c r="E652" s="2" t="n">
@@ -18626,19 +18626,19 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=602-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3449-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>4159-10-LE22</t>
+          <t>2405-80-LE22</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>SERVICIO DE IMPRESION Y FOTOCOPIADO DAEM PARRAL</t>
+          <t>SERV. RETIRO TRASLADO Y DISPOSICION CONTENEDORES</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -18654,19 +18654,19 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4159-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-80-LE22</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>575061-59-LE22</t>
+          <t>602-39-LE22</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>UPS PARA RESPALDO EQUIPOS LACRIM CENTRAL</t>
+          <t>Servicio Exclusivo Transporte Escolar Rural Chahuilco - Salca 2022</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -18682,19 +18682,19 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=575061-59-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=602-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>2309-59-LQ22</t>
+          <t>4159-10-LE22</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Conservación jardín infantil y sala cuna Trencito de mis tesoros 2° llamado</t>
+          <t>SERVICIO DE IMPRESION Y FOTOCOPIADO DAEM PARRAL</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -18710,19 +18710,19 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2309-59-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4159-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>2319-25-LE22</t>
+          <t>575061-59-LE22</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Reparación eléctrica e Instalacion alumbrado</t>
+          <t>UPS PARA RESPALDO EQUIPOS LACRIM CENTRAL</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -18738,19 +18738,19 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=575061-59-LE22</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>539119-23-LE22</t>
+          <t>2319-24-LE22</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TASACIONES INMOBILIARIA ZONA NORTE CENTRO SUR Y AUSTRAL DE CHILE.</t>
+          <t>Mejopramiento Vial Apertura Calle El Canelo</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -18766,19 +18766,19 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=539119-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-24-LE22</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>2319-24-LE22</t>
+          <t>2309-59-LQ22</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Mejopramiento Vial Apertura Calle El Canelo</t>
+          <t>Conservación jardín infantil y sala cuna Trencito de mis tesoros 2° llamado</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -18794,19 +18794,19 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-24-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2309-59-LQ22</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>3693-98-LE22</t>
+          <t>2319-25-LE22</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>VESTUARIO Y CALZADO DIMAO 2022</t>
+          <t>Reparación eléctrica e Instalacion alumbrado</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -18822,19 +18822,19 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-98-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>923000-19-CO22</t>
+          <t>4085-18-LE22</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>BANCO DE PRUEBAS MECANICO</t>
+          <t>Suministro Banquetería Coctelería y otros</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -18850,19 +18850,19 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-19-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>4085-18-LE22</t>
+          <t>539119-23-LE22</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Suministro Banquetería Coctelería y otros</t>
+          <t>SUMINISTRO DE TASACIONES INMOBILIARIA ZONA NORTE CENTRO SUR Y AUSTRAL DE CHILE.</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -18878,19 +18878,19 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=539119-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>1057498-23-LE22</t>
+          <t>3693-98-LE22</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>MATERIALES PARA GASFITERÍA</t>
+          <t>VESTUARIO Y CALZADO DIMAO 2022</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -18906,19 +18906,19 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057498-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-98-LE22</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>614-2-LE22</t>
+          <t>923000-19-CO22</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO EDIFICIO SEREMI MINVU I REGION</t>
+          <t>BANCO DE PRUEBAS MECANICO</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -18934,19 +18934,19 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=614-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-19-CO22</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>3311-6-LE22</t>
+          <t>1057498-23-LE22</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADQUISICION MATERIALES DE OFICINA PDI REPOL MAULE </t>
+          <t>MATERIALES PARA GASFITERÍA</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -18962,19 +18962,19 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3311-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057498-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>712307-34-O122</t>
+          <t>614-2-LE22</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Pavimentos Participativos 31 Proceso - Grupo 3</t>
+          <t>MEJORAMIENTO EDIFICIO SEREMI MINVU I REGION</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -18990,19 +18990,19 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=712307-34-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=614-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>894863-15-LP22</t>
+          <t>3311-6-LE22</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>ASESORIA INSPECCION TECNICA OBRA CERRO GRANDE</t>
+          <t xml:space="preserve">ADQUISICION MATERIALES DE OFICINA PDI REPOL MAULE </t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -19018,19 +19018,19 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=894863-15-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3311-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>3138-22-LE22</t>
+          <t>712307-34-O122</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>COMPRESOR DE AIRE DE BAJA PRESIÓN</t>
+          <t>Pavimentos Participativos 31 Proceso - Grupo 3</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -19046,19 +19046,19 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3138-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=712307-34-O122</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>975-35-O122</t>
+          <t>894863-15-LP22</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIF PERF Y HAB DE POZOS SOMEROS SECTOR MINCHA </t>
+          <t>ASESORIA INSPECCION TECNICA OBRA CERRO GRANDE</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -19074,19 +19074,19 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-35-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=894863-15-LP22</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>5315-9-LR22</t>
+          <t>3138-22-LE22</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>CONSTRUCCION CASETAS SANITARIAS LOCALIDAD DE RAFAEL COMUNA DE TOMÉ</t>
+          <t>COMPRESOR DE AIRE DE BAJA PRESIÓN</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -19102,19 +19102,19 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5315-9-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3138-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>1063487-10-LP22</t>
+          <t>975-35-O122</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERVICIO BULLDOZER CONSERVACION RIO LONQUEN </t>
+          <t xml:space="preserve">AIF PERF Y HAB DE POZOS SOMEROS SECTOR MINCHA </t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -19130,19 +19130,19 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1063487-10-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-35-O122</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>2430-23-LR22</t>
+          <t>5315-9-LR22</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>PLAN DE DESARROLLO COMUNAL DE ANTOFAGASTA 2023-2029</t>
+          <t>CONSTRUCCION CASETAS SANITARIAS LOCALIDAD DE RAFAEL COMUNA DE TOMÉ</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -19158,19 +19158,19 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2430-23-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5315-9-LR22</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>2348-17-LE22</t>
+          <t>1063487-10-LP22</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN INSUMOS DE ASEO PARA STOCK BODEGA.</t>
+          <t xml:space="preserve">SERVICIO BULLDOZER CONSERVACION RIO LONQUEN </t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -19186,19 +19186,19 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2348-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1063487-10-LP22</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>5463-12-LQ22</t>
+          <t>2430-23-LR22</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>SUMINISTRO MANTENCION DE VEHICULOS</t>
+          <t>PLAN DE DESARROLLO COMUNAL DE ANTOFAGASTA 2023-2029</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -19214,19 +19214,19 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-12-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2430-23-LR22</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>5463-9-LP22</t>
+          <t>2348-17-LE22</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>SERVICIO DE MANTENCIÓN PREVENTIVA CORRECTIVA</t>
+          <t>ADQUISICIÓN INSUMOS DE ASEO PARA STOCK BODEGA.</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -19242,19 +19242,19 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-9-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2348-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>4113-48-L122</t>
+          <t>5463-12-LQ22</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>PRODUCCION ARTISTICA FIESTA DE LA MOSQUETA 2022</t>
+          <t>SUMINISTRO MANTENCION DE VEHICULOS</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -19262,7 +19262,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>2022-05-27T11:30:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E675" s="2" t="n">
@@ -19270,19 +19270,19 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4113-48-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-12-LQ22</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>4086-35-LE22</t>
+          <t>5463-9-LP22</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN EQUIPOS DE AUDIO</t>
+          <t>SERVICIO DE MANTENCIÓN PREVENTIVA CORRECTIVA</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -19290,7 +19290,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>2022-05-27T11:15:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E676" s="2" t="n">
@@ -19298,19 +19298,19 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4086-35-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-9-LP22</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>3017-104-L122</t>
+          <t>4086-35-LE22</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>SERVICIO DE FUMIGACION Y DESRATICACION  ADM MUNICIPAL.</t>
+          <t>ADQUISICIÓN EQUIPOS DE AUDIO</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>2022-05-27T11:10:00</t>
+          <t>2022-05-27T11:15:00</t>
         </is>
       </c>
       <c r="E677" s="2" t="n">
@@ -19326,19 +19326,19 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3017-104-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4086-35-LE22</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>729-236-LE22</t>
+          <t>3017-104-L122</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>COFRE FUSIBLE ALSTOM G1317 7-11317 ECU</t>
+          <t>SERVICIO DE FUMIGACION Y DESRATICACION  ADM MUNICIPAL.</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>2022-05-27T11:09:00</t>
+          <t>2022-05-27T11:10:00</t>
         </is>
       </c>
       <c r="E678" s="2" t="n">
@@ -19354,19 +19354,19 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-236-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3017-104-L122</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>2360-37-L122</t>
+          <t>729-236-LE22</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE INSUMOS GENERALES PARA LABORATORIO</t>
+          <t>COFRE FUSIBLE ALSTOM G1317 7-11317 ECU</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T11:09:00</t>
         </is>
       </c>
       <c r="E679" s="2" t="n">
@@ -19382,19 +19382,19 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-37-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-236-LE22</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>835727-26-L122</t>
+          <t>2360-37-L122</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SERVICIO DE PRODUCCION DE EVENTOS PRESENTACIÓN ARTISTICA AMPLIFICACION DE SONIDO Y ESCENARIO</t>
+          <t>ADQUISICIÓN DE INSUMOS GENERALES PARA LABORATORIO</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -19410,19 +19410,19 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=835727-26-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-37-L122</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>1369-8-O122</t>
+          <t>835727-26-L122</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>CCB B-155, KM 19 al 32,5 Tercer Llamado</t>
+          <t>SERVICIO DE PRODUCCION DE EVENTOS PRESENTACIÓN ARTISTICA AMPLIFICACION DE SONIDO Y ESCENARIO</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -19438,19 +19438,19 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-8-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=835727-26-L122</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>1152-10-O122</t>
+          <t>1369-8-O122</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>CONSERVACIÓN PALACIO DE LA MONEDA 2022</t>
+          <t>CCB B-155, KM 19 al 32,5 Tercer Llamado</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -19466,19 +19466,19 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1152-10-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-8-O122</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>975-34-O122</t>
+          <t>1152-10-O122</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>AIF PERF POZOS SOMEROS SECTOR TUNGA. 2DO LLAMADO</t>
+          <t>CONSERVACIÓN PALACIO DE LA MONEDA 2022</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -19494,19 +19494,19 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-34-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1152-10-O122</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>4469-30-L122</t>
+          <t>975-34-O122</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>SC 30323-30324 (CPV) TABLETS GALAXI TAB S6 LITE BOOK COVER 10,4" O SIMILAR  ESCUELA POST GRADO</t>
+          <t>AIF PERF POZOS SOMEROS SECTOR TUNGA. 2DO LLAMADO</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -19522,19 +19522,19 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-30-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-34-O122</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>975-1-O122</t>
+          <t>4469-30-L122</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Plan Maestro de Evacuación Buin y Paine</t>
+          <t>SC 30323-30324 (CPV) TABLETS GALAXI TAB S6 LITE BOOK COVER 10,4" O SIMILAR  ESCUELA POST GRADO</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -19542,7 +19542,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>2022-05-27T10:55:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E685" s="2" t="n">
@@ -19550,19 +19550,19 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-1-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-30-L122</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>1741-44-L122</t>
+          <t>975-1-O122</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>PAÑALES ADULTO - SOCIAL 78</t>
+          <t>Plan Maestro de Evacuación Buin y Paine</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>2022-05-27T10:18:00</t>
+          <t>2022-05-27T10:55:00</t>
         </is>
       </c>
       <c r="E686" s="2" t="n">
@@ -19578,19 +19578,19 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1741-44-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-1-O122</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>2992-93-LE22</t>
+          <t>1741-44-L122</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Estanque para almacenar agua</t>
+          <t>PAÑALES ADULTO - SOCIAL 78</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>2022-05-27T10:08:00</t>
+          <t>2022-05-27T10:18:00</t>
         </is>
       </c>
       <c r="E687" s="2" t="n">
@@ -19606,19 +19606,19 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2992-93-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1741-44-L122</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>4062-7-LE22</t>
+          <t>2992-93-LE22</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>SERVICIO DE VULCANIZACION PARA EL AÑO 2022</t>
+          <t>Estanque para almacenar agua</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>2022-05-27T10:06:00</t>
+          <t>2022-05-27T10:08:00</t>
         </is>
       </c>
       <c r="E688" s="2" t="n">
@@ -19634,19 +19634,19 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4062-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2992-93-LE22</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>3241-23-LE22</t>
+          <t>4062-7-LE22</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MATERIALES PARA JARDIN INFANTIL Y SALA CUNA</t>
+          <t>SERVICIO DE VULCANIZACION PARA EL AÑO 2022</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -19654,7 +19654,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>2022-05-27T10:02:00</t>
+          <t>2022-05-27T10:06:00</t>
         </is>
       </c>
       <c r="E689" s="2" t="n">
@@ -19662,19 +19662,19 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3241-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4062-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>4329-12-CO22</t>
+          <t>3241-23-LE22</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>CONVENIO PARA LAS MANTENCIONES Y REPARACIONES</t>
+          <t>ADQUISICIÓN DE MATERIALES PARA JARDIN INFANTIL Y SALA CUNA</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>2022-05-27T10:01:00</t>
+          <t>2022-05-27T10:02:00</t>
         </is>
       </c>
       <c r="E690" s="2" t="n">
@@ -19690,19 +19690,19 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4329-12-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3241-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>2687-10-LE22</t>
+          <t>4329-12-CO22</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DEPORTIVA PARA EL COLEGIO C.A.A.</t>
+          <t>CONVENIO PARA LAS MANTENCIONES Y REPARACIONES</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -19718,19 +19718,19 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2687-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4329-12-CO22</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>1013609-16-LE22</t>
+          <t>2687-10-LE22</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>adq serv mant de casino de playa SOFLES</t>
+          <t>IMPLEMENTACIÓN DEPORTIVA PARA EL COLEGIO C.A.A.</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -19746,19 +19746,19 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1013609-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2687-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>2920-44-LE22</t>
+          <t>1013609-16-LE22</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Adquisición Computadores Daf</t>
+          <t>adq serv mant de casino de playa SOFLES</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T10:01:00</t>
         </is>
       </c>
       <c r="E693" s="2" t="n">
@@ -19774,19 +19774,19 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2920-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1013609-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>3757-4-LE22</t>
+          <t>2920-44-LE22</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>ADQUISICION MAQUINAS COMPACTADORAS ENFARDADORAS</t>
+          <t>Adquisición Computadores Daf</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -19802,19 +19802,19 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3757-4-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2920-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>2360-36-L122</t>
+          <t>3757-4-LE22</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE BASUREROS PARA RESIDUOS ESPECIALES.</t>
+          <t>ADQUISICION MAQUINAS COMPACTADORAS ENFARDADORAS</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -19830,19 +19830,19 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-36-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3757-4-LE22</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>4324-23-LE22</t>
+          <t>2360-36-L122</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servicio de Mantención Preventivo de Equipos Críticos Del Cesfam Perquenco </t>
+          <t>ADQUISICIÓN DE BASUREROS PARA RESIDUOS ESPECIALES.</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -19858,19 +19858,19 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4324-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-36-L122</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>3459-28-LE22</t>
+          <t>4324-23-LE22</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO Y REPARACIÓN MAQUINARIA RANCHO TROPA</t>
+          <t xml:space="preserve">Servicio de Mantención Preventivo de Equipos Críticos Del Cesfam Perquenco </t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -19886,19 +19886,19 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3459-28-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4324-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>2703-135-L122</t>
+          <t>923000-18-LE22</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>SC 8387 Uso dental. CESFAM</t>
+          <t>EQUIPAMIENTO MECANICA</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -19914,19 +19914,19 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-135-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>2703-136-L122</t>
+          <t>3459-28-LE22</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>SC 8388 Uso dental. CESFAM</t>
+          <t>MANTENIMIENTO Y REPARACIÓN MAQUINARIA RANCHO TROPA</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -19942,19 +19942,19 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-136-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3459-28-LE22</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>2703-137-L122</t>
+          <t>2703-135-L122</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>SC 8389 Indicador biológico CESFAM</t>
+          <t>SC 8387 Uso dental. CESFAM</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -19970,19 +19970,19 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-137-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-135-L122</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>923000-18-LE22</t>
+          <t>2703-136-L122</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>EQUIPAMIENTO MECANICA</t>
+          <t>SC 8388 Uso dental. CESFAM</t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -19998,19 +19998,19 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-136-L122</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>2703-139-L122</t>
+          <t>2703-137-L122</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>SC 8075 Pechera Polietileno. CESFAM</t>
+          <t>SC 8389 Indicador biológico CESFAM</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -20026,19 +20026,19 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-139-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-137-L122</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>2664-18-LE22</t>
+          <t>2703-139-L122</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>MEDICAMENTOS DROGUERIA</t>
+          <t>SC 8075 Pechera Polietileno. CESFAM</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -20054,19 +20054,19 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2664-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-139-L122</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>2409-307-L122</t>
+          <t>2664-18-LE22</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN LIBROS DE LECTURA ESCUELA RINCONADA DEL SALTO</t>
+          <t>MEDICAMENTOS DROGUERIA</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -20082,19 +20082,19 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-307-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2664-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>757818-3-L122</t>
+          <t>2409-307-L122</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>ADQUISICION MATERIALES DE CONSTRUCCION AYUDA SOCIA</t>
+          <t>ADQUISICIÓN LIBROS DE LECTURA ESCUELA RINCONADA DEL SALTO</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=757818-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-307-L122</t>
         </is>
       </c>
     </row>
@@ -20145,12 +20145,12 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>2282-19-LQ22</t>
+          <t>757818-3-L122</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>P.P 21-2022 CONTRATACIÓN SERVICIO DE BACHEO</t>
+          <t>ADQUISICION MATERIALES DE CONSTRUCCION AYUDA SOCIA</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -20166,19 +20166,19 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2282-19-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=757818-3-L122</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>1369-9-O122</t>
+          <t>2282-19-LQ22</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>CRV Ruta 27-CH. KM 90 al 96, Tercer Llamado</t>
+          <t>P.P 21-2022 CONTRATACIÓN SERVICIO DE BACHEO</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -20194,19 +20194,19 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-9-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2282-19-LQ22</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>653-21-O122</t>
+          <t>1369-9-O122</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Cons. veredas desconfinamiento post covid Curepto</t>
+          <t>CRV Ruta 27-CH. KM 90 al 96, Tercer Llamado</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -20222,19 +20222,19 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=653-21-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-9-O122</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>2216-5-O122</t>
+          <t>653-21-O122</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIFE Américo Vespucio Oriente, Tramo Av. El Salto </t>
+          <t>Cons. veredas desconfinamiento post covid Curepto</t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -20250,19 +20250,19 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=653-21-O122</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>1048-35-H222</t>
+          <t>2216-5-O122</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR COMUNA EL TABO</t>
+          <t xml:space="preserve">AIFE Américo Vespucio Oriente, Tramo Av. El Salto </t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -20278,19 +20278,19 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1048-35-H222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-5-O122</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>2342-43-LR22</t>
+          <t>1048-35-H222</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN Y MANTENCIÓN SERVICIOS DE TELEFONÍA IP PARA LA ILUSTRE MUNICIPALIDAD DE SAN BERNARDO</t>
+          <t>ACTUALIZACION PLAN REGULADOR COMUNA EL TABO</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>2022-05-27T09:45:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E712" s="2" t="n">
@@ -20306,19 +20306,19 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2342-43-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1048-35-H222</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>3929-22-LE22</t>
+          <t>2342-43-LR22</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>BARRIOS COMERCIALES PROTEGIDOS ILUMINACIÓN SEGURA AÑO 2021” CÓDIGO BCP21-IL-0002</t>
+          <t>IMPLEMENTACIÓN Y MANTENCIÓN SERVICIOS DE TELEFONÍA IP PARA LA ILUSTRE MUNICIPALIDAD DE SAN BERNARDO</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -20326,7 +20326,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>2022-05-27T09:30:00</t>
+          <t>2022-05-27T09:45:00</t>
         </is>
       </c>
       <c r="E713" s="2" t="n">
@@ -20334,19 +20334,19 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3929-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2342-43-LR22</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>3505-18-LE22</t>
+          <t>3929-22-LE22</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Arriendo gabinete Psicotécnico para la Municipalidad de Pencahue</t>
+          <t>BARRIOS COMERCIALES PROTEGIDOS ILUMINACIÓN SEGURA AÑO 2021” CÓDIGO BCP21-IL-0002</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -20362,19 +20362,19 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3505-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3929-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>1464-50-LE22</t>
+          <t>3505-18-LE22</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>CAPACITACIONES PAC 2022  HOSPITAL PARRAL</t>
+          <t>Arriendo gabinete Psicotécnico para la Municipalidad de Pencahue</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -20390,19 +20390,19 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1464-50-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3505-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>4351-30-LE22</t>
+          <t>1464-50-LE22</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Materiales cierre perimetral Estadio Municipal</t>
+          <t>CAPACITACIONES PAC 2022  HOSPITAL PARRAL</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>2022-05-27T09:01:00</t>
+          <t>2022-05-27T09:30:00</t>
         </is>
       </c>
       <c r="E716" s="2" t="n">
@@ -20418,19 +20418,19 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4351-30-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1464-50-LE22</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>2408-148-LE22</t>
+          <t>4351-30-LE22</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN Y EQUIPOS PARA PROGRAMA VIVIENDAS CON APOYO 2022</t>
+          <t>Materiales cierre perimetral Estadio Municipal</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T09:01:00</t>
         </is>
       </c>
       <c r="E717" s="2" t="n">
@@ -20446,19 +20446,19 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2408-148-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4351-30-LE22</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>704093-54-O122</t>
+          <t>2408-148-LE22</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>LP 56-2022 INF. SANITARIA, VARIAS COMUNAS</t>
+          <t>IMPLEMENTACIÓN Y EQUIPOS PARA PROGRAMA VIVIENDAS CON APOYO 2022</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -20474,19 +20474,19 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=704093-54-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2408-148-LE22</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>2409-228-LE22</t>
+          <t>704093-54-O122</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>SERVICIO DE INSTALACIÓN DE MAMPARA CON PROTECCIÓN Y RAMPA EN HORMIGÓN PARA SECTOR DE BIBLIOTECA A-61 COEDUCACIONAL</t>
+          <t>LP 56-2022 INF. SANITARIA, VARIAS COMUNAS</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -20502,19 +20502,19 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-228-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=704093-54-O122</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>1057509-136-LE22</t>
+          <t>2409-228-LE22</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>CONVENIO COMPRA DE SERVICIOS MÉDICOS PARA REALIZAR INTERVENCIONES QUIRÚRGICAS ESPECIALIDAD UROLOGÍA lbl</t>
+          <t>SERVICIO DE INSTALACIÓN DE MAMPARA CON PROTECCIÓN Y RAMPA EN HORMIGÓN PARA SECTOR DE BIBLIOTECA A-61 COEDUCACIONAL</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057509-136-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-228-LE22</t>
         </is>
       </c>
     </row>
@@ -20565,12 +20565,12 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>2405-77-LE22</t>
+          <t>1057509-136-LE22</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>CTTO DE SERVICIO DE PLAN DE MEDIOS RADIAL</t>
+          <t>CONVENIO COMPRA DE SERVICIOS MÉDICOS PARA REALIZAR INTERVENCIONES QUIRÚRGICAS ESPECIALIDAD UROLOGÍA lbl</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -20586,19 +20586,19 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-77-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057509-136-LE22</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>2261-12-O122</t>
+          <t>2405-77-LE22</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>AIF Terminación Ruta S-70 Pocoyan Pte. Peule</t>
+          <t>CTTO DE SERVICIO DE PLAN DE MEDIOS RADIAL</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -20614,19 +20614,19 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-12-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-77-LE22</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>2409-196-LE22</t>
+          <t>2261-12-O122</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>CONSERVACIÓN ÁREA DE PREBASICA ESCUELA F-887 ISLA DEL LAJA LOS ÁNGELES</t>
+          <t>AIF Terminación Ruta S-70 Pocoyan Pte. Peule</t>
         </is>
       </c>
       <c r="C724" t="n">
@@ -20642,19 +20642,19 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-196-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-12-O122</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>2261-6-O222</t>
+          <t>2409-196-LE22</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Repararción Pte. Pellahuen, comuna de Lumaco</t>
+          <t>CONSERVACIÓN ÁREA DE PREBASICA ESCUELA F-887 ISLA DEL LAJA LOS ÁNGELES</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -20670,19 +20670,19 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-6-O222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-196-LE22</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>1369-11-O122</t>
+          <t>2261-6-O222</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Termino Obras CCB Ruta B-70</t>
+          <t>Repararción Pte. Pellahuen, comuna de Lumaco</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -20698,19 +20698,19 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-11-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-6-O222</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>3845-3-LE22</t>
+          <t>1369-11-O122</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PUERTAS Y VENTANAS SALAS DE CLASES</t>
+          <t>Termino Obras CCB Ruta B-70</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -20726,19 +20726,19 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3845-3-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-11-O122</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>2409-110-LE22</t>
+          <t>3845-3-LE22</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>TEXTOS COMPRENSION LECTORA  ESCUELA D-934</t>
+          <t>MEJORAMIENTO PUERTAS Y VENTANAS SALAS DE CLASES</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -20754,19 +20754,19 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-110-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3845-3-LE22</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>727202-54-LE22</t>
+          <t>2409-110-LE22</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE LUBRICANTES Y OTROS SERVICIOS</t>
+          <t>TEXTOS COMPRENSION LECTORA  ESCUELA D-934</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-54-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-110-LE22</t>
         </is>
       </c>
     </row>
@@ -20901,12 +20901,12 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>2324-276-L122</t>
+          <t>727202-54-LE22</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMPLEMENTACION MOBILIARIO OFICINAS OPERATIVAS </t>
+          <t>SUMINISTRO DE LUBRICANTES Y OTROS SERVICIOS</t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -20922,19 +20922,19 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2324-276-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-54-LE22</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>1265-5-O122</t>
+          <t>2324-276-L122</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>ESBA MEJORAMIENTO CALETA LAS CONCHAS</t>
+          <t xml:space="preserve">IMPLEMENTACION MOBILIARIO OFICINAS OPERATIVAS </t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>2022-05-27T08:30:00</t>
+          <t>2022-05-27T09:00:00</t>
         </is>
       </c>
       <c r="E735" s="2" t="n">
@@ -20950,33 +20950,61 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1265-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2324-276-L122</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
+          <t>1265-5-O122</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>ESBA MEJORAMIENTO CALETA LAS CONCHAS</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>6</v>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>2022-05-27T08:30:00</t>
+        </is>
+      </c>
+      <c r="E736" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1265-5-O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
           <t>2261-10-O122</t>
         </is>
       </c>
-      <c r="B736" t="inlineStr">
+      <c r="B737" t="inlineStr">
         <is>
           <t>Cam.Maquehue Boroa Pte. Ragñintuleufu, 2do llamado</t>
         </is>
       </c>
-      <c r="C736" t="n">
-        <v>6</v>
-      </c>
-      <c r="D736" t="inlineStr">
+      <c r="C737" t="n">
+        <v>6</v>
+      </c>
+      <c r="D737" t="inlineStr">
         <is>
           <t>2022-05-27T08:00:00</t>
         </is>
       </c>
-      <c r="E736" s="2" t="n">
-        <v>44708</v>
-      </c>
-      <c r="F736" t="inlineStr">
+      <c r="E737" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F737" t="inlineStr">
         <is>
           <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-10-O122</t>
         </is>

--- a/licitaciones_cerradas_2019.xlsx
+++ b/licitaciones_cerradas_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F737"/>
+  <dimension ref="A1:F766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13117,12 +13117,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>3340-10-L122</t>
+          <t>1057417-65-LR22</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Adquisición de 02 (Dos) termos calentadores de agua a gas y eléctrico</t>
+          <t>Convenio Suministro Insumos para Medicina Transfusional con equipos en Comodato pcf</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>2022-05-27T16:45:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E456" s="2" t="n">
@@ -13138,19 +13138,19 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3340-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057417-65-LR22</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2311-81-L122</t>
+          <t>5762-1-LE22</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>COMPUTADORES DE ESCRITORIO</t>
+          <t>Servicio Bus de Acercamiento Campus San Felipe</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>2022-05-27T16:43:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E457" s="2" t="n">
@@ -13166,19 +13166,19 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-81-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5762-1-LE22</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2422-297-LE22</t>
+          <t>1057509-100-LP22</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>SOL. 936791 IMPRESORAS LASER Y MULTIFUNCIONAL</t>
+          <t>Convenio Suministro de Set Traumatológicos de Tibia Proximal Distal hcb</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>2022-05-27T16:39:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E458" s="2" t="n">
@@ -13194,19 +13194,19 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-297-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057509-100-LP22</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>3663-29-LE22</t>
+          <t>1176144-7-L122</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>MAMOGRAFIAS</t>
+          <t>FARMACOS, VACUNAS Y ANTIPARASITARIOS PARA PROGRAMA DE TENENCIA RESPONSABLE.</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>2022-05-27T16:35:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E459" s="2" t="n">
@@ -13222,19 +13222,19 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3663-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1176144-7-L122</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>3268-45-L122</t>
+          <t>1057417-104-LQ22</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t xml:space="preserve">002 001 01-2022 DPTO GUARNICIONAL COLCHONES 1 PLAZA </t>
+          <t>CONVENIO DE MANTENCION PREVENTIVA Y CORRECTIVA DE EQUIPOS ARCO C ECOGRAFOS Y RAYOS X PORTATIL 2°LLAMADO wus</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E460" s="2" t="n">
@@ -13250,19 +13250,19 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3268-45-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057417-104-LQ22</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>4237-20-LE22</t>
+          <t>4375-90-LE22</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ADQUISICION DE TIRAS DE FIERROS PARA EJECUCION DE</t>
+          <t>suministro e instalación de Sistema de Circuito Cerrado de Televisión en Sala Cuna Alondra HGGB</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E461" s="2" t="n">
@@ -13278,19 +13278,19 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4237-20-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4375-90-LE22</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>855-13-LE22</t>
+          <t>1057510-15-LR22</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CMEE-ARRIENDO Y MANTENCIÓN DE CAMIONETA JUNJI</t>
+          <t>CONVENIO ESTUDIO DE BIOPSIAS HOSPITAL DE SAN CARLOS DR. BENICIO ARZOLA MEDINA</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E462" s="2" t="n">
@@ -13306,19 +13306,19 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=855-13-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057510-15-LR22</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2409-310-L122</t>
+          <t>4463-11-LQ22</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ADQ. DE INSUMOS INFORMATICOS PARA ESC. D-870</t>
+          <t>Contrato de Suministro de Medicamentos Inyectables y Otros para el Hospital San Juan de Dios de Curicó</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E463" s="2" t="n">
@@ -13334,19 +13334,19 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-310-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4463-11-LQ22</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>1658-351-L122</t>
+          <t>1057472-45-LQ22</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>S50/2022/SERVICIO MANTENCION DE CALDERA A GAS DE EDIFICIO DIDECO.</t>
+          <t>Suministros de Insumos de Esterilización HEC</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E464" s="2" t="n">
@@ -13362,19 +13362,19 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-351-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057472-45-LQ22</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>1658-352-L122</t>
+          <t>4644-7-L122</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>S82/2022/OPERACIONES/ADQ. MATERIALES DE CONSTRUCCION PARA GALPON DEL DEPTO. REPARACION DE INMUEBLES Y MUEBLES MUNICIPALES DE OPERACIONES, DE ACUERDO A ESPECIFICACIONES TECNICAS ADJUNTAS.</t>
+          <t>MADERA DE COHIUE PARA PROYECTO AREA DE INTERVENCION MANEJO FORESTAL MAÑIHUALES</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -13382,7 +13382,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E465" s="2" t="n">
@@ -13390,19 +13390,19 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-352-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4644-7-L122</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>4469-32-L122</t>
+          <t>1057402-126-LE22</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>S..C.. N° 30430 Y 30431 (U.F.). IMPLEMENTACIÓN DE LABORATORIO E INSUMOS PARA ANÁLISIS BIODEGRADABILIDAD. CEAM.  UPLA.</t>
+          <t>EQUIPO APOYO HEMODINAMIA PARA EL HCM</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E466" s="2" t="n">
@@ -13418,19 +13418,19 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-32-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057402-126-LE22</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>4105-12-LE22</t>
+          <t>3134-59-LE22</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Servicios Profesionales Auditoría Financiera Conta</t>
+          <t>RENOVACIÓN Y SUSCRIPCIÓN DE SOFTWARE</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E467" s="2" t="n">
@@ -13446,19 +13446,19 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4105-12-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3134-59-LE22</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>4282-8-LE22</t>
+          <t>1823-11-L122</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Capacitación FAEP 2020</t>
+          <t>TALLER DE INICIACIÓN MUSICAL Y COMPOSICIÓN PARA ADOLESCENTES Y JÓVENES DEL CENTRO CIP - CRC LIMACHE, DEPENDIENTE DEL SERVICIO NACIONAL DE MENORES DE LA REGIÓN DE VALPARAÍSO.</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E468" s="2" t="n">
@@ -13474,19 +13474,19 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4282-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1823-11-L122</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>1395-52-LQ22</t>
+          <t>889473-20-LE22</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Adquisicion de Licencias Office-H.Ovalle</t>
+          <t>ADQ. INSTALACIÓN ELÉCTRICA Y CLIMATIZACIÓN</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -13494,7 +13494,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>2022-05-27T16:30:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E469" s="2" t="n">
@@ -13502,19 +13502,19 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1395-52-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=889473-20-LE22</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>600644-6-LQ22</t>
+          <t>4644-9-L122</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SERVICIO DE ASEO COMPLEJO FRONTERIZO COLCHANE </t>
+          <t>Adquisición servicio mantención y desinfección de baños químicos para proyecto Área de intervención manejo forestal Mañihuales</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>2022-05-27T16:29:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E470" s="2" t="n">
@@ -13530,19 +13530,19 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=600644-6-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4644-9-L122</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>951405-26-LE22</t>
+          <t>3902-60-L122</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>SERVICIO MANT-REPARACIÓN ELECTRICA PABELLÓN CMC</t>
+          <t>Adq inst e impl. sistema de televigilancia Bulnes</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>2022-05-27T16:02:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E471" s="2" t="n">
@@ -13558,19 +13558,19 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3902-60-L122</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>951405-29-L122</t>
+          <t>2790-94-L122</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MATERIALES DE OFICINA PARA EL CMC, TERCER PROCESO</t>
+          <t>INSTRUMENTAL DENTAL</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E472" s="2" t="n">
@@ -13586,19 +13586,19 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-29-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-94-L122</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>1995-7-L122</t>
+          <t>2790-95-L122</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAPACITACIÓN EN MANEJO E INTERVENCIÓN EN CRISIS EN EL ÁMBITO LABORAL </t>
+          <t>INSUMOS DENTALES</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -13606,7 +13606,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E473" s="2" t="n">
@@ -13614,19 +13614,19 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1995-7-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-95-L122</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>621-515-LQ22</t>
+          <t>1051173-5-L122</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t xml:space="preserve">RANIBIZUMAB 05 MG005 ML SOL FAM  1000017033 </t>
+          <t>ADQUISICIÓN DE DISCOS DUROS DE ESTADO SÓLIDO 2,5" PARA EL MINISTERIO SECRETARIA GENERAL DE LA PRESIDENCIA</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E474" s="2" t="n">
@@ -13642,19 +13642,19 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-515-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1051173-5-L122</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>1126-6-LE22</t>
+          <t>1079866-26-L122</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CONSULTORIA PAE HORTICULTORES DE ARAUCO SPA</t>
+          <t>ADQUISICION DE MATERIALES DE CONSTRUCCION PARA MANTENCION Y REPARACION DE BAÑOS DE LA 25 COM. MAIPU</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E475" s="2" t="n">
@@ -13670,19 +13670,19 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1126-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079866-26-L122</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>879-4-LE22</t>
+          <t>2790-96-L122</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>SERV PROF DE SEGURIDAD Y SALUD OCUPACIONAL INJUV</t>
+          <t xml:space="preserve">INSUMOS DENTALES PROCEDIMIENTOS Y TRATAMIENTOS CLÍNICOS </t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -13690,7 +13690,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E476" s="2" t="n">
@@ -13698,19 +13698,19 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=879-4-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-96-L122</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>1028871-23-LE22</t>
+          <t>4179-69-LE22</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>SERVICIO SUMINISTRO TELAS MENAJE Y PAQUETERIA SLEP</t>
+          <t>PARA CONTRATAR “SUMINISTRO DE PAPELERÍA Y ARTICULOS CORPORATIVOS PARA LA MUNICIPALIDAD DE LAUTARO”.</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -13718,7 +13718,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E477" s="2" t="n">
@@ -13726,19 +13726,19 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028871-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4179-69-LE22</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>1180825-9-LQ22</t>
+          <t>778992-7-LE22</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Provisión de Ambulancia de Emergencia Básica 4x2</t>
+          <t>MANTENIMIENTO CAMARAS DESGRASADORAS</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E478" s="2" t="n">
@@ -13754,19 +13754,19 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1180825-9-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=778992-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2565-10-LE22</t>
+          <t>4179-70-LE22</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE SERVICIOS PARA PROGRAMA DE IMAGENES DIAGNOSTICAS</t>
+          <t>PARA CONTRATAR “SERVICIO DE ALARMA EN DEPENDENCIAS MUNICIPALES”.</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E479" s="2" t="n">
@@ -13782,19 +13782,19 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2565-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4179-70-LE22</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>1031849-9-LR22</t>
+          <t>1658-350-L122</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>SERV. DE VIGILANCIA Y PROTECCION  SSTHNO C LIRQUEN</t>
+          <t>S84-22/DIRECCIÓN DE OPERACIONES/DEPTO AGUAS LLUVIAS/ADQUISICIÓN DE MADERAS</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E480" s="2" t="n">
@@ -13810,19 +13810,19 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1031849-9-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-350-L122</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>956-44-LR22</t>
+          <t>2409-306-L122</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Consultoría para la elaboración de estudios de mercado especificaciones técnicas y propuestas de evaluación de licitaciones de equipos y equipamiento para Proyecto Normalización Hospital Claudio Vicuña</t>
+          <t>ADQ. DE TINTAS Y TONER PARA IMPRESORAS ESC. E-885</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E481" s="2" t="n">
@@ -13838,19 +13838,19 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=956-44-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-306-L122</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>621-489-LR22</t>
+          <t>1658-354-L122</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t xml:space="preserve">HIDROXICARBAMIDA 500 MG  CPCM  1000017015 </t>
+          <t>S85-22/DIRECCIÓN DE OPERACIONES/DEPTO AGUAS LLUVIAS/ADQUISICIÓN DE CERCO AGMAFOR VERDE</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E482" s="2" t="n">
@@ -13866,19 +13866,19 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-489-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-354-L122</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>621-490-LR22</t>
+          <t>1658-356-L122</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t xml:space="preserve">PIPERACILINATAZOBACTAM 4000500 MG FAM  1000017016 </t>
+          <t>S48-22/DIDECO/PROGRAMA DISCAPACIDAD/ADQUISICIÓN DE 3 SILLAS DE RUEDAS ELÉCTRICAS</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -13886,7 +13886,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T17:00:00</t>
         </is>
       </c>
       <c r="E483" s="2" t="n">
@@ -13894,19 +13894,19 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-490-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-356-L122</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>621-477-LR22</t>
+          <t>2928-9-LE22</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>GASA ALG. 4 PL 5X100 CM HILO R.O SO 5 UN 1000016972</t>
+          <t>CONCESIÓN DEL SERVICIO DE VERTEDERO QUELLON</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:55:00</t>
         </is>
       </c>
       <c r="E484" s="2" t="n">
@@ -13922,19 +13922,19 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-477-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2928-9-LE22</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>1057489-198-LR22</t>
+          <t>3340-10-L122</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Convenio de Suministro de reactivos insumos equipamiento completo y sistema informático para análisis automatizado para Laboratorio de Hematología y Citometría de Flujo por 48 meses para el Hospital del Salvador.</t>
+          <t>Adquisición de 02 (Dos) termos calentadores de agua a gas y eléctrico</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:45:00</t>
         </is>
       </c>
       <c r="E485" s="2" t="n">
@@ -13950,19 +13950,19 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-198-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3340-10-L122</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>557970-6-O122</t>
+          <t>2311-81-L122</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>CONSERV. RUTINARIA AD. PICHOY, COMUNA DE MARIQUINA</t>
+          <t>COMPUTADORES DE ESCRITORIO</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -13970,7 +13970,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:43:00</t>
         </is>
       </c>
       <c r="E486" s="2" t="n">
@@ -13978,19 +13978,19 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=557970-6-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-81-L122</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>885-65-LE22</t>
+          <t>2422-297-LE22</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Adquisición de 14 impresoras multifuncionales</t>
+          <t>SOL. 936791 IMPRESORAS LASER Y MULTIFUNCIONAL</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:39:00</t>
         </is>
       </c>
       <c r="E487" s="2" t="n">
@@ -14006,19 +14006,19 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-65-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-297-LE22</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>621-454-LR22</t>
+          <t>3663-29-LE22</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t xml:space="preserve">METRONIDAZOL 500 MG CMCM REC.  1000016954 </t>
+          <t>MAMOGRAFIAS</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:35:00</t>
         </is>
       </c>
       <c r="E488" s="2" t="n">
@@ -14034,19 +14034,19 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-454-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3663-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>1017312-2-LQ22</t>
+          <t>4469-32-L122</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Servicio Proced. Diagnósticos y Terapeut. Iquique.</t>
+          <t>S..C.. N° 30430 Y 30431 (U.F.). IMPLEMENTACIÓN DE LABORATORIO E INSUMOS PARA ANÁLISIS BIODEGRADABILIDAD. CEAM.  UPLA.</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -14054,7 +14054,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E489" s="2" t="n">
@@ -14062,19 +14062,19 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017312-2-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-32-L122</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>621-459-LR22</t>
+          <t>4237-20-LE22</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t xml:space="preserve">LITIO CARBONATO 450 MGCMCM REC LP  1000016947 </t>
+          <t>ADQUISICION DE TIRAS DE FIERROS PARA EJECUCION DE</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E490" s="2" t="n">
@@ -14090,19 +14090,19 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-459-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4237-20-LE22</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>621-461-LR22</t>
+          <t>3268-45-L122</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUNITINIB 50 MG CP  1000016990 </t>
+          <t xml:space="preserve">002 001 01-2022 DPTO GUARNICIONAL COLCHONES 1 PLAZA </t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E491" s="2" t="n">
@@ -14118,19 +14118,19 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-461-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3268-45-L122</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>621-462-LR22</t>
+          <t>855-13-LE22</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t xml:space="preserve">DISULFIRAM 500 MG CM  1000016992 </t>
+          <t>CMEE-ARRIENDO Y MANTENCIÓN DE CAMIONETA JUNJI</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E492" s="2" t="n">
@@ -14146,19 +14146,19 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-462-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=855-13-LE22</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>1075963-388-LR21</t>
+          <t>4105-12-LE22</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS ANTIMICROBIANOS</t>
+          <t>Servicios Profesionales Auditoría Financiera Conta</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E493" s="2" t="n">
@@ -14174,19 +14174,19 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-388-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4105-12-LE22</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>1075963-389-LR21</t>
+          <t>4282-8-LE22</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS EN COMPRIMIDOS</t>
+          <t>Capacitación FAEP 2020</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E494" s="2" t="n">
@@ -14202,19 +14202,19 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-389-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4282-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>1075963-390-LR21</t>
+          <t>1395-52-LQ22</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO POR FÁRMACOS REFRIGERADOS</t>
+          <t>Adquisicion de Licencias Office-H.Ovalle</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E495" s="2" t="n">
@@ -14230,19 +14230,19 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-390-LR21</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1395-52-LQ22</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>1947-51-LE22</t>
+          <t>1658-351-L122</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>CONTRATACIÓN DEL SERVICIO DE ARRIENDO DE CAMAS CLÍNICAS DE PACIENTE INTENSIVO DEL HOSPITAL ROBERTO DEL RÍO</t>
+          <t>S50/2022/SERVICIO MANTENCION DE CALDERA A GAS DE EDIFICIO DIDECO.</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E496" s="2" t="n">
@@ -14258,19 +14258,19 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-51-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-351-L122</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>885-54-LE22</t>
+          <t>1658-352-L122</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACIÓN UPS 30KVA CR. COQUIMBO</t>
+          <t>S82/2022/OPERACIONES/ADQ. MATERIALES DE CONSTRUCCION PARA GALPON DEL DEPTO. REPARACION DE INMUEBLES Y MUEBLES MUNICIPALES DE OPERACIONES, DE ACUERDO A ESPECIFICACIONES TECNICAS ADJUNTAS.</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E497" s="2" t="n">
@@ -14286,19 +14286,19 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-54-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1658-352-L122</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>3220-10-LE22</t>
+          <t>2409-310-L122</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>SERVICIO DE MANTENIMIENTO CALDERA A VAPOR</t>
+          <t>ADQ. DE INSUMOS INFORMATICOS PARA ESC. D-870</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:30:00</t>
         </is>
       </c>
       <c r="E498" s="2" t="n">
@@ -14314,19 +14314,19 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3220-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-310-L122</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>3415-3-L122</t>
+          <t>600644-6-LQ22</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>ELEMENTOS DE ESCRITORIO</t>
+          <t xml:space="preserve"> SERVICIO DE ASEO COMPLEJO FRONTERIZO COLCHANE </t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:29:00</t>
         </is>
       </c>
       <c r="E499" s="2" t="n">
@@ -14342,19 +14342,19 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3415-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=600644-6-LQ22</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>1057489-247-LE22</t>
+          <t>951405-26-LE22</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Hisopo Gasa Estéril por 24 meses en el Hospital del Salvador </t>
+          <t>SERVICIO MANT-REPARACIÓN ELECTRICA PABELLÓN CMC</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>2022-05-27T16:00:00</t>
+          <t>2022-05-27T16:02:00</t>
         </is>
       </c>
       <c r="E500" s="2" t="n">
@@ -14370,19 +14370,19 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-247-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2436-223-L122</t>
+          <t>1126-6-LE22</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Adquisición de Estanque BioPlastic 5400 lts.,  Bomba Pedrollo, Autopress Elect, según archivo adjunto, necesarios para Cerro Condell.</t>
+          <t>CONSULTORIA PAE HORTICULTORES DE ARAUCO SPA</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -14398,19 +14398,19 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2436-223-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1126-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2422-306-L122</t>
+          <t>1995-7-L122</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>S.A. 936887 COOLER LONCHERA</t>
+          <t xml:space="preserve">CAPACITACIÓN EN MANEJO E INTERVENCIÓN EN CRISIS EN EL ÁMBITO LABORAL </t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -14426,19 +14426,19 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-306-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1995-7-L122</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>1057489-246-LE22</t>
+          <t>879-4-LE22</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Grapadoras Circulares Curvas por 12 meses en el Hospital del Salvador </t>
+          <t>SERV PROF DE SEGURIDAD Y SALUD OCUPACIONAL INJUV</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -14454,19 +14454,19 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-246-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=879-4-LE22</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>4085-22-L122</t>
+          <t>621-515-LQ22</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MOBILIARIOS MENAJE Y ROPA DE CAMA CENTRO DIURNO.</t>
+          <t xml:space="preserve">RANIBIZUMAB 05 MG005 ML SOL FAM  1000017033 </t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -14482,19 +14482,19 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-22-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-515-LQ22</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>1057489-248-LE22</t>
+          <t>1028871-23-LE22</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t xml:space="preserve">Convenio de Suministro de Sutura Catgut por 24 meses en el Hospital del Salvador </t>
+          <t>SERVICIO SUMINISTRO TELAS MENAJE Y PAQUETERIA SLEP</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -14510,19 +14510,19 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-248-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028871-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>3747-17-LE22</t>
+          <t>1180825-9-LQ22</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>PROTESIS E INSUMOS PROGRAMA GES ODONTOLOGICOS</t>
+          <t>Provisión de Ambulancia de Emergencia Básica 4x2</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -14538,19 +14538,19 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3747-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1180825-9-LQ22</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>1057494-43-LE22</t>
+          <t>2565-10-LE22</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Adquisición de Art. de Alimentación y Otros</t>
+          <t>ADQUISICIÓN DE SERVICIOS PARA PROGRAMA DE IMAGENES DIAGNOSTICAS</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -14566,19 +14566,19 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057494-43-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2565-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>1149-22-LE22</t>
+          <t>956-44-LR22</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO RESBALÓN BAHÍA MURTA COMUNA DE IBÁÑEZ AÑO 2022</t>
+          <t>Consultoría para la elaboración de estudios de mercado especificaciones técnicas y propuestas de evaluación de licitaciones de equipos y equipamiento para Proyecto Normalización Hospital Claudio Vicuña</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -14594,19 +14594,19 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=956-44-LR22</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>1057499-18-LE22</t>
+          <t>621-489-LR22</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE LA RED DEL SERVICIO DE SALUD METROPOLITANO SUR</t>
+          <t xml:space="preserve">HIDROXICARBAMIDA 500 MG  CPCM  1000017015 </t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -14622,19 +14622,19 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057499-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-489-LR22</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2366-75-L122</t>
+          <t>621-490-LR22</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MATERIALES DE ASEO M.11 DIRECCIÓN</t>
+          <t xml:space="preserve">PIPERACILINATAZOBACTAM 4000500 MG FAM  1000017016 </t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>2022-05-27T15:59:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E510" s="2" t="n">
@@ -14650,19 +14650,19 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-75-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-490-LR22</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>3477-110-LR22</t>
+          <t>1031849-9-LR22</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>CONTRATACION SERVICIO VOZ DATOS E INTERNET PARA  INMUEBLES DE LA MUNICIPALIDAD DE VILCUN</t>
+          <t>SERV. DE VIGILANCIA Y PROTECCION  SSTHNO C LIRQUEN</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>2022-05-27T15:47:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E511" s="2" t="n">
@@ -14678,19 +14678,19 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3477-110-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1031849-9-LR22</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2422-298-LE22</t>
+          <t>621-477-LR22</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>SOL. 936840 PARKA TERMICA</t>
+          <t>GASA ALG. 4 PL 5X100 CM HILO R.O SO 5 UN 1000016972</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>2022-05-27T15:44:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E512" s="2" t="n">
@@ -14706,19 +14706,19 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-298-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-477-LR22</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2591-89-L122</t>
+          <t>1057489-198-LR22</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MESAS Y SILLAS</t>
+          <t>Convenio de Suministro de reactivos insumos equipamiento completo y sistema informático para análisis automatizado para Laboratorio de Hematología y Citometría de Flujo por 48 meses para el Hospital del Salvador.</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>2022-05-27T15:38:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E513" s="2" t="n">
@@ -14734,19 +14734,19 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-89-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-198-LR22</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>387-26-LR22</t>
+          <t>621-461-LR22</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>C.S Mantención áreas verdes de la Comuna de Los Muermos</t>
+          <t xml:space="preserve">SUNITINIB 50 MG CP  1000016990 </t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -14754,7 +14754,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>2022-05-27T15:35:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E514" s="2" t="n">
@@ -14762,19 +14762,19 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=387-26-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-461-LR22</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2258-72-LR22</t>
+          <t>621-462-LR22</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>ANTIINFECCIOS INYECTABLES</t>
+          <t xml:space="preserve">DISULFIRAM 500 MG CM  1000016992 </t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>2022-05-27T15:31:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E515" s="2" t="n">
@@ -14790,19 +14790,19 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2258-72-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-462-LR22</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>3621-42-L122</t>
+          <t>621-454-LR22</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>COMPRA DE MOBILIARIO</t>
+          <t xml:space="preserve">METRONIDAZOL 500 MG CMCM REC.  1000016954 </t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -14810,7 +14810,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>2022-05-27T15:31:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E516" s="2" t="n">
@@ -14818,19 +14818,19 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-42-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-454-LR22</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>5190-29-LP22</t>
+          <t>1017312-2-LQ22</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>FARMACIA - SUMINISTRO DE FORMULAS LACTEAS</t>
+          <t>Servicio Proced. Diagnósticos y Terapeut. Iquique.</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -14838,7 +14838,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>2022-05-27T15:31:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E517" s="2" t="n">
@@ -14846,19 +14846,19 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5190-29-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017312-2-LQ22</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2377-185-L122</t>
+          <t>621-459-LR22</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
+          <t xml:space="preserve">LITIO CARBONATO 450 MGCMCM REC LP  1000016947 </t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>2022-05-27T15:31:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E518" s="2" t="n">
@@ -14874,19 +14874,19 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-185-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-459-LR22</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>1057430-42-LE22</t>
+          <t>557970-6-O122</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Convenio Servicios Climatización y Ventilación</t>
+          <t>CONSERV. RUTINARIA AD. PICHOY, COMUNA DE MARIQUINA</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E519" s="2" t="n">
@@ -14902,19 +14902,19 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057430-42-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=557970-6-O122</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>1300-23-LE22</t>
+          <t>885-65-LE22</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>CAMPAÑA DÍA DEL BUEN TRATO AL ADULTO MAYOR</t>
+          <t>Adquisición de 14 impresoras multifuncionales</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E520" s="2" t="n">
@@ -14930,19 +14930,19 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1300-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-65-LE22</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2703-126-L122</t>
+          <t>1947-51-LE22</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SC 8100 Doppler portátil. CESFAM</t>
+          <t>CONTRATACIÓN DEL SERVICIO DE ARRIENDO DE CAMAS CLÍNICAS DE PACIENTE INTENSIVO DEL HOSPITAL ROBERTO DEL RÍO</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E521" s="2" t="n">
@@ -14958,19 +14958,19 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-126-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-51-LE22</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>756-11-L122</t>
+          <t>885-54-LE22</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Adquisición de termos y hervidores de agua</t>
+          <t>SUMINISTRO E INSTALACIÓN UPS 30KVA CR. COQUIMBO</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E522" s="2" t="n">
@@ -14986,19 +14986,19 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-11-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=885-54-LE22</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>1149-23-LE22</t>
+          <t>1075963-388-LR21</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO SIN NOMBRE CERRO CASTILLO COMUNA DE IBÁÑEZ AÑO 2022</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS ANTIMICROBIANOS</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E523" s="2" t="n">
@@ -15014,19 +15014,19 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-388-LR21</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>609-36-LE22</t>
+          <t>1075963-389-LR21</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Consultas de Información Comercial de Usuarios</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS EN COMPRIMIDOS</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -15034,7 +15034,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E524" s="2" t="n">
@@ -15042,19 +15042,19 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=609-36-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-389-LR21</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>1993-11-LE22</t>
+          <t>1075963-390-LR21</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Curso Gestión de Contratos en Servicios Públicos.</t>
+          <t>CONVENIO SUMINISTRO POR FÁRMACOS REFRIGERADOS</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E525" s="2" t="n">
@@ -15070,19 +15070,19 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1993-11-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075963-390-LR21</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>756-10-L122</t>
+          <t>1057494-43-LE22</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Servicio de impresión de carpetas y sobres con grafica institucional.</t>
+          <t>Adquisición de Art. de Alimentación y Otros</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E526" s="2" t="n">
@@ -15098,19 +15098,19 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057494-43-LE22</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>739-9-LE22</t>
+          <t>951405-29-L122</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>SAT AREA LA CALERA QUILLOTA Y LIMACHE. INDAP R.VA</t>
+          <t>ADQUISICION DE MATERIALES DE OFICINA PARA EL CMC, TERCER PROCESO</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -15118,7 +15118,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E527" s="2" t="n">
@@ -15126,19 +15126,19 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-9-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=951405-29-L122</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>739-10-LP22</t>
+          <t>3747-17-LE22</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>SAT LA LIGUA FLORES. INDAP R.VALPO.</t>
+          <t>PROTESIS E INSUMOS PROGRAMA GES ODONTOLOGICOS</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E528" s="2" t="n">
@@ -15154,19 +15154,19 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-10-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3747-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>1411-19-LP22</t>
+          <t>1149-22-LE22</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Servicio de aseo y limpieza para C.R.S. Santiago Occidente y CAIS Melipilla</t>
+          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO RESBALÓN BAHÍA MURTA COMUNA DE IBÁÑEZ AÑO 2022</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E529" s="2" t="n">
@@ -15182,19 +15182,19 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1411-19-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>1231-2-LE22</t>
+          <t>1057499-18-LE22</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Servicios de destrucción de mercancías DRAV</t>
+          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE LA RED DEL SERVICIO DE SALUD METROPOLITANO SUR</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -15202,7 +15202,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E530" s="2" t="n">
@@ -15210,19 +15210,19 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1231-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057499-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2735-45-LE22</t>
+          <t>1057489-246-LE22</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Servicios de Medición de Ruido</t>
+          <t xml:space="preserve">Convenio de Suministro de Grapadoras Circulares Curvas por 12 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E531" s="2" t="n">
@@ -15238,19 +15238,19 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-246-LE22</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2423-20-LR22</t>
+          <t>2422-306-L122</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>SERVICIO DE RECOLECCIÓN TRANSPORTE Y DISPOSICIÓN DE RESIDUOS SOLIDOS DOMICILIARIOS Y ASIMILABLES</t>
+          <t>S.A. 936887 COOLER LONCHERA</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>2022-05-27T15:30:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E532" s="2" t="n">
@@ -15266,19 +15266,19 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2423-20-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-306-L122</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>3328-39-LE22</t>
+          <t>3220-10-LE22</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>JAG SERVICIO DE REPARACIÓN COMPLETA DE CALDERA</t>
+          <t>SERVICIO DE MANTENIMIENTO CALDERA A VAPOR</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>2022-05-27T15:29:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E533" s="2" t="n">
@@ -15294,19 +15294,19 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3328-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3220-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>1057441-42-LE22</t>
+          <t>3415-3-L122</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Servicio de Mantención Prev. y Correct. Equipo Rx Dental</t>
+          <t>ELEMENTOS DE ESCRITORIO</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>2022-05-27T15:25:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E534" s="2" t="n">
@@ -15322,19 +15322,19 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057441-42-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3415-3-L122</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2410-95-L122</t>
+          <t>2436-223-L122</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Adquisición de tintas para programa UAPO, CESFAM Nororiente</t>
+          <t>Adquisición de Estanque BioPlastic 5400 lts.,  Bomba Pedrollo, Autopress Elect, según archivo adjunto, necesarios para Cerro Condell.</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>2022-05-27T15:22:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E535" s="2" t="n">
@@ -15350,19 +15350,19 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2410-95-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2436-223-L122</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2366-74-L122</t>
+          <t>4085-22-L122</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE OXIMETROS DE PULSO M.305 CESFAM AMADOR NEGHME</t>
+          <t>MOBILIARIOS MENAJE Y ROPA DE CAMA CENTRO DIURNO.</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>2022-05-27T15:17:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E536" s="2" t="n">
@@ -15378,19 +15378,19 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-74-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-22-L122</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>3231-84-E222</t>
+          <t>1057489-248-LE22</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>COMPRA DE COMPUTADORES IMPRESORAS Y DISCO DUROS P</t>
+          <t xml:space="preserve">Convenio de Suministro de Sutura Catgut por 24 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>2022-05-27T15:11:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E537" s="2" t="n">
@@ -15406,19 +15406,19 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3231-84-E222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-248-LE22</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>908366-8-LE22</t>
+          <t>1057489-247-LE22</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Servicios de arriendo de fotocopiadoras</t>
+          <t xml:space="preserve">Convenio de Suministro de Hisopo Gasa Estéril por 24 meses en el Hospital del Salvador </t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>2022-05-27T15:10:00</t>
+          <t>2022-05-27T16:00:00</t>
         </is>
       </c>
       <c r="E538" s="2" t="n">
@@ -15434,19 +15434,19 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=908366-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-247-LE22</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>5890-26-LE22</t>
+          <t>2366-75-L122</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>CONTRATO OBRAS MENORES MT-0</t>
+          <t>ADQUISICIÓN DE MATERIALES DE ASEO M.11 DIRECCIÓN</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2022-05-27T15:10:00</t>
+          <t>2022-05-27T15:59:00</t>
         </is>
       </c>
       <c r="E539" s="2" t="n">
@@ -15462,19 +15462,19 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5890-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-75-L122</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>4090-25-LE22</t>
+          <t>3477-110-LR22</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>IMAGENES DIAGNOSTICAS - ECOTOMOGRAFIA ABDOMINAL</t>
+          <t>CONTRATACION SERVICIO VOZ DATOS E INTERNET PARA  INMUEBLES DE LA MUNICIPALIDAD DE VILCUN</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>2022-05-27T15:08:00</t>
+          <t>2022-05-27T15:47:00</t>
         </is>
       </c>
       <c r="E540" s="2" t="n">
@@ -15490,19 +15490,19 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4090-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3477-110-LR22</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>2790-97-L122</t>
+          <t>2422-298-LE22</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>EQUIPO ESPIRÓMETRO</t>
+          <t>SOL. 936840 PARKA TERMICA</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -15510,7 +15510,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>2022-05-27T15:07:00</t>
+          <t>2022-05-27T15:44:00</t>
         </is>
       </c>
       <c r="E541" s="2" t="n">
@@ -15518,19 +15518,19 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-97-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-298-LE22</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2374-27-L122</t>
+          <t>2591-89-L122</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Corta de 4 árboles de Eucalytus</t>
+          <t>ADQUISICIÓN DE MESAS Y SILLAS</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:38:00</t>
         </is>
       </c>
       <c r="E542" s="2" t="n">
@@ -15546,19 +15546,19 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2374-27-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-89-L122</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>1116007-20-L122</t>
+          <t>387-26-LR22</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Adquisición gas licuado a granel</t>
+          <t>C.S Mantención áreas verdes de la Comuna de Los Muermos</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:35:00</t>
         </is>
       </c>
       <c r="E543" s="2" t="n">
@@ -15574,19 +15574,19 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1116007-20-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=387-26-LR22</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>2020-8-LE22</t>
+          <t>2258-72-LR22</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>SE REQUIERE EL SERVICIO DE IMPRESION DE 600 LIBROS</t>
+          <t>ANTIINFECCIOS INYECTABLES</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:31:00</t>
         </is>
       </c>
       <c r="E544" s="2" t="n">
@@ -15602,19 +15602,19 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2020-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2258-72-LR22</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>5349-14-LE22</t>
+          <t>3621-42-L122</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>CONTRATO DE PRESTACIÓN DE SERVICIOS DE PERSONAL AUXILIAR PARA APOYO EN LA UNIDAD DE EMERGENCIA DEL HOSPITAL PROVINCIAL DEL HUASCO MONSEÑOR FERNANDO ARIZTÍA RUIZ</t>
+          <t>COMPRA DE MOBILIARIO</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:31:00</t>
         </is>
       </c>
       <c r="E545" s="2" t="n">
@@ -15630,19 +15630,19 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5349-14-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-42-L122</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>2727-42-L122</t>
+          <t>5190-29-LP22</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACIÓN AIRE ACONDICIONADO FARMACIA COMUNAL</t>
+          <t>FARMACIA - SUMINISTRO DE FORMULAS LACTEAS</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:31:00</t>
         </is>
       </c>
       <c r="E546" s="2" t="n">
@@ -15658,19 +15658,19 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2727-42-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5190-29-LP22</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>4493-23-LE22</t>
+          <t>2377-185-L122</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Adquisición de Combustible para Generador CESFAM</t>
+          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:31:00</t>
         </is>
       </c>
       <c r="E547" s="2" t="n">
@@ -15686,19 +15686,19 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4493-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-185-L122</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>2735-6-LR22</t>
+          <t>1149-23-LE22</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>OBRAS PARA LA RENOVACIÓN EJE LO BARNECHEA</t>
+          <t>SERVICIO DE MAQUINARIA PARA ENCAUZAMIENTO RÍO SIN NOMBRE CERRO CASTILLO COMUNA DE IBÁÑEZ AÑO 2022</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>2022-05-27T15:01:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E548" s="2" t="n">
@@ -15714,19 +15714,19 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-6-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1149-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>2562-5-LR22</t>
+          <t>609-36-LE22</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Adquisición de vehículos combate de incendio</t>
+          <t>Consultas de Información Comercial de Usuarios</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -15734,7 +15734,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E549" s="2" t="n">
@@ -15742,19 +15742,19 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2562-5-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=609-36-LE22</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>1947-39-LE22</t>
+          <t>1300-23-LE22</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>810-ADQUISICIÓN DE SERVICIO DE PLANIFICACIÓN DE CIRUGÍA MAXILOFACIAL PARA HOSPITAL DE NIÑOS ROBERTO DEL RIO CAF</t>
+          <t>CAMPAÑA DÍA DEL BUEN TRATO AL ADULTO MAYOR</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E550" s="2" t="n">
@@ -15770,19 +15770,19 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1300-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>2460-64-L122</t>
+          <t>2703-126-L122</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MATERIALES DE FERRETERIA</t>
+          <t>SC 8100 Doppler portátil. CESFAM</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -15790,7 +15790,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E551" s="2" t="n">
@@ -15798,19 +15798,19 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2460-64-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-126-L122</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>979-10-LE22</t>
+          <t>756-11-L122</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Elaboración y Tramitación de Informe Experto</t>
+          <t>Adquisición de termos y hervidores de agua</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E552" s="2" t="n">
@@ -15826,19 +15826,19 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=979-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-11-L122</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>2424-33-LE22</t>
+          <t>1057430-42-LE22</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>484- - P.B - ADQUISICION TARIMA DE ESCENARIO</t>
+          <t>Convenio Servicios Climatización y Ventilación</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -15846,7 +15846,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E553" s="2" t="n">
@@ -15854,19 +15854,19 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-33-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057430-42-LE22</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>2424-70-LE22</t>
+          <t>2735-45-LE22</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>867 - INFRAESTRUCTURA - M.A. - SERVICIO DE PINTADO EXTERIOR DE MODULOS-MUNICIPIO DE CUIDADOS EN EL TERRITORIO</t>
+          <t>Servicios de Medición de Ruido</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -15874,7 +15874,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E554" s="2" t="n">
@@ -15882,19 +15882,19 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-70-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>1150-16-O122</t>
+          <t>2423-20-LR22</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>CONSERV. Y REFUERZOS DE RIBERAS, ESTERO LAS CRUCES</t>
+          <t>SERVICIO DE RECOLECCIÓN TRANSPORTE Y DISPOSICIÓN DE RESIDUOS SOLIDOS DOMICILIARIOS Y ASIMILABLES</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E555" s="2" t="n">
@@ -15910,19 +15910,19 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1150-16-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2423-20-LR22</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>1003473-17-LQ22</t>
+          <t>1231-2-LE22</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>CONTRATO DE SUMINISTRO DE INSUMOS DE SOPORTE RESPIRATORIO NO INVASIVO PARA EL HOSPITAL “SAN JUAN DE DIOS” DE CURICÓ</t>
+          <t>Servicios de destrucción de mercancías DRAV</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -15930,7 +15930,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E556" s="2" t="n">
@@ -15938,19 +15938,19 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1003473-17-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1231-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>4629-12-LR22</t>
+          <t>739-9-LE22</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Serv. de red de datos seguridad perimetral y call</t>
+          <t>SAT AREA LA CALERA QUILLOTA Y LIMACHE. INDAP R.VA</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E557" s="2" t="n">
@@ -15966,19 +15966,19 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4629-12-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-9-LE22</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>1057501-177-LR22</t>
+          <t>739-10-LP22</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO JERINGAS CASR</t>
+          <t>SAT LA LIGUA FLORES. INDAP R.VALPO.</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -15986,7 +15986,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E558" s="2" t="n">
@@ -15994,19 +15994,19 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057501-177-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=739-10-LP22</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>2080-138-LR22</t>
+          <t>1411-19-LP22</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>SUMINISTRO AUDÍFONOS</t>
+          <t>Servicio de aseo y limpieza para C.R.S. Santiago Occidente y CAIS Melipilla</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E559" s="2" t="n">
@@ -16022,19 +16022,19 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2080-138-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1411-19-LP22</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>1079650-22-LQ22</t>
+          <t>1993-11-LE22</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Rep Ambulancias Hospital Guillermo Grant Benavente</t>
+          <t>Curso Gestión de Contratos en Servicios Públicos.</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E560" s="2" t="n">
@@ -16050,19 +16050,19 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079650-22-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1993-11-LE22</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>1079639-38-L122</t>
+          <t>756-10-L122</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADQUISICIÒN DE MATERIALES DE CONSTRUCCIÒN PARA LA REPARACIÒN DEL PISO, DE LA 4TA. COM. CHAITEN  </t>
+          <t>Servicio de impresión de carpetas y sobres con grafica institucional.</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:30:00</t>
         </is>
       </c>
       <c r="E561" s="2" t="n">
@@ -16078,19 +16078,19 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079639-38-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=756-10-L122</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>1057390-21-LP22</t>
+          <t>3328-39-LE22</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO DE PETROLEO PARA CALDERAS SSAN</t>
+          <t>JAG SERVICIO DE REPARACIÓN COMPLETA DE CALDERA</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:29:00</t>
         </is>
       </c>
       <c r="E562" s="2" t="n">
@@ -16106,19 +16106,19 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057390-21-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3328-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>1591-11-LE22</t>
+          <t>1057441-42-LE22</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>CURSOS DE CAPACITACIÓN PARA EL SERVICIO NACIONAL DE TURISMO ADJUDICACIÓN MÚLTIPLE</t>
+          <t>Servicio de Mantención Prev. y Correct. Equipo Rx Dental</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:25:00</t>
         </is>
       </c>
       <c r="E563" s="2" t="n">
@@ -16134,19 +16134,19 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1591-11-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057441-42-LE22</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>548871-2-L122</t>
+          <t>2410-95-L122</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Servicio de aseo IPS Porvenir</t>
+          <t>Adquisición de tintas para programa UAPO, CESFAM Nororiente</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:22:00</t>
         </is>
       </c>
       <c r="E564" s="2" t="n">
@@ -16162,19 +16162,19 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548871-2-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2410-95-L122</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>906-16-LE22</t>
+          <t>2366-74-L122</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>MIRL Servicio de Aseo y auxiliar</t>
+          <t>ADQUISICIÓN DE OXIMETROS DE PULSO M.305 CESFAM AMADOR NEGHME</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:17:00</t>
         </is>
       </c>
       <c r="E565" s="2" t="n">
@@ -16190,19 +16190,19 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=906-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2366-74-L122</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>4491-36-LE22</t>
+          <t>3231-84-E222</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Reparación Liceo Pencopolitano Comuna de Penco</t>
+          <t>COMPRA DE COMPUTADORES IMPRESORAS Y DISCO DUROS P</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:11:00</t>
         </is>
       </c>
       <c r="E566" s="2" t="n">
@@ -16218,19 +16218,19 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4491-36-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3231-84-E222</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>699866-51-LE22</t>
+          <t>5890-26-LE22</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>CONVENIO DE INSUMOS COMPATIBLES CON EMBOLSADORA AUTOBAG</t>
+          <t>CONTRATO OBRAS MENORES MT-0</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -16238,7 +16238,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:10:00</t>
         </is>
       </c>
       <c r="E567" s="2" t="n">
@@ -16246,19 +16246,19 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=699866-51-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5890-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>1699-6-LE22</t>
+          <t>908366-8-LE22</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Mantenciones de Viviendas Judiciales Zonal Rgua</t>
+          <t>Servicios de arriendo de fotocopiadoras</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:10:00</t>
         </is>
       </c>
       <c r="E568" s="2" t="n">
@@ -16274,19 +16274,19 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1699-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=908366-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>2200-33-L122</t>
+          <t>4090-25-LE22</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>CURSO ESTRATEGIAS DE ABORDAJE DE NIÑOS, NIÑAS Y ADOLESCENTES HOSPITALIZADOS POR CONDICIÓN DE SALUD MENTAL - U. CAP</t>
+          <t>IMAGENES DIAGNOSTICAS - ECOTOMOGRAFIA ABDOMINAL</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:08:00</t>
         </is>
       </c>
       <c r="E569" s="2" t="n">
@@ -16302,19 +16302,19 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2200-33-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4090-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>1380-121-LP22</t>
+          <t>2790-97-L122</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>182-22 CONTR SERV ARRIENDO EQ ELECTROENCEFALÓGRAFO</t>
+          <t>EQUIPO ESPIRÓMETRO</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -16322,7 +16322,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:07:00</t>
         </is>
       </c>
       <c r="E570" s="2" t="n">
@@ -16330,19 +16330,19 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-121-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2790-97-L122</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>548868-9-LE22</t>
+          <t>5349-14-LE22</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Servicio de Sala Cuna y Jardín Infantil IPS Xa.</t>
+          <t>CONTRATO DE PRESTACIÓN DE SERVICIOS DE PERSONAL AUXILIAR PARA APOYO EN LA UNIDAD DE EMERGENCIA DEL HOSPITAL PROVINCIAL DEL HUASCO MONSEÑOR FERNANDO ARIZTÍA RUIZ</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -16350,7 +16350,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E571" s="2" t="n">
@@ -16358,19 +16358,19 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548868-9-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5349-14-LE22</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>1462-10-LE22</t>
+          <t>2727-42-L122</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>SERVICIO DE ASEO Y LIMPIEZA DE CONSULTORIO ADOSADO Y UNIDADES DE APOYO DEL HOSPITAL DE HUALAÑÉ</t>
+          <t>SUMINISTRO E INSTALACIÓN AIRE ACONDICIONADO FARMACIA COMUNAL</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E572" s="2" t="n">
@@ -16386,19 +16386,19 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1462-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2727-42-L122</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>1278-8-LE22</t>
+          <t>2374-27-L122</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Materiales de Seguridad Vial para Prov. de Curicó</t>
+          <t>Corta de 4 árboles de Eucalytus</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -16406,7 +16406,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E573" s="2" t="n">
@@ -16414,19 +16414,19 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1278-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2374-27-L122</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>1077920-7-LE22</t>
+          <t>1116007-20-L122</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>COMPRA COADYUVANTES PARA TERAPIA ONCOLOGICA</t>
+          <t>Adquisición gas licuado a granel</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E574" s="2" t="n">
@@ -16442,19 +16442,19 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1116007-20-L122</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>1201-26-LE22</t>
+          <t>2020-8-LE22</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>CS de arriendo multifuncionales IND Aysén</t>
+          <t>SE REQUIERE EL SERVICIO DE IMPRESION DE 600 LIBROS</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E575" s="2" t="n">
@@ -16470,19 +16470,19 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-26-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2020-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>3502-61-LE22</t>
+          <t>4493-23-LE22</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE COMPACTADORA UNIDAD MEDIO AMBIENTE</t>
+          <t>Adquisición de Combustible para Generador CESFAM</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E576" s="2" t="n">
@@ -16498,19 +16498,19 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3502-61-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4493-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>2284-118-L122</t>
+          <t>2735-6-LR22</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>SUMINISTRO MANTENCION Y REPARACION DE GASFITERIA — SOLICITUD Nº 45127</t>
+          <t>OBRAS PARA LA RENOVACIÓN EJE LO BARNECHEA</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -16518,7 +16518,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>2022-05-27T15:00:00</t>
+          <t>2022-05-27T15:01:00</t>
         </is>
       </c>
       <c r="E577" s="2" t="n">
@@ -16526,19 +16526,19 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2284-118-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-6-LR22</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>1201-24-LE22</t>
+          <t>2562-5-LR22</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Suministro de trofeos y medallas Escolares 2022</t>
+          <t>Adquisición de vehículos combate de incendio</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -16554,19 +16554,19 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-24-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2562-5-LR22</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>796297-10-L122</t>
+          <t>1947-39-LE22</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>005 021 036/2022 GBS ADQUISICION DE CALEFACTOR A PELLET PARA C.R. SERRANO.</t>
+          <t>810-ADQUISICIÓN DE SERVICIO DE PLANIFICACIÓN DE CIRUGÍA MAXILOFACIAL PARA HOSPITAL DE NIÑOS ROBERTO DEL RIO CAF</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -16582,19 +16582,19 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=796297-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1947-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>2424-149-L122</t>
+          <t>2460-64-L122</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>276 - DEPORTES - (M.A.) - KIT ARTICULOS DEPORTIVOS</t>
+          <t>ADQUISICION DE MATERIALES DE FERRETERIA</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -16610,19 +16610,19 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-149-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2460-64-L122</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>2825-24-L122</t>
+          <t>979-10-LE22</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>ADQUISICIN MEDICAMENTO F.P.</t>
+          <t>Elaboración y Tramitación de Informe Experto</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -16638,19 +16638,19 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2825-24-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=979-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>1017-2-LP22</t>
+          <t>2424-33-LE22</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Servicio de Aseo NC y RM</t>
+          <t>484- - P.B - ADQUISICION TARIMA DE ESCENARIO</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -16666,19 +16666,19 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017-2-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-33-LE22</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>4463-10-LQ22</t>
+          <t>2424-70-LE22</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Contrato de Suministro de Medicamentos en comprimidos para el Hospital de Curicó</t>
+          <t>867 - INFRAESTRUCTURA - M.A. - SERVICIO DE PINTADO EXTERIOR DE MODULOS-MUNICIPIO DE CUIDADOS EN EL TERRITORIO</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -16694,19 +16694,19 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4463-10-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-70-LE22</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>1002-32-LE22</t>
+          <t>2080-138-LR22</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>CONVENIO SERVICIO DE MANTENCION EQUIPOS DE LABORATORIO</t>
+          <t>SUMINISTRO AUDÍFONOS</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -16722,19 +16722,19 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002-32-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2080-138-LR22</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>3497-21-LE22</t>
+          <t>4629-12-LR22</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>SUMINISTROS DE ALIMENTOS Y ABARROTES M. COBQUECURA</t>
+          <t>Serv. de red de datos seguridad perimetral y call</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -16750,19 +16750,19 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3497-21-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4629-12-LR22</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>657-19-LE22</t>
+          <t>1057501-177-LR22</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Aseo Delegacion Serviu Puerto Aysen</t>
+          <t>CONVENIO SUMINISTRO JERINGAS CASR</t>
         </is>
       </c>
       <c r="C586" t="n">
@@ -16778,19 +16778,19 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=657-19-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057501-177-LR22</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>5737-3-LP22</t>
+          <t>1003473-17-LQ22</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Serv. tamizaje At. Medica Area Oftalmologia</t>
+          <t>CONTRATO DE SUMINISTRO DE INSUMOS DE SOPORTE RESPIRATORIO NO INVASIVO PARA EL HOSPITAL “SAN JUAN DE DIOS” DE CURICÓ</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -16806,19 +16806,19 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5737-3-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1003473-17-LQ22</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>3428-14-L122</t>
+          <t>1057390-21-LP22</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servicio de reparación del sistema de alcantarillado del Destacamento </t>
+          <t>CONVENIO SUMINISTRO DE PETROLEO PARA CALDERAS SSAN</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -16834,19 +16834,19 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3428-14-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057390-21-LP22</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>1002588-46-LE22</t>
+          <t>548871-2-L122</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Coffee break vía suministro para el SLEP.</t>
+          <t>Servicio de aseo IPS Porvenir</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -16862,19 +16862,19 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002588-46-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548871-2-L122</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>5413-81-LE22</t>
+          <t>1591-11-LE22</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Impresión de Libros en OFFSET para la Universidad de Los Lagos</t>
+          <t>CURSOS DE CAPACITACIÓN PARA EL SERVICIO NACIONAL DE TURISMO ADJUDICACIÓN MÚLTIPLE</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -16890,19 +16890,19 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5413-81-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1591-11-LE22</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>3794-44-LE22</t>
+          <t>1079650-22-LQ22</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>FLETE INTERNACIONAL MENAJE WASHINGTON ESTADOS UNIDOS - SANTIAGO CHILE</t>
+          <t>Rep Ambulancias Hospital Guillermo Grant Benavente</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -16918,19 +16918,19 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3794-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079650-22-LQ22</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>933-7-LE22</t>
+          <t>1079639-38-L122</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Implementos Deportivos para Programa</t>
+          <t xml:space="preserve">ADQUISICIÒN DE MATERIALES DE CONSTRUCCIÒN PARA LA REPARACIÒN DEL PISO, DE LA 4TA. COM. CHAITEN  </t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -16946,19 +16946,19 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=933-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079639-38-L122</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>1979-125-LQ22</t>
+          <t>1150-16-O122</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>136.22 SERVICIO DE OPERACIÓN PARA SALA DE CONTROL CENTRALIZADO Y OTROS PARA NODO COSTERO: HOSPITAL DE NUEVA IMPERIAL.</t>
+          <t>CONSERV. Y REFUERZOS DE RIBERAS, ESTERO LAS CRUCES</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -16974,19 +16974,19 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-125-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1150-16-O122</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>1059082-14-LE22</t>
+          <t>4491-36-LE22</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Servicio Impresión J.I. JUNJI REGIÓN ÑUBLE</t>
+          <t>Reparación Liceo Pencopolitano Comuna de Penco</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -17002,19 +17002,19 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1059082-14-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4491-36-LE22</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1077920-8-LE22</t>
+          <t>699866-51-LE22</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Compra de Fármacos Inyectables Tradicionales</t>
+          <t>CONVENIO DE INSUMOS COMPATIBLES CON EMBOLSADORA AUTOBAG</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -17030,19 +17030,19 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-8-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=699866-51-LE22</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>5155-14-LP22</t>
+          <t>2825-24-L122</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Serv Impresión carta variable para notificaciones</t>
+          <t>ADQUISICIN MEDICAMENTO F.P.</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -17058,19 +17058,19 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5155-14-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2825-24-L122</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>1380-122-LQ22</t>
+          <t>1979-125-LQ22</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>PPTA 198-22 “ADQUISICIÓN DE FORMULAS ENTERALES”</t>
+          <t>136.22 SERVICIO DE OPERACIÓN PARA SALA DE CONTROL CENTRALIZADO Y OTROS PARA NODO COSTERO: HOSPITAL DE NUEVA IMPERIAL.</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -17086,19 +17086,19 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-122-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-125-LQ22</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>1488-34-LE22</t>
+          <t>796297-10-L122</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Propuesta Pública Nº203-22 denominada “MEJORAMIENTO Y REMODELACIÓN PARA PLANTA DE TRATAMIENTO DE AGUA DEL HOSPITAL”</t>
+          <t>005 021 036/2022 GBS ADQUISICION DE CALEFACTOR A PELLET PARA C.R. SERRANO.</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -17114,19 +17114,19 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1488-34-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=796297-10-L122</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>985737-2-LE22</t>
+          <t>2424-149-L122</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>INSUMOS Y EQUIPOS PARA TALLERES  TNS ENFERMERIA</t>
+          <t>276 - DEPORTES - (M.A.) - KIT ARTICULOS DEPORTIVOS</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -17142,19 +17142,19 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=985737-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2424-149-L122</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>2328-207-LE22</t>
+          <t>1017-2-LP22</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN NOTEBOOK PARA UNIDAD DE FINANZAS</t>
+          <t>Servicio de Aseo NC y RM</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -17170,19 +17170,19 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-207-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1017-2-LP22</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>550301-1-LE22</t>
+          <t>1699-6-LE22</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>“SUMINISTRO DE MATERIALES PROGRAMA ORASMI</t>
+          <t>Mantenciones de Viviendas Judiciales Zonal Rgua</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -17198,19 +17198,19 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=550301-1-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1699-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>2409-313-L122</t>
+          <t>2200-33-L122</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>ADQ DE MESAS Y ESTANTES PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
+          <t>CURSO ESTRATEGIAS DE ABORDAJE DE NIÑOS, NIÑAS Y ADOLESCENTES HOSPITALIZADOS POR CONDICIÓN DE SALUD MENTAL - U. CAP</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -17226,19 +17226,19 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-313-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2200-33-L122</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>2409-314-L122</t>
+          <t>1380-121-LP22</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>ADQUISICION DE MAQUINARIA PARA ESPECIALIDAD DE AGROPECUARIA DE LICEO LLANO BLANCO</t>
+          <t>182-22 CONTR SERV ARRIENDO EQ ELECTROENCEFALÓGRAFO</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -17254,19 +17254,19 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-314-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-121-LP22</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>2409-311-L122</t>
+          <t>1278-8-LE22</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>ADQ DE SILLAS PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
+          <t>Materiales de Seguridad Vial para Prov. de Curicó</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -17282,19 +17282,19 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-311-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1278-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>4281-29-LE22</t>
+          <t>1077920-7-LE22</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>SERVICIO DE IMPRENTA PARA EL DSM-CUNCO.</t>
+          <t>COMPRA COADYUVANTES PARA TERAPIA ONCOLOGICA</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -17310,19 +17310,19 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>1028-41-L122</t>
+          <t>1201-26-LE22</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Artículos de Escritorio</t>
+          <t>CS de arriendo multifuncionales IND Aysén</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -17338,19 +17338,19 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028-41-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-26-LE22</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>3252-36-L122</t>
+          <t>657-19-LE22</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>REPUESTOS Y ACCESORIOS CAMIONETA DAEM</t>
+          <t>Aseo Delegacion Serviu Puerto Aysen</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -17366,19 +17366,19 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3252-36-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=657-19-LE22</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>29-66-L122</t>
+          <t>1201-24-LE22</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>DTS.079/2021 ADQUISICIÓN DE REPUESTOS PARA CAMIONETAS MARCA NISSAN ZNA DE LA FUERZA AÉREA DE CHILE</t>
+          <t>Suministro de trofeos y medallas Escolares 2022</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -17394,19 +17394,19 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=29-66-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1201-24-LE22</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>3947-59-LE22</t>
+          <t>906-16-LE22</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>KIT DE SEGURIDAD DE BAÑOS PROGRAMA CIUDADES AMIGABLES LÍNEA 2 SANTA JUANA</t>
+          <t>MIRL Servicio de Aseo y auxiliar</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>2022-05-27T14:30:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E609" s="2" t="n">
@@ -17422,19 +17422,19 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3947-59-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=906-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>3928-17-LR22</t>
+          <t>4463-10-LQ22</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>CONSERVACION ESCUELA DIGNA CAMILO PICHILEMU</t>
+          <t>Contrato de Suministro de Medicamentos en comprimidos para el Hospital de Curicó</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -17442,7 +17442,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>2022-05-27T14:30:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E610" s="2" t="n">
@@ -17450,19 +17450,19 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-17-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4463-10-LQ22</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>1043-5-O122</t>
+          <t>1002-32-LE22</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>CONSERV. PEQ. AERODROMOS, AEROD. RIO BRAVO</t>
+          <t>CONVENIO SERVICIO DE MANTENCION EQUIPOS DE LABORATORIO</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -17470,7 +17470,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>2022-05-27T14:29:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E611" s="2" t="n">
@@ -17478,19 +17478,19 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1043-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002-32-LE22</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>4337-28-LE22</t>
+          <t>3497-21-LE22</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Mantención preventiva y correctiva autoclave</t>
+          <t>SUMINISTROS DE ALIMENTOS Y ABARROTES M. COBQUECURA</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>2022-05-27T14:28:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E612" s="2" t="n">
@@ -17506,19 +17506,19 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4337-28-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3497-21-LE22</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>1121816-77-L122</t>
+          <t>5737-3-LP22</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>PEDIDO N°1334 GESTION ADMINISTRATIVA</t>
+          <t>Serv. tamizaje At. Medica Area Oftalmologia</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>2022-05-27T14:19:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E613" s="2" t="n">
@@ -17534,19 +17534,19 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1121816-77-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5737-3-LP22</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>1736-163-L122</t>
+          <t>3428-14-L122</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>LLAVERO INSTITUCIONAL</t>
+          <t xml:space="preserve">Servicio de reparación del sistema de alcantarillado del Destacamento </t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>2022-05-27T14:18:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E614" s="2" t="n">
@@ -17562,19 +17562,19 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-163-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3428-14-L122</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>2409-297-L122</t>
+          <t>1059082-14-LE22</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ADQ. DE MASCARILLAS DESECHABLES PARA NIÑOS ESC. CHACAYAL SUR</t>
+          <t>Servicio Impresión J.I. JUNJI REGIÓN ÑUBLE</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -17582,7 +17582,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>2022-05-27T14:14:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E615" s="2" t="n">
@@ -17590,19 +17590,19 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-297-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1059082-14-LE22</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>2371-51-L122</t>
+          <t>1077920-8-LE22</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>S/P 185, EXPEDIENTE 6195, SERVICIO DE BIENESTAR</t>
+          <t>Compra de Fármacos Inyectables Tradicionales</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -17610,7 +17610,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>2022-05-27T14:06:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E616" s="2" t="n">
@@ -17618,19 +17618,19 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2371-51-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1077920-8-LE22</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>2409-304-L122</t>
+          <t>5155-14-LP22</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>ADQ. DE TELEVISOR PARA ESC. D-870</t>
+          <t>Serv Impresión carta variable para notificaciones</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E617" s="2" t="n">
@@ -17646,19 +17646,19 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-304-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5155-14-LP22</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>3537-73-L122</t>
+          <t>548868-9-LE22</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Adquisición de señaléticas  para el Campamento Puelo X</t>
+          <t>Servicio de Sala Cuna y Jardín Infantil IPS Xa.</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E618" s="2" t="n">
@@ -17674,19 +17674,19 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3537-73-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548868-9-LE22</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>3935-44-LE22</t>
+          <t>1462-10-LE22</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE ELECTROBOMBAS DE ASPIRACIÓN PARA POZOS DE AGUA Y ESTANQUES ALMACENADORES DE AGUA POTABLE 2022</t>
+          <t>SERVICIO DE ASEO Y LIMPIEZA DE CONSULTORIO ADOSADO Y UNIDADES DE APOYO DEL HOSPITAL DE HUALAÑÉ</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -17694,7 +17694,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E619" s="2" t="n">
@@ -17702,19 +17702,19 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1462-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>3928-19-L122</t>
+          <t>3502-61-LE22</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>CONTRATACION PLATAFORMA DIGITAL PARA COLEGIO DIVIN</t>
+          <t>ADQUISICIÓN DE COMPACTADORA UNIDAD MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E620" s="2" t="n">
@@ -17730,19 +17730,19 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-19-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3502-61-LE22</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>1191688-55-LE22</t>
+          <t>2284-118-L122</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Programa Águila Sur</t>
+          <t>SUMINISTRO MANTENCION Y REPARACION DE GASFITERIA — SOLICITUD Nº 45127</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E621" s="2" t="n">
@@ -17758,19 +17758,19 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-55-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2284-118-L122</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>2582-32-LP22</t>
+          <t>1380-122-LQ22</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN EQUIPAMIENTO ESCUELA REP. PANAMÁ</t>
+          <t>PPTA 198-22 “ADQUISICIÓN DE FORMULAS ENTERALES”</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -17778,7 +17778,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E622" s="2" t="n">
@@ -17786,19 +17786,19 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2582-32-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-122-LQ22</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>1409-7-LE22</t>
+          <t>1488-34-LE22</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Adquisición de Rack para trajes de combate</t>
+          <t>Propuesta Pública Nº203-22 denominada “MEJORAMIENTO Y REMODELACIÓN PARA PLANTA DE TRATAMIENTO DE AGUA DEL HOSPITAL”</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -17806,7 +17806,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E623" s="2" t="n">
@@ -17814,19 +17814,19 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1409-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1488-34-LE22</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>1079576-29-LE22</t>
+          <t>985737-2-LE22</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2DO. LLAMADO A LA CONTRATACIÓN DEL SUMINISTRO DE REPUESTOS PARA MOTOS POLICIALES MARCA HONDA Y BMW DE LA VIIIª ZONA DE CARABINEROS BÍO BÍO</t>
+          <t>INSUMOS Y EQUIPOS PARA TALLERES  TNS ENFERMERIA</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E624" s="2" t="n">
@@ -17842,19 +17842,19 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079576-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=985737-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>619133-87-LE22</t>
+          <t>933-7-LE22</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>CONVENIO SUMINISTRO ADQUISICION DE EXPANSOR Y PROTESIS MAMARIA PARA HOSPITAL SAN CAMILO</t>
+          <t>Implementos Deportivos para Programa</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E625" s="2" t="n">
@@ -17870,19 +17870,19 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=619133-87-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=933-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>4295-17-LE22</t>
+          <t>2328-207-LE22</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t xml:space="preserve">‘’ Adquisición de 20.0000 formularios de Licencia de conducir’’ </t>
+          <t>ADQUISICIÓN NOTEBOOK PARA UNIDAD DE FINANZAS</t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>2022-05-27T14:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E626" s="2" t="n">
@@ -17898,19 +17898,19 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4295-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-207-LE22</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>2137-20-L122</t>
+          <t>550301-1-LE22</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>LICITACIÓN FONOAUDIOLOGO</t>
+          <t>“SUMINISTRO DE MATERIALES PROGRAMA ORASMI</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>2022-05-27T13:46:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E627" s="2" t="n">
@@ -17926,19 +17926,19 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2137-20-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=550301-1-LE22</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>2671-4-LR22</t>
+          <t>29-66-L122</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>CONCESIÓN PARA LA MANTENCIÓN DE LAS  AREAS VERDES DE LA COMUNA DE CONCEPCIÓN 2022 - 2024</t>
+          <t>DTS.079/2021 ADQUISICIÓN DE REPUESTOS PARA CAMIONETAS MARCA NISSAN ZNA DE LA FUERZA AÉREA DE CHILE</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>2022-05-27T13:30:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E628" s="2" t="n">
@@ -17954,19 +17954,19 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2671-4-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=29-66-L122</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>3588-16-LE22</t>
+          <t>1002588-46-LE22</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO BAÑOS PUBLICOS ESTADIO MUNICIPAL</t>
+          <t>Coffee break vía suministro para el SLEP.</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -17974,7 +17974,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>2022-05-27T13:30:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E629" s="2" t="n">
@@ -17982,19 +17982,19 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3588-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002588-46-LE22</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>2452-107-L122</t>
+          <t>5413-81-LE22</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>10152 Materiales de aseo para vehículos Red de Salud</t>
+          <t>Impresión de Libros en OFFSET para la Universidad de Los Lagos</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -18002,7 +18002,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>2022-05-27T13:25:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E630" s="2" t="n">
@@ -18010,19 +18010,19 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2452-107-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5413-81-LE22</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>4832-6-LE22</t>
+          <t>3794-44-LE22</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>IMPRESORAS</t>
+          <t>FLETE INTERNACIONAL MENAJE WASHINGTON ESTADOS UNIDOS - SANTIAGO CHILE</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -18030,7 +18030,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>2022-05-27T13:22:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E631" s="2" t="n">
@@ -18038,19 +18038,19 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4832-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3794-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>1736-159-LE22</t>
+          <t>1028-41-L122</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Materiales de Construcción para el Programa Habitabilidad Convocatoria 2020.</t>
+          <t>Artículos de Escritorio</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>2022-05-27T13:22:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E632" s="2" t="n">
@@ -18066,19 +18066,19 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-159-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1028-41-L122</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>3935-45-LE22</t>
+          <t>4281-29-LE22</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE PROYECTORES LED PARA ESTADIO MUNICIPAL DE FREIRE</t>
+          <t>SERVICIO DE IMPRENTA PARA EL DSM-CUNCO.</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2022-05-27T13:22:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E633" s="2" t="n">
@@ -18094,19 +18094,19 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>2332-70-L122</t>
+          <t>3252-36-L122</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>SERVICIO DISEÑO Y REPOSICION ELECTRICA CESFAM ANGELMO Y C.CARVAJAL DESAM PTO MONTT</t>
+          <t>REPUESTOS Y ACCESORIOS CAMIONETA DAEM</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -18114,7 +18114,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>2022-05-27T13:16:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E634" s="2" t="n">
@@ -18122,19 +18122,19 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2332-70-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3252-36-L122</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>4555-9-L122</t>
+          <t>2409-313-L122</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>FORMULARIOS IMPRESOS PARA SALUD</t>
+          <t>ADQ DE MESAS Y ESTANTES PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>2022-05-27T13:10:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E635" s="2" t="n">
@@ -18150,19 +18150,19 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4555-9-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-313-L122</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>1563-3-L122</t>
+          <t>2409-314-L122</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Mantención Cortinas Metálicas sucursales Fonasa, DZCS</t>
+          <t>ADQUISICION DE MAQUINARIA PARA ESPECIALIDAD DE AGROPECUARIA DE LICEO LLANO BLANCO</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -18170,7 +18170,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E636" s="2" t="n">
@@ -18178,19 +18178,19 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1563-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-314-L122</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>3597-23-L122</t>
+          <t>2409-311-L122</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>ADQUISICION DE LICENCIA PARA CORTAFUEGOS SONICWALL NSA 2600, 1 AÑO</t>
+          <t>ADQ DE SILLAS PARA LABORATORIO DE INFORMATICA DE LICEO INDUSTRIAL A-65</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T15:00:00</t>
         </is>
       </c>
       <c r="E637" s="2" t="n">
@@ -18206,19 +18206,19 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3597-23-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-311-L122</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>1191688-56-LE22</t>
+          <t>3947-59-LE22</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Programa de veredas menos de 30 m2 Stgo. Rebolledo</t>
+          <t>KIT DE SEGURIDAD DE BAÑOS PROGRAMA CIUDADES AMIGABLES LÍNEA 2 SANTA JUANA</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T14:30:00</t>
         </is>
       </c>
       <c r="E638" s="2" t="n">
@@ -18234,19 +18234,19 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-56-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3947-59-LE22</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>1493-45-LE22</t>
+          <t>3928-17-LR22</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>MEJORAMIENTOS INSTALACIONES ELECTRICAS Y REPARACIONES EN VIVIENDAS PROGRAMA DE HABITABILIDAD 2021-2022 DE LA COMUNA DE SAN NICOLÁS</t>
+          <t>CONSERVACION ESCUELA DIGNA CAMILO PICHILEMU</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T14:30:00</t>
         </is>
       </c>
       <c r="E639" s="2" t="n">
@@ -18262,19 +18262,19 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1493-45-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-17-LR22</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>1487-2-LE22</t>
+          <t>1043-5-O122</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Serv. Sanitización Desratización - Ad Carriel Sur</t>
+          <t>CONSERV. PEQ. AERODROMOS, AEROD. RIO BRAVO</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -18282,7 +18282,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T14:29:00</t>
         </is>
       </c>
       <c r="E640" s="2" t="n">
@@ -18290,19 +18290,19 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1487-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1043-5-O122</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>1191688-53-LE22</t>
+          <t>4337-28-LE22</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Programa de Veredas</t>
+          <t>Mantención preventiva y correctiva autoclave</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T14:28:00</t>
         </is>
       </c>
       <c r="E641" s="2" t="n">
@@ -18318,19 +18318,19 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-53-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4337-28-LE22</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>3333-27-LQ22</t>
+          <t>1121816-77-L122</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>TRANSMISIÓN Y PRODUCCIÓN FESTIVAL DEL HUASO</t>
+          <t>PEDIDO N°1334 GESTION ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>2022-05-27T13:00:00</t>
+          <t>2022-05-27T14:19:00</t>
         </is>
       </c>
       <c r="E642" s="2" t="n">
@@ -18346,19 +18346,19 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3333-27-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1121816-77-L122</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>2409-295-L122</t>
+          <t>1736-163-L122</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>ADQ. PROGRAMA DE FORMACION Y ACOMPAÑAMIENTO PARA ESC. D-926</t>
+          <t>LLAVERO INSTITUCIONAL</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>2022-05-27T12:52:00</t>
+          <t>2022-05-27T14:18:00</t>
         </is>
       </c>
       <c r="E643" s="2" t="n">
@@ -18374,19 +18374,19 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-295-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-163-L122</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>3693-99-LE22</t>
+          <t>2409-297-L122</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE VESTUARIO Y CALZADO OPERACIONES</t>
+          <t>ADQ. DE MASCARILLAS DESECHABLES PARA NIÑOS ESC. CHACAYAL SUR</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>2022-05-27T12:30:00</t>
+          <t>2022-05-27T14:14:00</t>
         </is>
       </c>
       <c r="E644" s="2" t="n">
@@ -18402,19 +18402,19 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-99-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-297-L122</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>613419-25-LE22</t>
+          <t>2371-51-L122</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE 72 M3 DE MEZCLA DE HORMIGÓN PARA INSTALACIÓN DE RADIER DE GALPONES DESMONTABLES PROGRAMA FNDR RECICLAJE REGIÓN DEL BIOBÍO 2022</t>
+          <t>S/P 185, EXPEDIENTE 6195, SERVICIO DE BIENESTAR</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -18422,7 +18422,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>2022-05-27T12:30:00</t>
+          <t>2022-05-27T14:06:00</t>
         </is>
       </c>
       <c r="E645" s="2" t="n">
@@ -18430,19 +18430,19 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=613419-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2371-51-L122</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>2311-80-L122</t>
+          <t>2409-304-L122</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>PROTECCIONES PARA VENTANAS POSTA DE SALUD</t>
+          <t>ADQ. DE TELEVISOR PARA ESC. D-870</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>2022-05-27T12:23:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E646" s="2" t="n">
@@ -18458,19 +18458,19 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-80-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-304-L122</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>2793-125-LE22</t>
+          <t>3928-19-L122</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Adquisición de Camioneta para la Municipalidad</t>
+          <t>CONTRATACION PLATAFORMA DIGITAL PARA COLEGIO DIVIN</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -18478,7 +18478,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>2022-05-27T12:16:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E647" s="2" t="n">
@@ -18486,19 +18486,19 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2793-125-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3928-19-L122</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>2215-20-LE22</t>
+          <t>3935-44-LE22</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>SUMINISTRO INSUMOS PROCEDIMIENTOS BRONCOPULMONAR</t>
+          <t>ADQUISICIÓN DE ELECTROBOMBAS DE ASPIRACIÓN PARA POZOS DE AGUA Y ESTANQUES ALMACENADORES DE AGUA POTABLE 2022</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -18506,7 +18506,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>2022-05-27T12:16:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E648" s="2" t="n">
@@ -18514,19 +18514,19 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2215-20-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>2129-10-LE22</t>
+          <t>1191688-55-LE22</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESTUDIO DE PRE-INVERSIÓN CESFAM ÑIPAS. </t>
+          <t>Programa Águila Sur</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>2022-05-27T12:14:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E649" s="2" t="n">
@@ -18542,19 +18542,19 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2129-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-55-LE22</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>2381-29-LE22</t>
+          <t>2582-32-LP22</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE FÁRMACOS DIRECCIÓN DE SALUD MUNICIP</t>
+          <t>ADQUISICIÓN EQUIPAMIENTO ESCUELA REP. PANAMÁ</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -18562,7 +18562,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>2022-05-27T12:13:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E650" s="2" t="n">
@@ -18570,19 +18570,19 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2381-29-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2582-32-LP22</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>3710-129-L122</t>
+          <t>1079576-29-LE22</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>INSUMOS MÉDICOS PARA EL SAR</t>
+          <t>2DO. LLAMADO A LA CONTRATACIÓN DEL SUMINISTRO DE REPUESTOS PARA MOTOS POLICIALES MARCA HONDA Y BMW DE LA VIIIª ZONA DE CARABINEROS BÍO BÍO</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -18590,7 +18590,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>2022-05-27T12:13:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E651" s="2" t="n">
@@ -18598,19 +18598,19 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3710-129-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079576-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>3449-6-LE22</t>
+          <t>619133-87-LE22</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>CONVENIO DE SUMINISTRO DE ALIMENTOS COBQUECURA</t>
+          <t>CONVENIO SUMINISTRO ADQUISICION DE EXPANSOR Y PROTESIS MAMARIA PARA HOSPITAL SAN CAMILO</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -18618,7 +18618,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>2022-05-27T12:04:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E652" s="2" t="n">
@@ -18626,19 +18626,19 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3449-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=619133-87-LE22</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>2405-80-LE22</t>
+          <t>1409-7-LE22</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>SERV. RETIRO TRASLADO Y DISPOSICION CONTENEDORES</t>
+          <t>Adquisición de Rack para trajes de combate</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -18646,7 +18646,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E653" s="2" t="n">
@@ -18654,19 +18654,19 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-80-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1409-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>602-39-LE22</t>
+          <t>4295-17-LE22</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Servicio Exclusivo Transporte Escolar Rural Chahuilco - Salca 2022</t>
+          <t xml:space="preserve">‘’ Adquisición de 20.0000 formularios de Licencia de conducir’’ </t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E654" s="2" t="n">
@@ -18682,19 +18682,19 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=602-39-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4295-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>4159-10-LE22</t>
+          <t>3537-73-L122</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>SERVICIO DE IMPRESION Y FOTOCOPIADO DAEM PARRAL</t>
+          <t>Adquisición de señaléticas  para el Campamento Puelo X</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -18702,7 +18702,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T14:00:00</t>
         </is>
       </c>
       <c r="E655" s="2" t="n">
@@ -18710,19 +18710,19 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4159-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3537-73-L122</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>575061-59-LE22</t>
+          <t>2137-20-L122</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>UPS PARA RESPALDO EQUIPOS LACRIM CENTRAL</t>
+          <t>LICITACIÓN FONOAUDIOLOGO</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -18730,7 +18730,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:46:00</t>
         </is>
       </c>
       <c r="E656" s="2" t="n">
@@ -18738,19 +18738,19 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=575061-59-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2137-20-L122</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>2319-24-LE22</t>
+          <t>2671-4-LR22</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Mejopramiento Vial Apertura Calle El Canelo</t>
+          <t>CONCESIÓN PARA LA MANTENCIÓN DE LAS  AREAS VERDES DE LA COMUNA DE CONCEPCIÓN 2022 - 2024</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:30:00</t>
         </is>
       </c>
       <c r="E657" s="2" t="n">
@@ -18766,19 +18766,19 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-24-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2671-4-LR22</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>2309-59-LQ22</t>
+          <t>3588-16-LE22</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Conservación jardín infantil y sala cuna Trencito de mis tesoros 2° llamado</t>
+          <t>MEJORAMIENTO BAÑOS PUBLICOS ESTADIO MUNICIPAL</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -18786,7 +18786,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:30:00</t>
         </is>
       </c>
       <c r="E658" s="2" t="n">
@@ -18794,19 +18794,19 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2309-59-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3588-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>2319-25-LE22</t>
+          <t>2452-107-L122</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Reparación eléctrica e Instalacion alumbrado</t>
+          <t>10152 Materiales de aseo para vehículos Red de Salud</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -18814,7 +18814,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:25:00</t>
         </is>
       </c>
       <c r="E659" s="2" t="n">
@@ -18822,19 +18822,19 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-25-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2452-107-L122</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>4085-18-LE22</t>
+          <t>3935-45-LE22</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Suministro Banquetería Coctelería y otros</t>
+          <t>ADQUISICIÓN DE PROYECTORES LED PARA ESTADIO MUNICIPAL DE FREIRE</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:22:00</t>
         </is>
       </c>
       <c r="E660" s="2" t="n">
@@ -18850,19 +18850,19 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>539119-23-LE22</t>
+          <t>1736-159-LE22</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TASACIONES INMOBILIARIA ZONA NORTE CENTRO SUR Y AUSTRAL DE CHILE.</t>
+          <t>Materiales de Construcción para el Programa Habitabilidad Convocatoria 2020.</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:22:00</t>
         </is>
       </c>
       <c r="E661" s="2" t="n">
@@ -18878,19 +18878,19 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=539119-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-159-LE22</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>3693-98-LE22</t>
+          <t>4832-6-LE22</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>VESTUARIO Y CALZADO DIMAO 2022</t>
+          <t>IMPRESORAS</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -18898,7 +18898,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:22:00</t>
         </is>
       </c>
       <c r="E662" s="2" t="n">
@@ -18906,19 +18906,19 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-98-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4832-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>923000-19-CO22</t>
+          <t>2332-70-L122</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>BANCO DE PRUEBAS MECANICO</t>
+          <t>SERVICIO DISEÑO Y REPOSICION ELECTRICA CESFAM ANGELMO Y C.CARVAJAL DESAM PTO MONTT</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -18926,7 +18926,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:16:00</t>
         </is>
       </c>
       <c r="E663" s="2" t="n">
@@ -18934,19 +18934,19 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-19-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2332-70-L122</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>1057498-23-LE22</t>
+          <t>4555-9-L122</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>MATERIALES PARA GASFITERÍA</t>
+          <t>FORMULARIOS IMPRESOS PARA SALUD</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:10:00</t>
         </is>
       </c>
       <c r="E664" s="2" t="n">
@@ -18962,19 +18962,19 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057498-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4555-9-L122</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>614-2-LE22</t>
+          <t>1563-3-L122</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO EDIFICIO SEREMI MINVU I REGION</t>
+          <t>Mantención Cortinas Metálicas sucursales Fonasa, DZCS</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E665" s="2" t="n">
@@ -18990,19 +18990,19 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=614-2-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1563-3-L122</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>3311-6-LE22</t>
+          <t>3597-23-L122</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADQUISICION MATERIALES DE OFICINA PDI REPOL MAULE </t>
+          <t>ADQUISICION DE LICENCIA PARA CORTAFUEGOS SONICWALL NSA 2600, 1 AÑO</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E666" s="2" t="n">
@@ -19018,19 +19018,19 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3311-6-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3597-23-L122</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>712307-34-O122</t>
+          <t>1191688-56-LE22</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Pavimentos Participativos 31 Proceso - Grupo 3</t>
+          <t>Programa de veredas menos de 30 m2 Stgo. Rebolledo</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E667" s="2" t="n">
@@ -19046,19 +19046,19 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=712307-34-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-56-LE22</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>894863-15-LP22</t>
+          <t>1487-2-LE22</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>ASESORIA INSPECCION TECNICA OBRA CERRO GRANDE</t>
+          <t>Serv. Sanitización Desratización - Ad Carriel Sur</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E668" s="2" t="n">
@@ -19074,19 +19074,19 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=894863-15-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1487-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>3138-22-LE22</t>
+          <t>1493-45-LE22</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>COMPRESOR DE AIRE DE BAJA PRESIÓN</t>
+          <t>MEJORAMIENTOS INSTALACIONES ELECTRICAS Y REPARACIONES EN VIVIENDAS PROGRAMA DE HABITABILIDAD 2021-2022 DE LA COMUNA DE SAN NICOLÁS</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -19094,7 +19094,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E669" s="2" t="n">
@@ -19102,19 +19102,19 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3138-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1493-45-LE22</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>975-35-O122</t>
+          <t>1191688-53-LE22</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIF PERF Y HAB DE POZOS SOMEROS SECTOR MINCHA </t>
+          <t>Programa de Veredas</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -19122,7 +19122,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E670" s="2" t="n">
@@ -19130,19 +19130,19 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-35-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-53-LE22</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>5315-9-LR22</t>
+          <t>3333-27-LQ22</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>CONSTRUCCION CASETAS SANITARIAS LOCALIDAD DE RAFAEL COMUNA DE TOMÉ</t>
+          <t>TRANSMISIÓN Y PRODUCCIÓN FESTIVAL DEL HUASO</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T13:00:00</t>
         </is>
       </c>
       <c r="E671" s="2" t="n">
@@ -19158,19 +19158,19 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5315-9-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3333-27-LQ22</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>1063487-10-LP22</t>
+          <t>2409-295-L122</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERVICIO BULLDOZER CONSERVACION RIO LONQUEN </t>
+          <t>ADQ. PROGRAMA DE FORMACION Y ACOMPAÑAMIENTO PARA ESC. D-926</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:52:00</t>
         </is>
       </c>
       <c r="E672" s="2" t="n">
@@ -19186,19 +19186,19 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1063487-10-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-295-L122</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>2430-23-LR22</t>
+          <t>613419-25-LE22</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>PLAN DE DESARROLLO COMUNAL DE ANTOFAGASTA 2023-2029</t>
+          <t>ADQUISICIÓN DE 72 M3 DE MEZCLA DE HORMIGÓN PARA INSTALACIÓN DE RADIER DE GALPONES DESMONTABLES PROGRAMA FNDR RECICLAJE REGIÓN DEL BIOBÍO 2022</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -19206,7 +19206,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:30:00</t>
         </is>
       </c>
       <c r="E673" s="2" t="n">
@@ -19214,19 +19214,19 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2430-23-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=613419-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>2348-17-LE22</t>
+          <t>3693-99-LE22</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN INSUMOS DE ASEO PARA STOCK BODEGA.</t>
+          <t>ADQUISICIÓN DE VESTUARIO Y CALZADO OPERACIONES</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -19234,7 +19234,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:30:00</t>
         </is>
       </c>
       <c r="E674" s="2" t="n">
@@ -19242,19 +19242,19 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2348-17-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-99-LE22</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>5463-12-LQ22</t>
+          <t>2311-80-L122</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>SUMINISTRO MANTENCION DE VEHICULOS</t>
+          <t>PROTECCIONES PARA VENTANAS POSTA DE SALUD</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -19262,7 +19262,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:23:00</t>
         </is>
       </c>
       <c r="E675" s="2" t="n">
@@ -19270,19 +19270,19 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-12-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2311-80-L122</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>5463-9-LP22</t>
+          <t>2793-125-LE22</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>SERVICIO DE MANTENCIÓN PREVENTIVA CORRECTIVA</t>
+          <t>Adquisición de Camioneta para la Municipalidad</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -19290,7 +19290,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>2022-05-27T12:00:00</t>
+          <t>2022-05-27T12:16:00</t>
         </is>
       </c>
       <c r="E676" s="2" t="n">
@@ -19298,19 +19298,19 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-9-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2793-125-LE22</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>4086-35-LE22</t>
+          <t>2215-20-LE22</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN EQUIPOS DE AUDIO</t>
+          <t>SUMINISTRO INSUMOS PROCEDIMIENTOS BRONCOPULMONAR</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>2022-05-27T11:15:00</t>
+          <t>2022-05-27T12:16:00</t>
         </is>
       </c>
       <c r="E677" s="2" t="n">
@@ -19326,19 +19326,19 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4086-35-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2215-20-LE22</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>3017-104-L122</t>
+          <t>2129-10-LE22</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>SERVICIO DE FUMIGACION Y DESRATICACION  ADM MUNICIPAL.</t>
+          <t xml:space="preserve">ESTUDIO DE PRE-INVERSIÓN CESFAM ÑIPAS. </t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>2022-05-27T11:10:00</t>
+          <t>2022-05-27T12:14:00</t>
         </is>
       </c>
       <c r="E678" s="2" t="n">
@@ -19354,19 +19354,19 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3017-104-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2129-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>729-236-LE22</t>
+          <t>2381-29-LE22</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>COFRE FUSIBLE ALSTOM G1317 7-11317 ECU</t>
+          <t>ADQUISICIÓN DE FÁRMACOS DIRECCIÓN DE SALUD MUNICIP</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>2022-05-27T11:09:00</t>
+          <t>2022-05-27T12:13:00</t>
         </is>
       </c>
       <c r="E679" s="2" t="n">
@@ -19382,19 +19382,19 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-236-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2381-29-LE22</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>2360-37-L122</t>
+          <t>3710-129-L122</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE INSUMOS GENERALES PARA LABORATORIO</t>
+          <t>INSUMOS MÉDICOS PARA EL SAR</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T12:13:00</t>
         </is>
       </c>
       <c r="E680" s="2" t="n">
@@ -19410,19 +19410,19 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-37-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3710-129-L122</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>835727-26-L122</t>
+          <t>3449-6-LE22</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>SERVICIO DE PRODUCCION DE EVENTOS PRESENTACIÓN ARTISTICA AMPLIFICACION DE SONIDO Y ESCENARIO</t>
+          <t>CONVENIO DE SUMINISTRO DE ALIMENTOS COBQUECURA</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T12:04:00</t>
         </is>
       </c>
       <c r="E681" s="2" t="n">
@@ -19438,19 +19438,19 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=835727-26-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3449-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>1369-8-O122</t>
+          <t>2405-80-LE22</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>CCB B-155, KM 19 al 32,5 Tercer Llamado</t>
+          <t>SERV. RETIRO TRASLADO Y DISPOSICION CONTENEDORES</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E682" s="2" t="n">
@@ -19466,19 +19466,19 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-8-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-80-LE22</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>1152-10-O122</t>
+          <t>602-39-LE22</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>CONSERVACIÓN PALACIO DE LA MONEDA 2022</t>
+          <t>Servicio Exclusivo Transporte Escolar Rural Chahuilco - Salca 2022</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E683" s="2" t="n">
@@ -19494,19 +19494,19 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1152-10-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=602-39-LE22</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>975-34-O122</t>
+          <t>923000-19-CO22</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>AIF PERF POZOS SOMEROS SECTOR TUNGA. 2DO LLAMADO</t>
+          <t>BANCO DE PRUEBAS MECANICO</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -19514,7 +19514,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E684" s="2" t="n">
@@ -19522,19 +19522,19 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-34-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-19-CO22</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>4469-30-L122</t>
+          <t>4159-10-LE22</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>SC 30323-30324 (CPV) TABLETS GALAXI TAB S6 LITE BOOK COVER 10,4" O SIMILAR  ESCUELA POST GRADO</t>
+          <t>SERVICIO DE IMPRESION Y FOTOCOPIADO DAEM PARRAL</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -19542,7 +19542,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>2022-05-27T11:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E685" s="2" t="n">
@@ -19550,19 +19550,19 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-30-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4159-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>975-1-O122</t>
+          <t>575061-59-LE22</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Plan Maestro de Evacuación Buin y Paine</t>
+          <t>UPS PARA RESPALDO EQUIPOS LACRIM CENTRAL</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>2022-05-27T10:55:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E686" s="2" t="n">
@@ -19578,19 +19578,19 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-1-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=575061-59-LE22</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>1741-44-L122</t>
+          <t>2319-25-LE22</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>PAÑALES ADULTO - SOCIAL 78</t>
+          <t>Reparación eléctrica e Instalacion alumbrado</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>2022-05-27T10:18:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E687" s="2" t="n">
@@ -19606,19 +19606,19 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1741-44-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-25-LE22</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>2992-93-LE22</t>
+          <t>2309-59-LQ22</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Estanque para almacenar agua</t>
+          <t>Conservación jardín infantil y sala cuna Trencito de mis tesoros 2° llamado</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>2022-05-27T10:08:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E688" s="2" t="n">
@@ -19634,19 +19634,19 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2992-93-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2309-59-LQ22</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>4062-7-LE22</t>
+          <t>4085-18-LE22</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>SERVICIO DE VULCANIZACION PARA EL AÑO 2022</t>
+          <t>Suministro Banquetería Coctelería y otros</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -19654,7 +19654,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>2022-05-27T10:06:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E689" s="2" t="n">
@@ -19662,19 +19662,19 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4062-7-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4085-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>3241-23-LE22</t>
+          <t>1057498-23-LE22</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE MATERIALES PARA JARDIN INFANTIL Y SALA CUNA</t>
+          <t>MATERIALES PARA GASFITERÍA</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>2022-05-27T10:02:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E690" s="2" t="n">
@@ -19690,19 +19690,19 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3241-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057498-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>4329-12-CO22</t>
+          <t>539119-23-LE22</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>CONVENIO PARA LAS MANTENCIONES Y REPARACIONES</t>
+          <t>SUMINISTRO DE TASACIONES INMOBILIARIA ZONA NORTE CENTRO SUR Y AUSTRAL DE CHILE.</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>2022-05-27T10:01:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E691" s="2" t="n">
@@ -19718,19 +19718,19 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4329-12-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=539119-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>2687-10-LE22</t>
+          <t>2319-24-LE22</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DEPORTIVA PARA EL COLEGIO C.A.A.</t>
+          <t>Mejopramiento Vial Apertura Calle El Canelo</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -19738,7 +19738,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>2022-05-27T10:01:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E692" s="2" t="n">
@@ -19746,19 +19746,19 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2687-10-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2319-24-LE22</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>1013609-16-LE22</t>
+          <t>614-2-LE22</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>adq serv mant de casino de playa SOFLES</t>
+          <t>MEJORAMIENTO EDIFICIO SEREMI MINVU I REGION</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>2022-05-27T10:01:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E693" s="2" t="n">
@@ -19774,19 +19774,19 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1013609-16-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=614-2-LE22</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>2920-44-LE22</t>
+          <t>712307-34-O122</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Adquisición Computadores Daf</t>
+          <t>Pavimentos Participativos 31 Proceso - Grupo 3</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -19794,7 +19794,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E694" s="2" t="n">
@@ -19802,19 +19802,19 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2920-44-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=712307-34-O122</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>3757-4-LE22</t>
+          <t>894863-15-LP22</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>ADQUISICION MAQUINAS COMPACTADORAS ENFARDADORAS</t>
+          <t>ASESORIA INSPECCION TECNICA OBRA CERRO GRANDE</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E695" s="2" t="n">
@@ -19830,19 +19830,19 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3757-4-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=894863-15-LP22</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>2360-36-L122</t>
+          <t>3138-22-LE22</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN DE BASUREROS PARA RESIDUOS ESPECIALES.</t>
+          <t>COMPRESOR DE AIRE DE BAJA PRESIÓN</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -19850,7 +19850,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E696" s="2" t="n">
@@ -19858,19 +19858,19 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-36-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3138-22-LE22</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>4324-23-LE22</t>
+          <t>2348-17-LE22</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servicio de Mantención Preventivo de Equipos Críticos Del Cesfam Perquenco </t>
+          <t>ADQUISICIÓN INSUMOS DE ASEO PARA STOCK BODEGA.</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -19878,7 +19878,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E697" s="2" t="n">
@@ -19886,19 +19886,19 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4324-23-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2348-17-LE22</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>923000-18-LE22</t>
+          <t>975-35-O122</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>EQUIPAMIENTO MECANICA</t>
+          <t xml:space="preserve">AIF PERF Y HAB DE POZOS SOMEROS SECTOR MINCHA </t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -19906,7 +19906,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E698" s="2" t="n">
@@ -19914,19 +19914,19 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-35-O122</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>3459-28-LE22</t>
+          <t>3311-6-LE22</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO Y REPARACIÓN MAQUINARIA RANCHO TROPA</t>
+          <t xml:space="preserve">ADQUISICION MATERIALES DE OFICINA PDI REPOL MAULE </t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -19934,7 +19934,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E699" s="2" t="n">
@@ -19942,19 +19942,19 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3459-28-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3311-6-LE22</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>2703-135-L122</t>
+          <t>5315-9-LR22</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>SC 8387 Uso dental. CESFAM</t>
+          <t>CONSTRUCCION CASETAS SANITARIAS LOCALIDAD DE RAFAEL COMUNA DE TOMÉ</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -19962,7 +19962,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E700" s="2" t="n">
@@ -19970,19 +19970,19 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-135-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5315-9-LR22</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>2703-136-L122</t>
+          <t>1063487-10-LP22</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>SC 8388 Uso dental. CESFAM</t>
+          <t xml:space="preserve">SERVICIO BULLDOZER CONSERVACION RIO LONQUEN </t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E701" s="2" t="n">
@@ -19998,19 +19998,19 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-136-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1063487-10-LP22</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>2703-137-L122</t>
+          <t>5463-9-LP22</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>SC 8389 Indicador biológico CESFAM</t>
+          <t>SERVICIO DE MANTENCIÓN PREVENTIVA CORRECTIVA</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -20018,7 +20018,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E702" s="2" t="n">
@@ -20026,19 +20026,19 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-137-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-9-LP22</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>2703-139-L122</t>
+          <t>5463-12-LQ22</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>SC 8075 Pechera Polietileno. CESFAM</t>
+          <t>SUMINISTRO MANTENCION DE VEHICULOS</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E703" s="2" t="n">
@@ -20054,19 +20054,19 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-139-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5463-12-LQ22</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>2664-18-LE22</t>
+          <t>2430-23-LR22</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>MEDICAMENTOS DROGUERIA</t>
+          <t>PLAN DE DESARROLLO COMUNAL DE ANTOFAGASTA 2023-2029</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -20074,7 +20074,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E704" s="2" t="n">
@@ -20082,19 +20082,19 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2664-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2430-23-LR22</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>2409-307-L122</t>
+          <t>3693-98-LE22</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN LIBROS DE LECTURA ESCUELA RINCONADA DEL SALTO</t>
+          <t>VESTUARIO Y CALZADO DIMAO 2022</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T12:00:00</t>
         </is>
       </c>
       <c r="E705" s="2" t="n">
@@ -20110,19 +20110,19 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-307-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3693-98-LE22</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>2292-34-LE22</t>
+          <t>4086-35-LE22</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Arriendo de Carpas Impermeables para Entrada Principal de Cesfam La Florida Cesfam Carlos Trup W. y Posta Mercedes</t>
+          <t>ADQUISICIÓN EQUIPOS DE AUDIO</t>
         </is>
       </c>
       <c r="C706" t="n">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T11:15:00</t>
         </is>
       </c>
       <c r="E706" s="2" t="n">
@@ -20138,19 +20138,19 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2292-34-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4086-35-LE22</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>757818-3-L122</t>
+          <t>3017-104-L122</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>ADQUISICION MATERIALES DE CONSTRUCCION AYUDA SOCIA</t>
+          <t>SERVICIO DE FUMIGACION Y DESRATICACION  ADM MUNICIPAL.</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T11:10:00</t>
         </is>
       </c>
       <c r="E707" s="2" t="n">
@@ -20166,19 +20166,19 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=757818-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3017-104-L122</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>2282-19-LQ22</t>
+          <t>729-236-LE22</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>P.P 21-2022 CONTRATACIÓN SERVICIO DE BACHEO</t>
+          <t>COFRE FUSIBLE ALSTOM G1317 7-11317 ECU</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T11:09:00</t>
         </is>
       </c>
       <c r="E708" s="2" t="n">
@@ -20194,19 +20194,19 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2282-19-LQ22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-236-LE22</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>1369-9-O122</t>
+          <t>4469-30-L122</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>CRV Ruta 27-CH. KM 90 al 96, Tercer Llamado</t>
+          <t>SC 30323-30324 (CPV) TABLETS GALAXI TAB S6 LITE BOOK COVER 10,4" O SIMILAR  ESCUELA POST GRADO</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -20214,7 +20214,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E709" s="2" t="n">
@@ -20222,19 +20222,19 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-9-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4469-30-L122</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>653-21-O122</t>
+          <t>2360-37-L122</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Cons. veredas desconfinamiento post covid Curepto</t>
+          <t>ADQUISICIÓN DE INSUMOS GENERALES PARA LABORATORIO</t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -20242,7 +20242,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E710" s="2" t="n">
@@ -20250,19 +20250,19 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=653-21-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-37-L122</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>2216-5-O122</t>
+          <t>1369-8-O122</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIFE Américo Vespucio Oriente, Tramo Av. El Salto </t>
+          <t>CCB B-155, KM 19 al 32,5 Tercer Llamado</t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -20270,7 +20270,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E711" s="2" t="n">
@@ -20278,19 +20278,19 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-8-O122</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>1048-35-H222</t>
+          <t>1152-10-O122</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR COMUNA EL TABO</t>
+          <t>CONSERVACIÓN PALACIO DE LA MONEDA 2022</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>2022-05-27T10:00:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E712" s="2" t="n">
@@ -20306,19 +20306,19 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1048-35-H222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1152-10-O122</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>2342-43-LR22</t>
+          <t>975-34-O122</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN Y MANTENCIÓN SERVICIOS DE TELEFONÍA IP PARA LA ILUSTRE MUNICIPALIDAD DE SAN BERNARDO</t>
+          <t>AIF PERF POZOS SOMEROS SECTOR TUNGA. 2DO LLAMADO</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -20326,7 +20326,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>2022-05-27T09:45:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E713" s="2" t="n">
@@ -20334,19 +20334,19 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2342-43-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-34-O122</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>3929-22-LE22</t>
+          <t>835727-26-L122</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>BARRIOS COMERCIALES PROTEGIDOS ILUMINACIÓN SEGURA AÑO 2021” CÓDIGO BCP21-IL-0002</t>
+          <t>SERVICIO DE PRODUCCION DE EVENTOS PRESENTACIÓN ARTISTICA AMPLIFICACION DE SONIDO Y ESCENARIO</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -20354,7 +20354,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>2022-05-27T09:30:00</t>
+          <t>2022-05-27T11:00:00</t>
         </is>
       </c>
       <c r="E714" s="2" t="n">
@@ -20362,19 +20362,19 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3929-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=835727-26-L122</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>3505-18-LE22</t>
+          <t>975-1-O122</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Arriendo gabinete Psicotécnico para la Municipalidad de Pencahue</t>
+          <t>Plan Maestro de Evacuación Buin y Paine</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>2022-05-27T09:30:00</t>
+          <t>2022-05-27T10:55:00</t>
         </is>
       </c>
       <c r="E715" s="2" t="n">
@@ -20390,19 +20390,19 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3505-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-1-O122</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>1464-50-LE22</t>
+          <t>1741-44-L122</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>CAPACITACIONES PAC 2022  HOSPITAL PARRAL</t>
+          <t>PAÑALES ADULTO - SOCIAL 78</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>2022-05-27T09:30:00</t>
+          <t>2022-05-27T10:18:00</t>
         </is>
       </c>
       <c r="E716" s="2" t="n">
@@ -20418,19 +20418,19 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1464-50-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1741-44-L122</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>4351-30-LE22</t>
+          <t>2992-93-LE22</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Materiales cierre perimetral Estadio Municipal</t>
+          <t>Estanque para almacenar agua</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>2022-05-27T09:01:00</t>
+          <t>2022-05-27T10:08:00</t>
         </is>
       </c>
       <c r="E717" s="2" t="n">
@@ -20446,19 +20446,19 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4351-30-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2992-93-LE22</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>2408-148-LE22</t>
+          <t>4062-7-LE22</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN Y EQUIPOS PARA PROGRAMA VIVIENDAS CON APOYO 2022</t>
+          <t>SERVICIO DE VULCANIZACION PARA EL AÑO 2022</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:06:00</t>
         </is>
       </c>
       <c r="E718" s="2" t="n">
@@ -20474,19 +20474,19 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2408-148-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4062-7-LE22</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>704093-54-O122</t>
+          <t>3241-23-LE22</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>LP 56-2022 INF. SANITARIA, VARIAS COMUNAS</t>
+          <t>ADQUISICIÓN DE MATERIALES PARA JARDIN INFANTIL Y SALA CUNA</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -20494,7 +20494,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:02:00</t>
         </is>
       </c>
       <c r="E719" s="2" t="n">
@@ -20502,19 +20502,19 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=704093-54-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3241-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>2409-228-LE22</t>
+          <t>1013609-16-LE22</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>SERVICIO DE INSTALACIÓN DE MAMPARA CON PROTECCIÓN Y RAMPA EN HORMIGÓN PARA SECTOR DE BIBLIOTECA A-61 COEDUCACIONAL</t>
+          <t>adq serv mant de casino de playa SOFLES</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:01:00</t>
         </is>
       </c>
       <c r="E720" s="2" t="n">
@@ -20530,19 +20530,19 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-228-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1013609-16-LE22</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>1851-18-LE22</t>
+          <t>2687-10-LE22</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Adquisición Señales  DPVC.</t>
+          <t>IMPLEMENTACIÓN DEPORTIVA PARA EL COLEGIO C.A.A.</t>
         </is>
       </c>
       <c r="C721" t="n">
@@ -20550,7 +20550,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:01:00</t>
         </is>
       </c>
       <c r="E721" s="2" t="n">
@@ -20558,19 +20558,19 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1851-18-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2687-10-LE22</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>1057509-136-LE22</t>
+          <t>4329-12-CO22</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>CONVENIO COMPRA DE SERVICIOS MÉDICOS PARA REALIZAR INTERVENCIONES QUIRÚRGICAS ESPECIALIDAD UROLOGÍA lbl</t>
+          <t>CONVENIO PARA LAS MANTENCIONES Y REPARACIONES</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:01:00</t>
         </is>
       </c>
       <c r="E722" s="2" t="n">
@@ -20586,19 +20586,19 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057509-136-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4329-12-CO22</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>2405-77-LE22</t>
+          <t>3757-4-LE22</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>CTTO DE SERVICIO DE PLAN DE MEDIOS RADIAL</t>
+          <t>ADQUISICION MAQUINAS COMPACTADORAS ENFARDADORAS</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E723" s="2" t="n">
@@ -20614,19 +20614,19 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-77-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3757-4-LE22</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>2261-12-O122</t>
+          <t>3459-28-LE22</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>AIF Terminación Ruta S-70 Pocoyan Pte. Peule</t>
+          <t>MANTENIMIENTO Y REPARACIÓN MAQUINARIA RANCHO TROPA</t>
         </is>
       </c>
       <c r="C724" t="n">
@@ -20634,7 +20634,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E724" s="2" t="n">
@@ -20642,19 +20642,19 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-12-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3459-28-LE22</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>2409-196-LE22</t>
+          <t>4324-23-LE22</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>CONSERVACIÓN ÁREA DE PREBASICA ESCUELA F-887 ISLA DEL LAJA LOS ÁNGELES</t>
+          <t xml:space="preserve">Servicio de Mantención Preventivo de Equipos Críticos Del Cesfam Perquenco </t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -20662,7 +20662,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E725" s="2" t="n">
@@ -20670,19 +20670,19 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-196-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4324-23-LE22</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>2261-6-O222</t>
+          <t>2703-135-L122</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Repararción Pte. Pellahuen, comuna de Lumaco</t>
+          <t>SC 8387 Uso dental. CESFAM</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E726" s="2" t="n">
@@ -20698,19 +20698,19 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-6-O222</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-135-L122</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>1369-11-O122</t>
+          <t>2703-136-L122</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Termino Obras CCB Ruta B-70</t>
+          <t>SC 8388 Uso dental. CESFAM</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E727" s="2" t="n">
@@ -20726,19 +20726,19 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-11-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-136-L122</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>3845-3-LE22</t>
+          <t>2703-137-L122</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PUERTAS Y VENTANAS SALAS DE CLASES</t>
+          <t>SC 8389 Indicador biológico CESFAM</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -20746,7 +20746,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E728" s="2" t="n">
@@ -20754,19 +20754,19 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3845-3-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-137-L122</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>2409-110-LE22</t>
+          <t>923000-18-LE22</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>TEXTOS COMPRENSION LECTORA  ESCUELA D-934</t>
+          <t>EQUIPAMIENTO MECANICA</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E729" s="2" t="n">
@@ -20782,19 +20782,19 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-110-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=923000-18-LE22</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>3847-22-LE22</t>
+          <t>2360-36-L122</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>SERVICIO INTERNET DEDICADO PARA DEPENDENCIAS MSG</t>
+          <t>ADQUISICIÓN DE BASUREROS PARA RESIDUOS ESPECIALES.</t>
         </is>
       </c>
       <c r="C730" t="n">
@@ -20802,7 +20802,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E730" s="2" t="n">
@@ -20810,19 +20810,19 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3847-22-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2360-36-L122</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>2471-65-LE22</t>
+          <t>2920-44-LE22</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>MATERIAL TECNOLÓGICO- G-223 E-235 G-215</t>
+          <t>Adquisición Computadores Daf</t>
         </is>
       </c>
       <c r="C731" t="n">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E731" s="2" t="n">
@@ -20838,19 +20838,19 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2471-65-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2920-44-LE22</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>3478-18-CO22</t>
+          <t>2292-34-LE22</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>ADQUISICION DE CIRCUITO CERRADO DE TELEVISION</t>
+          <t>Arriendo de Carpas Impermeables para Entrada Principal de Cesfam La Florida Cesfam Carlos Trup W. y Posta Mercedes</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -20858,7 +20858,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E732" s="2" t="n">
@@ -20866,19 +20866,19 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3478-18-CO22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2292-34-LE22</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>2405-81-LE22</t>
+          <t>757818-3-L122</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE 13 POSTES CÓNICOS </t>
+          <t>ADQUISICION MATERIALES DE CONSTRUCCION AYUDA SOCIA</t>
         </is>
       </c>
       <c r="C733" t="n">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E733" s="2" t="n">
@@ -20894,19 +20894,19 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-81-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=757818-3-L122</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>727202-54-LE22</t>
+          <t>2282-19-LQ22</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE LUBRICANTES Y OTROS SERVICIOS</t>
+          <t>P.P 21-2022 CONTRATACIÓN SERVICIO DE BACHEO</t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -20914,7 +20914,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E734" s="2" t="n">
@@ -20922,19 +20922,19 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-54-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2282-19-LQ22</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>2324-276-L122</t>
+          <t>1369-9-O122</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t xml:space="preserve">IMPLEMENTACION MOBILIARIO OFICINAS OPERATIVAS </t>
+          <t>CRV Ruta 27-CH. KM 90 al 96, Tercer Llamado</t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>2022-05-27T09:00:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E735" s="2" t="n">
@@ -20950,19 +20950,19 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2324-276-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-9-O122</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>1265-5-O122</t>
+          <t>653-21-O122</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>ESBA MEJORAMIENTO CALETA LAS CONCHAS</t>
+          <t>Cons. veredas desconfinamiento post covid Curepto</t>
         </is>
       </c>
       <c r="C736" t="n">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>2022-05-27T08:30:00</t>
+          <t>2022-05-27T10:00:00</t>
         </is>
       </c>
       <c r="E736" s="2" t="n">
@@ -20978,33 +20978,845 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1265-5-O122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=653-21-O122</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
+          <t>2216-5-O122</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AIFE Américo Vespucio Oriente, Tramo Av. El Salto </t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>6</v>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>2022-05-27T10:00:00</t>
+        </is>
+      </c>
+      <c r="E737" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-5-O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>1048-35-H222</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>ACTUALIZACION PLAN REGULADOR COMUNA EL TABO</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>6</v>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>2022-05-27T10:00:00</t>
+        </is>
+      </c>
+      <c r="E738" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1048-35-H222</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2664-18-LE22</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>MEDICAMENTOS DROGUERIA</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>6</v>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>2022-05-27T10:00:00</t>
+        </is>
+      </c>
+      <c r="E739" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2664-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2409-307-L122</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN LIBROS DE LECTURA ESCUELA RINCONADA DEL SALTO</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>6</v>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>2022-05-27T10:00:00</t>
+        </is>
+      </c>
+      <c r="E740" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-307-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2703-139-L122</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>SC 8075 Pechera Polietileno. CESFAM</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>6</v>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>2022-05-27T10:00:00</t>
+        </is>
+      </c>
+      <c r="E741" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2703-139-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2342-43-LR22</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>IMPLEMENTACIÓN Y MANTENCIÓN SERVICIOS DE TELEFONÍA IP PARA LA ILUSTRE MUNICIPALIDAD DE SAN BERNARDO</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>6</v>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:45:00</t>
+        </is>
+      </c>
+      <c r="E742" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2342-43-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>3929-22-LE22</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>BARRIOS COMERCIALES PROTEGIDOS ILUMINACIÓN SEGURA AÑO 2021” CÓDIGO BCP21-IL-0002</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>6</v>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:30:00</t>
+        </is>
+      </c>
+      <c r="E743" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3929-22-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>1464-50-LE22</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>CAPACITACIONES PAC 2022  HOSPITAL PARRAL</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>6</v>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:30:00</t>
+        </is>
+      </c>
+      <c r="E744" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1464-50-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>3505-18-LE22</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Arriendo gabinete Psicotécnico para la Municipalidad de Pencahue</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>6</v>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:30:00</t>
+        </is>
+      </c>
+      <c r="E745" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3505-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>4351-30-LE22</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Materiales cierre perimetral Estadio Municipal</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>6</v>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:01:00</t>
+        </is>
+      </c>
+      <c r="E746" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4351-30-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2408-148-LE22</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>IMPLEMENTACIÓN Y EQUIPOS PARA PROGRAMA VIVIENDAS CON APOYO 2022</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>6</v>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E747" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2408-148-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2409-228-LE22</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>SERVICIO DE INSTALACIÓN DE MAMPARA CON PROTECCIÓN Y RAMPA EN HORMIGÓN PARA SECTOR DE BIBLIOTECA A-61 COEDUCACIONAL</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>6</v>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E748" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-228-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>1851-18-LE22</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Adquisición Señales  DPVC.</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>6</v>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E749" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1851-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2405-77-LE22</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>CTTO DE SERVICIO DE PLAN DE MEDIOS RADIAL</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>6</v>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E750" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-77-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>1057509-136-LE22</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>CONVENIO COMPRA DE SERVICIOS MÉDICOS PARA REALIZAR INTERVENCIONES QUIRÚRGICAS ESPECIALIDAD UROLOGÍA lbl</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>6</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E751" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057509-136-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>704093-54-O122</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>LP 56-2022 INF. SANITARIA, VARIAS COMUNAS</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>6</v>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E752" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=704093-54-O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2409-196-LE22</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>CONSERVACIÓN ÁREA DE PREBASICA ESCUELA F-887 ISLA DEL LAJA LOS ÁNGELES</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>6</v>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E753" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-196-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2261-12-O122</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>AIF Terminación Ruta S-70 Pocoyan Pte. Peule</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>6</v>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E754" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-12-O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>1369-11-O122</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Termino Obras CCB Ruta B-70</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>6</v>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E755" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1369-11-O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2261-6-O222</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Repararción Pte. Pellahuen, comuna de Lumaco</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>6</v>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E756" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-6-O222</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>3845-3-LE22</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>MEJORAMIENTO PUERTAS Y VENTANAS SALAS DE CLASES</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>6</v>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E757" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3845-3-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2409-110-LE22</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>TEXTOS COMPRENSION LECTORA  ESCUELA D-934</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>6</v>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E758" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-110-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2324-276-L122</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMPLEMENTACION MOBILIARIO OFICINAS OPERATIVAS </t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>6</v>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E759" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2324-276-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>3478-18-CO22</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE CIRCUITO CERRADO DE TELEVISION</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>6</v>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E760" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3478-18-CO22</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2405-81-LE22</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMINISTRO DE 13 POSTES CÓNICOS </t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>6</v>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E761" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-81-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>3847-22-LE22</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>SERVICIO INTERNET DEDICADO PARA DEPENDENCIAS MSG</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>6</v>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E762" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3847-22-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>727202-54-LE22</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE LUBRICANTES Y OTROS SERVICIOS</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>6</v>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E763" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-54-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2471-65-LE22</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>MATERIAL TECNOLÓGICO- G-223 E-235 G-215</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>6</v>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>2022-05-27T09:00:00</t>
+        </is>
+      </c>
+      <c r="E764" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2471-65-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>1265-5-O122</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>ESBA MEJORAMIENTO CALETA LAS CONCHAS</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>6</v>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>2022-05-27T08:30:00</t>
+        </is>
+      </c>
+      <c r="E765" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1265-5-O122</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
           <t>2261-10-O122</t>
         </is>
       </c>
-      <c r="B737" t="inlineStr">
+      <c r="B766" t="inlineStr">
         <is>
           <t>Cam.Maquehue Boroa Pte. Ragñintuleufu, 2do llamado</t>
         </is>
       </c>
-      <c r="C737" t="n">
-        <v>6</v>
-      </c>
-      <c r="D737" t="inlineStr">
+      <c r="C766" t="n">
+        <v>6</v>
+      </c>
+      <c r="D766" t="inlineStr">
         <is>
           <t>2022-05-27T08:00:00</t>
         </is>
       </c>
-      <c r="E737" s="2" t="n">
-        <v>44708</v>
-      </c>
-      <c r="F737" t="inlineStr">
+      <c r="E766" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="F766" t="inlineStr">
         <is>
           <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2261-10-O122</t>
         </is>

--- a/licitaciones_cerradas_2019.xlsx
+++ b/licitaciones_cerradas_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2624"/>
+  <dimension ref="A1:F2682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68600,6 +68600,1514 @@
         </is>
       </c>
     </row>
+    <row r="2625">
+      <c r="A2625" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>3964-19-L122</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>Servicio de construcción de pozo, conexión y limpieza sanitaria de la DIGEFER</t>
+        </is>
+      </c>
+      <c r="D2625" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2625" s="2" t="n">
+        <v>44714.89583333334</v>
+      </c>
+      <c r="F2625" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3964-19-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>4964-21-L122</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>Adquisición de Materiales agrícolas PRODESAL de Casablanca.</t>
+        </is>
+      </c>
+      <c r="D2626" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2626" s="2" t="n">
+        <v>44714.87847222222</v>
+      </c>
+      <c r="F2626" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4964-21-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>2704-118-LE22</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>SC 857 CERTIFICACIÓN DE SISTEMA DE VOTCIÓN ELECTRÓ</t>
+        </is>
+      </c>
+      <c r="D2627" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2627" s="2" t="n">
+        <v>44714.83333333334</v>
+      </c>
+      <c r="F2627" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2704-118-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>1079866-29-L122</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>PROYECTO CONSTRUCCIÓN DEL TALLER DE MANTENIMIENTO ZONA OESTE (HORMIGON)</t>
+        </is>
+      </c>
+      <c r="D2628" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2628" s="2" t="n">
+        <v>44714.83333333334</v>
+      </c>
+      <c r="F2628" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079866-29-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>2445-62-LE22</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>ARREGLO Y CAMBIOS DE CERAMICOS SAPU CENTRAL</t>
+        </is>
+      </c>
+      <c r="D2629" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2629" s="2" t="n">
+        <v>44714.83055555556</v>
+      </c>
+      <c r="F2629" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2445-62-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>514847-14-LE22</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>SERV. DESRATIZACION DESINSECTACION Y SANITIZACION</t>
+        </is>
+      </c>
+      <c r="D2630" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2630" s="2" t="n">
+        <v>44714.82847222222</v>
+      </c>
+      <c r="F2630" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=514847-14-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>2793-137-LE22</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>Ss. Reparación Sellos y Ventilación Alcantarillado</t>
+        </is>
+      </c>
+      <c r="D2631" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2631" s="2" t="n">
+        <v>44714.82777777778</v>
+      </c>
+      <c r="F2631" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2793-137-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>4628-2-L122</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>GESTIÓN DE AUMENTO DE POTENCIA ELÉCTRICA E INSTALACIÓN PARA EQUIPOS DE AIRE ACONDICIONADO EN IPT MAIPO – GOBERNACION DEL MAIPO</t>
+        </is>
+      </c>
+      <c r="D2632" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2632" s="2" t="n">
+        <v>44714.82569444444</v>
+      </c>
+      <c r="F2632" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4628-2-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>4083-14-LE22</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>Adquisición de Lentes Ópticos para UAPO Cabrero</t>
+        </is>
+      </c>
+      <c r="D2633" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2633" s="2" t="n">
+        <v>44714.82361111111</v>
+      </c>
+      <c r="F2633" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4083-14-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>2599-26-LE22</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>TONER HP ORIGINAL PARA IMPRESORA Y FOTOCOPIADORA</t>
+        </is>
+      </c>
+      <c r="D2634" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2634" s="2" t="n">
+        <v>44714.81666666667</v>
+      </c>
+      <c r="F2634" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2599-26-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>1080157-4-L122</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANTENIMIENTO Y REPARACIÓN DE LA SALA DE CALDERA ESFOCAR LOS ANDES  </t>
+        </is>
+      </c>
+      <c r="D2635" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2635" s="2" t="n">
+        <v>44714.80069444444</v>
+      </c>
+      <c r="F2635" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1080157-4-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>2395-62-L122</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Sol. Ped. 666) Limpieza y Reparación de Techumbre y Canaletas, Recinto de Salud </t>
+        </is>
+      </c>
+      <c r="D2636" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2636" s="2" t="n">
+        <v>44714.79861111111</v>
+      </c>
+      <c r="F2636" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2395-62-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>1736-166-L122</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>LENTES OPTICOS</t>
+        </is>
+      </c>
+      <c r="D2637" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2637" s="2" t="n">
+        <v>44714.79861111111</v>
+      </c>
+      <c r="F2637" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1736-166-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>2744-52-L122</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADQUISICION DE EQUIPOS COMPUTACIONALES CSF. ALEMANIA </t>
+        </is>
+      </c>
+      <c r="D2638" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2638" s="2" t="n">
+        <v>44714.79166666666</v>
+      </c>
+      <c r="F2638" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2744-52-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>1692-10-LE22</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>Adquisición de Muebles y Calefactor SENDA</t>
+        </is>
+      </c>
+      <c r="D2639" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2639" s="2" t="n">
+        <v>44714.79166666666</v>
+      </c>
+      <c r="F2639" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1692-10-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>607-23-LE22</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>Prov. Ilustraciones Cient. Señaléticas Zoológico N</t>
+        </is>
+      </c>
+      <c r="D2640" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2640" s="2" t="n">
+        <v>44714.79166666666</v>
+      </c>
+      <c r="F2640" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=607-23-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>729-251-LE22</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>LAMPARA FLUORESCENTE 220V 28W T5 G5 83 2-15619 ECU</t>
+        </is>
+      </c>
+      <c r="D2641" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2641" s="2" t="n">
+        <v>44714.78402777778</v>
+      </c>
+      <c r="F2641" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-251-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>1532-29-LE22</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>EXTENCION Y MEJORAMIENTO RED CALEFACCION CENTRAL</t>
+        </is>
+      </c>
+      <c r="D2642" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2642" s="2" t="n">
+        <v>44714.78263888889</v>
+      </c>
+      <c r="F2642" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1532-29-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>3783-12-LE22</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>Compra de repuestos camioneta Toyota</t>
+        </is>
+      </c>
+      <c r="D2643" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2643" s="2" t="n">
+        <v>44714.78125</v>
+      </c>
+      <c r="F2643" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3783-12-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>3950-36-LE22</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>“ADQUISICIÓN DE MEDICAMENTOS PARA STOCK EN BODEGA   DE LA DIRECCIÓN ATENCIÓN PRIMARIA</t>
+        </is>
+      </c>
+      <c r="D2644" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2644" s="2" t="n">
+        <v>44714.77777777778</v>
+      </c>
+      <c r="F2644" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3950-36-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>3935-53-LE22</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>“ADQUISICIÓN DE EQUIPAMIENTO PARA EL PROGRAMA HABITABILIDAD 2020 COMUNA DE FREIRE”</t>
+        </is>
+      </c>
+      <c r="D2645" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2645" s="2" t="n">
+        <v>44714.77638888889</v>
+      </c>
+      <c r="F2645" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3935-53-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>2564-49-LE22</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>Equipos Computacionales</t>
+        </is>
+      </c>
+      <c r="D2646" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2646" s="2" t="n">
+        <v>44714.775</v>
+      </c>
+      <c r="F2646" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2564-49-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>3887-46-L122</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>Aprovisionamiento alimento para perros</t>
+        </is>
+      </c>
+      <c r="D2647" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2647" s="2" t="n">
+        <v>44714.76180555556</v>
+      </c>
+      <c r="F2647" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3887-46-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>1660-55-L122</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>CONVENIO DOSIMETROS PARA AÑO 2022.</t>
+        </is>
+      </c>
+      <c r="D2648" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2648" s="2" t="n">
+        <v>44714.76111111111</v>
+      </c>
+      <c r="F2648" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1660-55-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>4263-2-LE22</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>UTILES ESCOLARES PARA LA ESCUELA E-36 DE ANGOL</t>
+        </is>
+      </c>
+      <c r="D2649" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2649" s="2" t="n">
+        <v>44714.75208333333</v>
+      </c>
+      <c r="F2649" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4263-2-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>1655-33-LP22</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>SERVICIO DE CONTROL DE VECTORES</t>
+        </is>
+      </c>
+      <c r="D2650" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2650" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2650" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1655-33-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>854-19-L122</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>ADQUISICION CAMAS APILABLES JI PEQUEÑA ESTANCIA</t>
+        </is>
+      </c>
+      <c r="D2651" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2651" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2651" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=854-19-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>681563-11-LQ22</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>SERVICIO PLATAFORMA LMS CAPACITACIÓN Y BECAS - ABG</t>
+        </is>
+      </c>
+      <c r="D2652" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2652" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2652" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=681563-11-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>1079659-54-L122</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>SERVICIO DE LIMPIEZA DE FOSAS SÉPTICAS PARA LA 4TA. COMISARIA C.O.P. LOS ALAMOS</t>
+        </is>
+      </c>
+      <c r="D2653" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2653" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2653" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079659-54-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>1079659-52-L122</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE REPUESTOS MERCEDES BENZ OF 1722/59 SVELTO AÑO 2009.</t>
+        </is>
+      </c>
+      <c r="D2654" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2654" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2654" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079659-52-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>1079659-53-L122</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE REPUESTOS VEHICULO POLICIAL LA-014 DE LA 4TA. COMISARIA C.O.P. LOS ALAMOS.</t>
+        </is>
+      </c>
+      <c r="D2655" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2655" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2655" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079659-53-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>3290-11-L122</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>MANTENIMIENTO Y REPARACIÓN GRUPOS ELECTRÓGENOS PDI REPOL ARAUCANÍA</t>
+        </is>
+      </c>
+      <c r="D2656" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2656" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2656" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3290-11-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>3187-42-LE22</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>REPARACION DE VIGAS Y PILOTES MUELLE CAPUERTO EDEN</t>
+        </is>
+      </c>
+      <c r="D2657" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2657" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2657" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3187-42-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>1079659-50-L122</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>SUMINISTRO Y DESPACHO DE HERRAMIENTAS PARA EL PERSONAL TIC DE LA ZONA ARAUCANÍA CONTROL ORDEN PÚBLICO</t>
+        </is>
+      </c>
+      <c r="D2658" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2658" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2658" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079659-50-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>1079659-51-L122</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>SUMINISTRO Y DESPACHO DE MATERIALES DE CONSTRUCCIÓN PARA EL PERSONAL TIC DE LA ZONA ARAUCANÍA CONTROL ORDEN PÚBLICO</t>
+        </is>
+      </c>
+      <c r="D2659" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2659" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2659" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079659-51-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>4486-14-L122</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MOVILIZACION O TRANSPORTE DE NIÑOS Y NIÑAS EN EDAD PREESCOLAR CENTRO EDUCATIVO-CULTURAL CECI SEMILLITA DE RIHUE COMUNA DE NEGRETE AÑO 2022</t>
+        </is>
+      </c>
+      <c r="D2660" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2660" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2660" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4486-14-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>3842-9-L122</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>CAMBIO DE LUMINARIAS PUEBLO VIEJO - RUTA D-607</t>
+        </is>
+      </c>
+      <c r="D2661" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2661" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2661" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3842-9-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>1718-18-L122</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>12 RELOJES BIOMETRICOS Y UN ENROLAMIENTO</t>
+        </is>
+      </c>
+      <c r="D2662" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2662" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2662" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1718-18-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>3290-12-L122</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BOLSO INDIVIDUAL PRIMERA RESPUESTA O IFAK CON INSUMOS PARA PDI REPOL ARAUCANÍA </t>
+        </is>
+      </c>
+      <c r="D2663" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2663" s="2" t="n">
+        <v>44714.75</v>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3290-12-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>2273-120-L122</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>MAMPARA Y VENTANA D-C 675  XG.</t>
+        </is>
+      </c>
+      <c r="D2664" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2664" s="2" t="n">
+        <v>44714.74722222222</v>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2273-120-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>2387-70-LE22</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>Contratación de asistencia técnica para el desarro</t>
+        </is>
+      </c>
+      <c r="D2665" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2665" s="2" t="n">
+        <v>44714.74027777778</v>
+      </c>
+      <c r="F2665" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2387-70-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>3172-52-LE22</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>MANT. SALA BOMBA DE AGUA PARA LA 56A COM PEÑAFLOR</t>
+        </is>
+      </c>
+      <c r="D2666" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2666" s="2" t="n">
+        <v>44714.73819444444</v>
+      </c>
+      <c r="F2666" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3172-52-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>1057511-15-LE22</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>Toma de Exámenes de EDA Alta Hospital Bulnes</t>
+        </is>
+      </c>
+      <c r="D2667" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2667" s="2" t="n">
+        <v>44714.7375</v>
+      </c>
+      <c r="F2667" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057511-15-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2800-10-LP22</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>CS. MATERIAL DEPORTIVO Y OTROS DAEM LOS ANDES</t>
+        </is>
+      </c>
+      <c r="D2668" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2668" s="2" t="n">
+        <v>44714.7375</v>
+      </c>
+      <c r="F2668" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2800-10-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>3413-11-L122</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>ADQUISICIÒN DE REPUESTOS Y SERVICIO DE MANTENIMIENTO PARA VEHÍCULOS ADM DEL CGVIDE</t>
+        </is>
+      </c>
+      <c r="D2669" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2669" s="2" t="n">
+        <v>44714.73611111111</v>
+      </c>
+      <c r="F2669" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3413-11-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>2564-47-LE22</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>CS Mantención y Reparación de Vehículos</t>
+        </is>
+      </c>
+      <c r="D2670" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2670" s="2" t="n">
+        <v>44714.73055555556</v>
+      </c>
+      <c r="F2670" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2564-47-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>1638-142-L122</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>adquisicion de quimicos para programa piscina municipal de inca de oro 2021-2022 sm2238</t>
+        </is>
+      </c>
+      <c r="D2671" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2671" s="2" t="n">
+        <v>44714.72916666666</v>
+      </c>
+      <c r="F2671" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1638-142-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>2279-41-L122</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>SP 293 SERVICIO PRODUCCIÓN DE EVENTOS DIDECO</t>
+        </is>
+      </c>
+      <c r="D2672" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2672" s="2" t="n">
+        <v>44714.72916666666</v>
+      </c>
+      <c r="F2672" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2279-41-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>4414-64-L122</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>“Materiales de ferretería para reparaciones y construcción en diferentes puntos de la Comuna, DIMAAO</t>
+        </is>
+      </c>
+      <c r="D2673" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2673" s="2" t="n">
+        <v>44714.72916666666</v>
+      </c>
+      <c r="F2673" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4414-64-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>3323-1-LE22</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE PIOCHAS MEDALLAS CINTAS Y BOTONES</t>
+        </is>
+      </c>
+      <c r="D2674" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2674" s="2" t="n">
+        <v>44714.72916666666</v>
+      </c>
+      <c r="F2674" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3323-1-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>3478-19-LE22</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>ARRIENDO DE SERVICIO DE IMPRESIÓN Y FOTOCOPIADO</t>
+        </is>
+      </c>
+      <c r="D2675" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2675" s="2" t="n">
+        <v>44714.72916666666</v>
+      </c>
+      <c r="F2675" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3478-19-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>1978-57-L122</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>COMPRA DE SILLAS ERGONÓMICAS PARA BASES SAMU</t>
+        </is>
+      </c>
+      <c r="D2676" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2676" s="2" t="n">
+        <v>44714.72916666666</v>
+      </c>
+      <c r="F2676" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1978-57-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>3505-21-LE22</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>Materiales electricos para mantención</t>
+        </is>
+      </c>
+      <c r="D2677" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2677" s="2" t="n">
+        <v>44714.72847222222</v>
+      </c>
+      <c r="F2677" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3505-21-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>2101-45-LE22</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>Insumos clinicos</t>
+        </is>
+      </c>
+      <c r="D2678" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2678" s="2" t="n">
+        <v>44714.72708333333</v>
+      </c>
+      <c r="F2678" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2101-45-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>3085-51-LE22</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>CONCESIÓN DE SERVICIO DE LAVANDERÍA CON PUNTO DE ENTREGA Y RETIRO AL INTERIOR DE LA BASE NAVAL DE TALCAHUANO</t>
+        </is>
+      </c>
+      <c r="D2679" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2679" s="2" t="n">
+        <v>44714.72569444445</v>
+      </c>
+      <c r="F2679" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3085-51-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>4513-18-L122</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>ARTICULOS DE ASEO</t>
+        </is>
+      </c>
+      <c r="D2680" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2680" s="2" t="n">
+        <v>44714.72222222222</v>
+      </c>
+      <c r="F2680" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4513-18-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>3664-12-L122</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>SERVICIOS DE REPARACIÓN Y MANTENCIÓN DE ESCUELA</t>
+        </is>
+      </c>
+      <c r="D2681" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2681" s="2" t="n">
+        <v>44714.72222222222</v>
+      </c>
+      <c r="F2681" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3664-12-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>1057489-267-LE22</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO DE TUBOS EPPENDORF Y PUNTAS CON FILTRO PARA MICROPIPETAS POR 12 MESES PARA HOSPITAL DEL SALVADOR.</t>
+        </is>
+      </c>
+      <c r="D2682" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2682" s="2" t="n">
+        <v>44714.72222222222</v>
+      </c>
+      <c r="F2682" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057489-267-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
